--- a/excel/excel-training/Level 2/Data Preparation - BEGIN.xlsx
+++ b/excel/excel-training/Level 2/Data Preparation - BEGIN.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21406"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jonac\Dropbox\Excel Campus\Courses\Elevate\Course Files\Stage 2\Stage 2 Final Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sai_akella/Desktop/PSSM/GITHUB/data-science/excel/excel-training/Level 2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C19FC579-96BC-4F81-80E3-497FF280538A}" xr6:coauthVersionLast="42" xr6:coauthVersionMax="42" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3276A305-C02F-0548-A492-449CF5F248D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="707" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="707" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TOC" sheetId="22" r:id="rId1"/>
@@ -927,9 +927,6 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="170" fontId="1" fillId="0" borderId="0" xfId="5" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -945,6 +942,9 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Comma" xfId="3" builtinId="3"/>
@@ -953,7 +953,7 @@
     <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="Percent" xfId="5" builtinId="5"/>
+    <cellStyle name="Per cent" xfId="5" builtinId="5"/>
   </cellStyles>
   <dxfs count="30">
     <dxf>
@@ -1163,10 +1163,10 @@
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="27" formatCode="m/d/yyyy\ h:mm"/>
+      <numFmt numFmtId="171" formatCode="m/d/yyyy\ h:mm"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+      <numFmt numFmtId="172" formatCode="m/d/yyyy"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -1191,7 +1191,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+      <numFmt numFmtId="172" formatCode="m/d/yyyy"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -1216,7 +1216,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+      <numFmt numFmtId="172" formatCode="m/d/yyyy"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -2449,7 +2449,7 @@
     <tableColumn id="1" xr3:uid="{BD2E7C19-4CCD-4715-80D2-F3CEBA8B619D}" name="First Name" totalsRowLabel="Total"/>
     <tableColumn id="2" xr3:uid="{E0033434-99A9-4108-BEC3-3CA31150EB59}" name="Last Name"/>
     <tableColumn id="3" xr3:uid="{C5FB64C1-6B7E-4177-9095-F2A5FD76111F}" name="Sales" totalsRowFunction="sum" dataDxfId="12" totalsRowDxfId="11" dataCellStyle="Currency"/>
-    <tableColumn id="4" xr3:uid="{269F38AE-02D6-429F-9F05-DA267B97CE09}" name="% of Total" totalsRowFunction="sum" dataDxfId="10" totalsRowDxfId="9" dataCellStyle="Percent" totalsRowCellStyle="Percent">
+    <tableColumn id="4" xr3:uid="{269F38AE-02D6-429F-9F05-DA267B97CE09}" name="% of Total" totalsRowFunction="sum" dataDxfId="10" totalsRowDxfId="9">
       <calculatedColumnFormula>tblSalesReps[[#This Row],[Sales]]/tblSalesReps[[#Totals],[Sales]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2771,88 +2771,88 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="4.140625" customWidth="1"/>
-    <col min="3" max="3" width="25.7109375" style="33" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" customWidth="1"/>
+    <col min="1" max="2" width="4.1640625" customWidth="1"/>
+    <col min="3" max="3" width="25.6640625" style="32" customWidth="1"/>
+    <col min="4" max="4" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="36" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="37" t="s">
+    <row r="1" spans="1:11" s="35" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="36" t="s">
         <v>220</v>
       </c>
-      <c r="F1" s="38" t="s">
+      <c r="F1" s="37" t="s">
         <v>216</v>
       </c>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
-      <c r="K1" s="38"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="35" t="s">
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="37"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" s="34" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B3" s="31" t="s">
+    <row r="3" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="B3" s="30" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B4" s="32">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B4" s="31">
         <v>1</v>
       </c>
-      <c r="C4" s="34" t="s">
+      <c r="C4" s="33" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B5" s="32">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B5" s="31">
         <v>2</v>
       </c>
-      <c r="C5" s="34" t="s">
+      <c r="C5" s="33" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B6" s="32">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B6" s="31">
         <v>3</v>
       </c>
-      <c r="C6" s="34" t="s">
+      <c r="C6" s="33" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B7" s="32">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B7" s="31">
         <v>4</v>
       </c>
-      <c r="C7" s="34" t="s">
+      <c r="C7" s="33" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B8" s="32">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B8" s="31">
         <v>5</v>
       </c>
-      <c r="C8" s="34" t="s">
+      <c r="C8" s="33" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C11" s="39" t="s">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C11" s="38" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C12" s="39" t="s">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C12" s="38" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C13" s="34" t="s">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C13" s="33" t="s">
         <v>219</v>
       </c>
     </row>
@@ -2881,15 +2881,15 @@
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="27.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>124</v>
       </c>
@@ -2897,7 +2897,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>122</v>
       </c>
@@ -2908,7 +2908,7 @@
       <c r="J2" s="10"/>
       <c r="K2" s="14"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>123</v>
       </c>
@@ -2919,7 +2919,7 @@
       <c r="J3" s="13"/>
       <c r="K3" s="14"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>120</v>
       </c>
@@ -2942,27 +2942,27 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:G84"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="A60" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I75" sqref="I75"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="18" t="s">
         <v>129</v>
       </c>
@@ -2985,7 +2985,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>43101</v>
       </c>
@@ -3009,7 +3009,7 @@
         <v>93.702000000000012</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>43101</v>
       </c>
@@ -3033,7 +3033,7 @@
         <v>89.14800000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>43101</v>
       </c>
@@ -3057,7 +3057,7 @@
         <v>41.510399999999997</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>43101</v>
       </c>
@@ -3078,7 +3078,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>43101</v>
       </c>
@@ -3102,7 +3102,7 @@
         <v>27.717300000000005</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>43102</v>
       </c>
@@ -3126,7 +3126,7 @@
         <v>13.86</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>43102</v>
       </c>
@@ -3150,7 +3150,7 @@
         <v>62.83</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>43103</v>
       </c>
@@ -3174,7 +3174,7 @@
         <v>26.25</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>43103</v>
       </c>
@@ -3198,7 +3198,7 @@
         <v>365.14800000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>43104</v>
       </c>
@@ -3222,7 +3222,7 @@
         <v>61.3872</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>43104</v>
       </c>
@@ -3246,7 +3246,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>43104</v>
       </c>
@@ -3270,7 +3270,7 @@
         <v>36.008800000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>43104</v>
       </c>
@@ -3294,7 +3294,7 @@
         <v>79.340799999999987</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>43105</v>
       </c>
@@ -3318,7 +3318,7 @@
         <v>150.47999999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>43106</v>
       </c>
@@ -3342,7 +3342,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>43106</v>
       </c>
@@ -3366,7 +3366,7 @@
         <v>318.15999999999997</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>43106</v>
       </c>
@@ -3390,7 +3390,7 @@
         <v>122.39999999999999</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>43106</v>
       </c>
@@ -3414,7 +3414,7 @@
         <v>133.12</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>43107</v>
       </c>
@@ -3438,7 +3438,7 @@
         <v>118.65600000000001</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>43108</v>
       </c>
@@ -3462,7 +3462,7 @@
         <v>255.15</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>43108</v>
       </c>
@@ -3486,7 +3486,7 @@
         <v>45.441000000000003</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>43108</v>
       </c>
@@ -3507,7 +3507,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>43108</v>
       </c>
@@ -3528,7 +3528,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>43108</v>
       </c>
@@ -3552,7 +3552,7 @@
         <v>193.01100000000002</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>43109</v>
       </c>
@@ -3576,7 +3576,7 @@
         <v>56.856000000000002</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>43109</v>
       </c>
@@ -3600,7 +3600,7 @@
         <v>141.42600000000002</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>43110</v>
       </c>
@@ -3624,7 +3624,7 @@
         <v>115.42999999999999</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>43112</v>
       </c>
@@ -3648,7 +3648,7 @@
         <v>220.5</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>43112</v>
       </c>
@@ -3672,7 +3672,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>43112</v>
       </c>
@@ -3696,7 +3696,7 @@
         <v>43.783500000000004</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>43112</v>
       </c>
@@ -3720,7 +3720,7 @@
         <v>164.15</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>43113</v>
       </c>
@@ -3744,7 +3744,7 @@
         <v>239.12</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>43114</v>
       </c>
@@ -3768,7 +3768,7 @@
         <v>5.1338300000000014</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>43115</v>
       </c>
@@ -3789,7 +3789,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>43115</v>
       </c>
@@ -3813,7 +3813,7 @@
         <v>16.6145</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>43116</v>
       </c>
@@ -3837,7 +3837,7 @@
         <v>29.325000000000003</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>43116</v>
       </c>
@@ -3861,7 +3861,7 @@
         <v>82.875</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>43116</v>
       </c>
@@ -3885,7 +3885,7 @@
         <v>198.352</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>43117</v>
       </c>
@@ -3909,7 +3909,7 @@
         <v>20.16</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>43117</v>
       </c>
@@ -3933,7 +3933,7 @@
         <v>90.25</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>43117</v>
       </c>
@@ -3957,7 +3957,7 @@
         <v>175.02800000000002</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>43118</v>
       </c>
@@ -3981,7 +3981,7 @@
         <v>225.62100000000001</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>43119</v>
       </c>
@@ -4005,7 +4005,7 @@
         <v>122.24700000000001</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>43121</v>
       </c>
@@ -4029,7 +4029,7 @@
         <v>279.68</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>43121</v>
       </c>
@@ -4053,7 +4053,7 @@
         <v>22.746500000000001</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>43121</v>
       </c>
@@ -4077,7 +4077,7 @@
         <v>36.67</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>43121</v>
       </c>
@@ -4101,7 +4101,7 @@
         <v>106.70730000000002</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>43121</v>
       </c>
@@ -4122,7 +4122,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>43121</v>
       </c>
@@ -4146,7 +4146,7 @@
         <v>17.042999999999999</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>43121</v>
       </c>
@@ -4170,7 +4170,7 @@
         <v>92.205749999999995</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>43122</v>
       </c>
@@ -4194,7 +4194,7 @@
         <v>300.846</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>43122</v>
       </c>
@@ -4218,7 +4218,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>43123</v>
       </c>
@@ -4242,7 +4242,7 @@
         <v>24.471999999999998</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>43123</v>
       </c>
@@ -4266,7 +4266,7 @@
         <v>165.75</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>43124</v>
       </c>
@@ -4290,7 +4290,7 @@
         <v>198.72</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>43125</v>
       </c>
@@ -4314,7 +4314,7 @@
         <v>392.28800000000007</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>43125</v>
       </c>
@@ -4338,7 +4338,7 @@
         <v>117.93600000000001</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>43125</v>
       </c>
@@ -4359,7 +4359,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>43125</v>
       </c>
@@ -4383,7 +4383,7 @@
         <v>66.542000000000002</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>43126</v>
       </c>
@@ -4407,7 +4407,7 @@
         <v>21.315000000000001</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>43126</v>
       </c>
@@ -4431,7 +4431,7 @@
         <v>61.722750000000005</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>43127</v>
       </c>
@@ -4455,7 +4455,7 @@
         <v>461.89500000000004</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>43127</v>
       </c>
@@ -4479,7 +4479,7 @@
         <v>148.13839999999999</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>43127</v>
       </c>
@@ -4503,7 +4503,7 @@
         <v>84.47999999999999</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>43128</v>
       </c>
@@ -4527,7 +4527,7 @@
         <v>183.33000000000004</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>43128</v>
       </c>
@@ -4551,7 +4551,7 @@
         <v>191.268</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>43128</v>
       </c>
@@ -4572,7 +4572,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>43129</v>
       </c>
@@ -4596,7 +4596,7 @@
         <v>25.802</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>43129</v>
       </c>
@@ -4620,7 +4620,7 @@
         <v>45.54</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>43130</v>
       </c>
@@ -4644,7 +4644,7 @@
         <v>291.82400000000001</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>43130</v>
       </c>
@@ -4668,7 +4668,7 @@
         <v>26.416650000000001</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>43130</v>
       </c>
@@ -4692,7 +4692,7 @@
         <v>200.85</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>43130</v>
       </c>
@@ -4716,7 +4716,7 @@
         <v>3.7345000000000002</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>43131</v>
       </c>
@@ -4740,7 +4740,7 @@
         <v>81.59075</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>43131</v>
       </c>
@@ -4764,7 +4764,7 @@
         <v>13.634400000000001</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>43131</v>
       </c>
@@ -4788,7 +4788,7 @@
         <v>72.954000000000008</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>43131</v>
       </c>
@@ -4809,7 +4809,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>43131</v>
       </c>
@@ -4833,7 +4833,7 @@
         <v>13.719999999999999</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>43131</v>
       </c>
@@ -4857,7 +4857,7 @@
         <v>68.582550000000012</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>43131</v>
       </c>
@@ -4881,7 +4881,7 @@
         <v>448.11500000000001</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B84" s="23"/>
       <c r="G84" s="24"/>
     </row>
@@ -4901,21 +4901,21 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5703125" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" customWidth="1"/>
+    <col min="3" max="3" width="9.5" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" customWidth="1"/>
     <col min="5" max="5" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="19" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -4932,7 +4932,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>43101</v>
       </c>
@@ -4950,7 +4950,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>43101</v>
       </c>
@@ -4968,469 +4968,469 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="C6" s="20"/>
       <c r="D6" s="20"/>
       <c r="E6" s="20"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
       <c r="C7" s="20"/>
       <c r="D7" s="20"/>
       <c r="E7" s="20"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
       <c r="C8" s="20"/>
       <c r="D8" s="20"/>
       <c r="E8" s="20"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
       <c r="C9" s="20"/>
       <c r="D9" s="20"/>
       <c r="E9" s="20"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="C10" s="20"/>
       <c r="D10" s="20"/>
       <c r="E10" s="20"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
       <c r="C11" s="20"/>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
       <c r="C12" s="20"/>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
       <c r="C13" s="20"/>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
       <c r="C14" s="20"/>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
       <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
       <c r="C16" s="20"/>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
       <c r="C17" s="20"/>
       <c r="D17" s="20"/>
       <c r="E17" s="20"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
       <c r="C18" s="20"/>
       <c r="D18" s="20"/>
       <c r="E18" s="20"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
       <c r="C19" s="20"/>
       <c r="D19" s="20"/>
       <c r="E19" s="20"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
       <c r="C20" s="20"/>
       <c r="D20" s="20"/>
       <c r="E20" s="20"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
       <c r="C21" s="20"/>
       <c r="D21" s="20"/>
       <c r="E21" s="20"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
       <c r="C22" s="20"/>
       <c r="D22" s="20"/>
       <c r="E22" s="20"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
       <c r="C23" s="20"/>
       <c r="D23" s="20"/>
       <c r="E23" s="20"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="1"/>
       <c r="C24" s="20"/>
       <c r="D24" s="20"/>
       <c r="E24" s="20"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="1"/>
       <c r="C25" s="20"/>
       <c r="D25" s="20"/>
       <c r="E25" s="20"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="1"/>
       <c r="C26" s="20"/>
       <c r="D26" s="20"/>
       <c r="E26" s="20"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="1"/>
       <c r="C27" s="20"/>
       <c r="D27" s="20"/>
       <c r="E27" s="20"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="1"/>
       <c r="C28" s="20"/>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="1"/>
       <c r="C29" s="20"/>
       <c r="D29" s="20"/>
       <c r="E29" s="20"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="1"/>
       <c r="C30" s="20"/>
       <c r="D30" s="20"/>
       <c r="E30" s="20"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="1"/>
       <c r="C31" s="20"/>
       <c r="D31" s="20"/>
       <c r="E31" s="20"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="1"/>
       <c r="C32" s="20"/>
       <c r="D32" s="20"/>
       <c r="E32" s="20"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="1"/>
       <c r="C33" s="20"/>
       <c r="D33" s="20"/>
       <c r="E33" s="20"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="1"/>
       <c r="C34" s="20"/>
       <c r="D34" s="20"/>
       <c r="E34" s="20"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="1"/>
       <c r="C35" s="20"/>
       <c r="D35" s="20"/>
       <c r="E35" s="20"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="1"/>
       <c r="C36" s="20"/>
       <c r="D36" s="20"/>
       <c r="E36" s="20"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="1"/>
       <c r="C37" s="20"/>
       <c r="D37" s="20"/>
       <c r="E37" s="20"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="1"/>
       <c r="C38" s="20"/>
       <c r="D38" s="20"/>
       <c r="E38" s="20"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="1"/>
       <c r="C39" s="20"/>
       <c r="D39" s="20"/>
       <c r="E39" s="20"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="1"/>
       <c r="C40" s="20"/>
       <c r="D40" s="20"/>
       <c r="E40" s="20"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="1"/>
       <c r="C41" s="20"/>
       <c r="D41" s="20"/>
       <c r="E41" s="20"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="1"/>
       <c r="C42" s="20"/>
       <c r="D42" s="20"/>
       <c r="E42" s="20"/>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="1"/>
       <c r="C43" s="20"/>
       <c r="D43" s="20"/>
       <c r="E43" s="20"/>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" s="1"/>
       <c r="C44" s="20"/>
       <c r="D44" s="20"/>
       <c r="E44" s="20"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" s="1"/>
       <c r="C45" s="20"/>
       <c r="D45" s="20"/>
       <c r="E45" s="20"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="1"/>
       <c r="C46" s="20"/>
       <c r="D46" s="20"/>
       <c r="E46" s="20"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" s="1"/>
       <c r="C47" s="20"/>
       <c r="D47" s="20"/>
       <c r="E47" s="20"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" s="1"/>
       <c r="C48" s="20"/>
       <c r="D48" s="20"/>
       <c r="E48" s="20"/>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" s="1"/>
       <c r="C49" s="20"/>
       <c r="D49" s="20"/>
       <c r="E49" s="20"/>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" s="1"/>
       <c r="C50" s="20"/>
       <c r="D50" s="20"/>
       <c r="E50" s="20"/>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" s="1"/>
       <c r="C51" s="20"/>
       <c r="D51" s="20"/>
       <c r="E51" s="20"/>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" s="1"/>
       <c r="C52" s="20"/>
       <c r="D52" s="20"/>
       <c r="E52" s="20"/>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" s="1"/>
       <c r="C53" s="20"/>
       <c r="D53" s="20"/>
       <c r="E53" s="20"/>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" s="1"/>
       <c r="C54" s="20"/>
       <c r="D54" s="20"/>
       <c r="E54" s="20"/>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" s="1"/>
       <c r="C55" s="20"/>
       <c r="D55" s="20"/>
       <c r="E55" s="20"/>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" s="1"/>
       <c r="C56" s="20"/>
       <c r="D56" s="20"/>
       <c r="E56" s="20"/>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" s="1"/>
       <c r="C57" s="20"/>
       <c r="D57" s="20"/>
       <c r="E57" s="20"/>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" s="1"/>
       <c r="C58" s="20"/>
       <c r="D58" s="20"/>
       <c r="E58" s="20"/>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" s="1"/>
       <c r="C59" s="20"/>
       <c r="D59" s="20"/>
       <c r="E59" s="20"/>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" s="1"/>
       <c r="C60" s="20"/>
       <c r="D60" s="20"/>
       <c r="E60" s="20"/>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" s="1"/>
       <c r="C61" s="20"/>
       <c r="D61" s="20"/>
       <c r="E61" s="20"/>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" s="1"/>
       <c r="C62" s="20"/>
       <c r="D62" s="20"/>
       <c r="E62" s="20"/>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" s="1"/>
       <c r="C63" s="20"/>
       <c r="D63" s="20"/>
       <c r="E63" s="20"/>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" s="1"/>
       <c r="C64" s="20"/>
       <c r="D64" s="20"/>
       <c r="E64" s="20"/>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" s="1"/>
       <c r="C65" s="20"/>
       <c r="D65" s="20"/>
       <c r="E65" s="20"/>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" s="1"/>
       <c r="C66" s="20"/>
       <c r="D66" s="20"/>
       <c r="E66" s="20"/>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" s="1"/>
       <c r="C67" s="20"/>
       <c r="D67" s="20"/>
       <c r="E67" s="20"/>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" s="1"/>
       <c r="C68" s="20"/>
       <c r="D68" s="20"/>
       <c r="E68" s="20"/>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" s="1"/>
       <c r="C69" s="20"/>
       <c r="D69" s="20"/>
       <c r="E69" s="20"/>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" s="1"/>
       <c r="C70" s="20"/>
       <c r="D70" s="20"/>
       <c r="E70" s="20"/>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" s="1"/>
       <c r="C71" s="20"/>
       <c r="D71" s="20"/>
       <c r="E71" s="20"/>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" s="1"/>
       <c r="C72" s="20"/>
       <c r="D72" s="20"/>
       <c r="E72" s="20"/>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" s="1"/>
       <c r="C73" s="20"/>
       <c r="D73" s="20"/>
       <c r="E73" s="20"/>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" s="1"/>
       <c r="C74" s="20"/>
       <c r="D74" s="20"/>
       <c r="E74" s="20"/>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" s="1"/>
       <c r="C75" s="20"/>
       <c r="D75" s="20"/>
       <c r="E75" s="20"/>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" s="1"/>
       <c r="C76" s="20"/>
       <c r="D76" s="20"/>
       <c r="E76" s="20"/>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" s="1"/>
       <c r="C77" s="20"/>
       <c r="D77" s="20"/>
       <c r="E77" s="20"/>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" s="1"/>
       <c r="C78" s="20"/>
       <c r="D78" s="20"/>
       <c r="E78" s="20"/>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" s="1"/>
       <c r="C79" s="20"/>
       <c r="D79" s="20"/>
       <c r="E79" s="20"/>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" s="1"/>
       <c r="C80" s="20"/>
       <c r="D80" s="20"/>
       <c r="E80" s="20"/>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" s="1"/>
       <c r="C81" s="20"/>
       <c r="D81" s="20"/>
       <c r="E81" s="20"/>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" s="1"/>
       <c r="C82" s="20"/>
       <c r="D82" s="20"/>
       <c r="E82" s="20"/>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" s="1"/>
       <c r="C83" s="20"/>
       <c r="D83" s="20"/>
@@ -5454,37 +5454,37 @@
       <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.7109375" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="17.6640625" hidden="1" customWidth="1"/>
     <col min="3" max="3" width="21" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="12" hidden="1" customWidth="1"/>
     <col min="5" max="6" width="11" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" hidden="1" customWidth="1"/>
-    <col min="8" max="10" width="9.140625" customWidth="1"/>
-    <col min="11" max="11" width="10.7109375" customWidth="1"/>
-    <col min="12" max="12" width="15.42578125" customWidth="1"/>
-    <col min="13" max="13" width="12.28515625" customWidth="1"/>
-    <col min="14" max="14" width="12.140625" customWidth="1"/>
-    <col min="15" max="15" width="9.7109375" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" customWidth="1"/>
+    <col min="7" max="7" width="14.6640625" hidden="1" customWidth="1"/>
+    <col min="8" max="10" width="9.1640625" customWidth="1"/>
+    <col min="11" max="11" width="10.6640625" customWidth="1"/>
+    <col min="12" max="12" width="15.5" customWidth="1"/>
+    <col min="13" max="13" width="12.33203125" customWidth="1"/>
+    <col min="14" max="14" width="12.1640625" customWidth="1"/>
+    <col min="15" max="15" width="9.6640625" customWidth="1"/>
+    <col min="16" max="16" width="14.83203125" customWidth="1"/>
     <col min="17" max="17" width="15" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="16.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" ht="19" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="O2" s="26"/>
       <c r="P2" s="27"/>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>129</v>
       </c>
@@ -5546,7 +5546,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>42736</v>
       </c>
@@ -5574,7 +5574,7 @@
       <c r="O4" s="26"/>
       <c r="P4" s="27"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>42742</v>
       </c>
@@ -5602,7 +5602,7 @@
       <c r="O5" s="26"/>
       <c r="P5" s="27"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>42750</v>
       </c>
@@ -5630,7 +5630,7 @@
       <c r="O6" s="26"/>
       <c r="P6" s="27"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>42757</v>
       </c>
@@ -5655,7 +5655,7 @@
       <c r="O7" s="26"/>
       <c r="P7" s="27"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>42764</v>
       </c>
@@ -5683,7 +5683,7 @@
       <c r="O8" s="26"/>
       <c r="P8" s="27"/>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>42771</v>
       </c>
@@ -5711,7 +5711,7 @@
       <c r="O9" s="26"/>
       <c r="P9" s="27"/>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>42778</v>
       </c>
@@ -5739,7 +5739,7 @@
       <c r="O10" s="26"/>
       <c r="P10" s="27"/>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>42785</v>
       </c>
@@ -5767,7 +5767,7 @@
       <c r="O11" s="26"/>
       <c r="P11" s="27"/>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>42792</v>
       </c>
@@ -5795,7 +5795,7 @@
       <c r="O12" s="26"/>
       <c r="P12" s="27"/>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>42799</v>
       </c>
@@ -5823,7 +5823,7 @@
       <c r="O13" s="26"/>
       <c r="P13" s="27"/>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>42806</v>
       </c>
@@ -5851,7 +5851,7 @@
       <c r="O14" s="26"/>
       <c r="P14" s="27"/>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>42813</v>
       </c>
@@ -5879,7 +5879,7 @@
       <c r="O15" s="26"/>
       <c r="P15" s="27"/>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>42820</v>
       </c>
@@ -5907,7 +5907,7 @@
       <c r="O16" s="26"/>
       <c r="P16" s="27"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>42827</v>
       </c>
@@ -5935,7 +5935,7 @@
       <c r="O17" s="26"/>
       <c r="P17" s="27"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>42834</v>
       </c>
@@ -5963,7 +5963,7 @@
       <c r="O18" s="26"/>
       <c r="P18" s="27"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>42841</v>
       </c>
@@ -5991,7 +5991,7 @@
       <c r="O19" s="26"/>
       <c r="P19" s="27"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>42848</v>
       </c>
@@ -6019,7 +6019,7 @@
       <c r="O20" s="26"/>
       <c r="P20" s="27"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>42855</v>
       </c>
@@ -6047,7 +6047,7 @@
       <c r="O21" s="26"/>
       <c r="P21" s="27"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>42862</v>
       </c>
@@ -6075,7 +6075,7 @@
       <c r="O22" s="26"/>
       <c r="P22" s="27"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>42869</v>
       </c>
@@ -6103,7 +6103,7 @@
       <c r="O23" s="26"/>
       <c r="P23" s="27"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>42876</v>
       </c>
@@ -6131,7 +6131,7 @@
       <c r="O24" s="26"/>
       <c r="P24" s="27"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>42883</v>
       </c>
@@ -6156,7 +6156,7 @@
       <c r="O25" s="26"/>
       <c r="P25" s="27"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>42890</v>
       </c>
@@ -6181,7 +6181,7 @@
       <c r="O26" s="26"/>
       <c r="P26" s="27"/>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>42897</v>
       </c>
@@ -6209,7 +6209,7 @@
       <c r="O27" s="26"/>
       <c r="P27" s="27"/>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>42904</v>
       </c>
@@ -6237,7 +6237,7 @@
       <c r="O28" s="26"/>
       <c r="P28" s="27"/>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>42911</v>
       </c>
@@ -6265,7 +6265,7 @@
       <c r="O29" s="26"/>
       <c r="P29" s="27"/>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>42918</v>
       </c>
@@ -6293,7 +6293,7 @@
       <c r="O30" s="26"/>
       <c r="P30" s="27"/>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>42925</v>
       </c>
@@ -6321,7 +6321,7 @@
       <c r="O31" s="26"/>
       <c r="P31" s="27"/>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>42932</v>
       </c>
@@ -6349,7 +6349,7 @@
       <c r="O32" s="26"/>
       <c r="P32" s="27"/>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>42939</v>
       </c>
@@ -6377,7 +6377,7 @@
       <c r="O33" s="26"/>
       <c r="P33" s="27"/>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>42946</v>
       </c>
@@ -6405,7 +6405,7 @@
       <c r="O34" s="26"/>
       <c r="P34" s="27"/>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>42953</v>
       </c>
@@ -6433,7 +6433,7 @@
       <c r="O35" s="26"/>
       <c r="P35" s="27"/>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>42960</v>
       </c>
@@ -6461,7 +6461,7 @@
       <c r="O36" s="26"/>
       <c r="P36" s="27"/>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>42967</v>
       </c>
@@ -6486,7 +6486,7 @@
       <c r="O37" s="26"/>
       <c r="P37" s="27"/>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>42974</v>
       </c>
@@ -6514,7 +6514,7 @@
       <c r="O38" s="26"/>
       <c r="P38" s="27"/>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>42981</v>
       </c>
@@ -6542,7 +6542,7 @@
       <c r="O39" s="26"/>
       <c r="P39" s="27"/>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>42988</v>
       </c>
@@ -6570,7 +6570,7 @@
       <c r="O40" s="26"/>
       <c r="P40" s="27"/>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>42995</v>
       </c>
@@ -6598,7 +6598,7 @@
       <c r="O41" s="26"/>
       <c r="P41" s="27"/>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>43002</v>
       </c>
@@ -6626,7 +6626,7 @@
       <c r="O42" s="26"/>
       <c r="P42" s="27"/>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>43009</v>
       </c>
@@ -6654,7 +6654,7 @@
       <c r="O43" s="26"/>
       <c r="P43" s="27"/>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>43016</v>
       </c>
@@ -6682,7 +6682,7 @@
       <c r="O44" s="26"/>
       <c r="P44" s="27"/>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>43023</v>
       </c>
@@ -6710,7 +6710,7 @@
       <c r="O45" s="26"/>
       <c r="P45" s="27"/>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>43030</v>
       </c>
@@ -6738,7 +6738,7 @@
       <c r="O46" s="26"/>
       <c r="P46" s="27"/>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>43037</v>
       </c>
@@ -6766,7 +6766,7 @@
       <c r="O47" s="26"/>
       <c r="P47" s="27"/>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>43044</v>
       </c>
@@ -6794,7 +6794,7 @@
       <c r="O48" s="26"/>
       <c r="P48" s="27"/>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>43051</v>
       </c>
@@ -6822,7 +6822,7 @@
       <c r="O49" s="26"/>
       <c r="P49" s="27"/>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>43058</v>
       </c>
@@ -6850,7 +6850,7 @@
       <c r="O50" s="26"/>
       <c r="P50" s="27"/>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>43065</v>
       </c>
@@ -6875,7 +6875,7 @@
       <c r="O51" s="26"/>
       <c r="P51" s="27"/>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>43072</v>
       </c>
@@ -6903,7 +6903,7 @@
       <c r="O52" s="26"/>
       <c r="P52" s="27"/>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>43079</v>
       </c>
@@ -6931,7 +6931,7 @@
       <c r="O53" s="26"/>
       <c r="P53" s="27"/>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>43086</v>
       </c>
@@ -6959,7 +6959,7 @@
       <c r="O54" s="26"/>
       <c r="P54" s="27"/>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>43093</v>
       </c>
@@ -6987,7 +6987,7 @@
       <c r="O55" s="26"/>
       <c r="P55" s="27"/>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>43100</v>
       </c>
@@ -7015,7 +7015,7 @@
       <c r="O56" s="26"/>
       <c r="P56" s="27"/>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>43107</v>
       </c>
@@ -7043,7 +7043,7 @@
       <c r="O57" s="26"/>
       <c r="P57" s="27"/>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>43114</v>
       </c>
@@ -7071,7 +7071,7 @@
       <c r="O58" s="26"/>
       <c r="P58" s="27"/>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>43121</v>
       </c>
@@ -7099,7 +7099,7 @@
       <c r="O59" s="26"/>
       <c r="P59" s="27"/>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>43128</v>
       </c>
@@ -7127,7 +7127,7 @@
       <c r="O60" s="26"/>
       <c r="P60" s="27"/>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>43135</v>
       </c>
@@ -7152,7 +7152,7 @@
       <c r="O61" s="26"/>
       <c r="P61" s="27"/>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>43142</v>
       </c>
@@ -7180,7 +7180,7 @@
       <c r="O62" s="26"/>
       <c r="P62" s="27"/>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>43149</v>
       </c>
@@ -7208,7 +7208,7 @@
       <c r="O63" s="26"/>
       <c r="P63" s="27"/>
     </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>43156</v>
       </c>
@@ -7236,7 +7236,7 @@
       <c r="O64" s="26"/>
       <c r="P64" s="27"/>
     </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>43163</v>
       </c>
@@ -7264,7 +7264,7 @@
       <c r="O65" s="26"/>
       <c r="P65" s="27"/>
     </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>43170</v>
       </c>
@@ -7292,7 +7292,7 @@
       <c r="O66" s="26"/>
       <c r="P66" s="27"/>
     </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>43177</v>
       </c>
@@ -7320,7 +7320,7 @@
       <c r="O67" s="26"/>
       <c r="P67" s="27"/>
     </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>43184</v>
       </c>
@@ -7348,7 +7348,7 @@
       <c r="O68" s="26"/>
       <c r="P68" s="27"/>
     </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>43191</v>
       </c>
@@ -7376,7 +7376,7 @@
       <c r="O69" s="26"/>
       <c r="P69" s="27"/>
     </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>43198</v>
       </c>
@@ -7401,7 +7401,7 @@
       <c r="O70" s="26"/>
       <c r="P70" s="27"/>
     </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>43205</v>
       </c>
@@ -7429,7 +7429,7 @@
       <c r="O71" s="26"/>
       <c r="P71" s="27"/>
     </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>43212</v>
       </c>
@@ -7457,7 +7457,7 @@
       <c r="O72" s="26"/>
       <c r="P72" s="27"/>
     </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>43219</v>
       </c>
@@ -7485,7 +7485,7 @@
       <c r="O73" s="26"/>
       <c r="P73" s="27"/>
     </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>43226</v>
       </c>
@@ -7513,7 +7513,7 @@
       <c r="O74" s="26"/>
       <c r="P74" s="27"/>
     </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>43233</v>
       </c>
@@ -7541,7 +7541,7 @@
       <c r="O75" s="26"/>
       <c r="P75" s="27"/>
     </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>43240</v>
       </c>
@@ -7569,7 +7569,7 @@
       <c r="O76" s="26"/>
       <c r="P76" s="27"/>
     </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>43247</v>
       </c>
@@ -7597,7 +7597,7 @@
       <c r="O77" s="26"/>
       <c r="P77" s="27"/>
     </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>43254</v>
       </c>
@@ -7625,7 +7625,7 @@
       <c r="O78" s="26"/>
       <c r="P78" s="27"/>
     </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>43261</v>
       </c>
@@ -7653,7 +7653,7 @@
       <c r="O79" s="26"/>
       <c r="P79" s="27"/>
     </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>43268</v>
       </c>
@@ -7678,7 +7678,7 @@
       <c r="O80" s="26"/>
       <c r="P80" s="27"/>
     </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>43275</v>
       </c>
@@ -7706,7 +7706,7 @@
       <c r="O81" s="26"/>
       <c r="P81" s="27"/>
     </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>43282</v>
       </c>
@@ -7734,7 +7734,7 @@
       <c r="O82" s="26"/>
       <c r="P82" s="27"/>
     </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>43289</v>
       </c>
@@ -7762,7 +7762,7 @@
       <c r="O83" s="26"/>
       <c r="P83" s="27"/>
     </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B84" s="23"/>
       <c r="G84" s="24"/>
     </row>
@@ -7780,23 +7780,23 @@
   <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.42578125" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" customWidth="1"/>
+    <col min="1" max="1" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5" customWidth="1"/>
+    <col min="3" max="3" width="11.83203125" customWidth="1"/>
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="19" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>205</v>
       </c>
@@ -7810,7 +7810,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>201</v>
       </c>
@@ -7825,7 +7825,7 @@
         <v>0.24397187634886813</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>190</v>
       </c>
@@ -7840,7 +7840,7 @@
         <v>0.1760845896195096</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>192</v>
       </c>
@@ -7855,7 +7855,7 @@
         <v>0.1717620901291611</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>199</v>
       </c>
@@ -7870,7 +7870,7 @@
         <v>0.14968521190682549</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>195</v>
       </c>
@@ -7885,7 +7885,7 @@
         <v>0.10564691003142188</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>197</v>
       </c>
@@ -7900,7 +7900,7 @@
         <v>9.8839076545667648E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>203</v>
       </c>
@@ -7915,7 +7915,7 @@
         <v>4.0069568851923192E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>116</v>
       </c>
@@ -7930,7 +7930,7 @@
         <v>1.3940676566623126E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>178</v>
       </c>
@@ -7960,31 +7960,31 @@
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="3.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5" customWidth="1"/>
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.85546875" customWidth="1"/>
-    <col min="7" max="7" width="12.5703125" customWidth="1"/>
-    <col min="8" max="8" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.83203125" customWidth="1"/>
+    <col min="7" max="7" width="12.5" customWidth="1"/>
+    <col min="8" max="8" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G3" s="30" t="s">
+    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G3" s="39" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>0</v>
       </c>
@@ -7999,7 +7999,7 @@
         <v>3</v>
       </c>
       <c r="F4" s="3"/>
-      <c r="G4" s="30"/>
+      <c r="G4" s="39"/>
       <c r="H4" s="3" t="s">
         <v>5</v>
       </c>
@@ -8010,7 +8010,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>54</v>
       </c>
@@ -8036,7 +8036,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>55</v>
       </c>
@@ -8062,7 +8062,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>74</v>
       </c>
@@ -8088,7 +8088,7 @@
         <v>1150</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>56</v>
       </c>
@@ -8114,11 +8114,11 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
       <c r="J9" s="2"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>57</v>
       </c>
@@ -8144,7 +8144,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>57</v>
       </c>
@@ -8170,7 +8170,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>58</v>
       </c>
@@ -8196,7 +8196,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>59</v>
       </c>
@@ -8222,7 +8222,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>60</v>
       </c>
@@ -8248,7 +8248,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>61</v>
       </c>
@@ -8274,7 +8274,7 @@
         <v>127.5</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>61</v>
       </c>
@@ -8300,7 +8300,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>62</v>
       </c>
@@ -8326,7 +8326,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>63</v>
       </c>
@@ -8352,7 +8352,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>64</v>
       </c>
@@ -8378,7 +8378,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>65</v>
       </c>
@@ -8404,7 +8404,7 @@
         <v>2250</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>75</v>
       </c>
@@ -8430,7 +8430,7 @@
         <v>149.5</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>66</v>
       </c>
@@ -8456,11 +8456,11 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
       <c r="J23" s="2"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>67</v>
       </c>
@@ -8486,7 +8486,7 @@
         <v>74.75</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>68</v>
       </c>
@@ -8512,7 +8512,7 @@
         <v>52.5</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>69</v>
       </c>
@@ -8538,7 +8538,7 @@
         <v>96.5</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>70</v>
       </c>
@@ -8564,11 +8564,11 @@
         <v>300</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="1"/>
       <c r="J28" s="2"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="1"/>
       <c r="B29" t="s">
         <v>29</v>
@@ -8592,7 +8592,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>71</v>
       </c>
@@ -8618,7 +8618,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>71</v>
       </c>
@@ -8644,7 +8644,7 @@
         <v>3240</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>72</v>
       </c>
@@ -8670,7 +8670,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>73</v>
       </c>
@@ -8696,7 +8696,7 @@
         <v>1930</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>76</v>
       </c>
@@ -8722,11 +8722,11 @@
         <v>250</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" s="1"/>
       <c r="J35" s="2"/>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>77</v>
       </c>
@@ -8752,7 +8752,7 @@
         <v>482.5</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>78</v>
       </c>
@@ -8778,7 +8778,7 @@
         <v>1275</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>79</v>
       </c>
@@ -8804,7 +8804,7 @@
         <v>1950</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>80</v>
       </c>
@@ -8830,7 +8830,7 @@
         <v>13800</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>81</v>
       </c>
@@ -8856,7 +8856,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>82</v>
       </c>
@@ -8882,7 +8882,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>83</v>
       </c>
@@ -8908,7 +8908,7 @@
         <v>127.5</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>83</v>
       </c>
@@ -8934,7 +8934,7 @@
         <v>1560</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>84</v>
       </c>
@@ -8960,7 +8960,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>85</v>
       </c>
@@ -8986,7 +8986,7 @@
         <v>919.99999999999989</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>86</v>
       </c>
@@ -9012,7 +9012,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" s="1"/>
       <c r="B47" t="s">
         <v>19</v>
@@ -9036,7 +9036,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>87</v>
       </c>
@@ -9062,7 +9062,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>88</v>
       </c>
@@ -9088,7 +9088,7 @@
         <v>1590</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>89</v>
       </c>
@@ -9114,7 +9114,7 @@
         <v>229.99999999999997</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>90</v>
       </c>
@@ -9140,7 +9140,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>91</v>
       </c>
@@ -9166,11 +9166,11 @@
         <v>230</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53" s="1"/>
       <c r="J53" s="2"/>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>92</v>
       </c>
@@ -9196,7 +9196,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>93</v>
       </c>
@@ -9222,7 +9222,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>94</v>
       </c>
@@ -9248,7 +9248,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>94</v>
       </c>
@@ -9274,7 +9274,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>95</v>
       </c>
@@ -9300,7 +9300,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>96</v>
       </c>
@@ -9326,7 +9326,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>97</v>
       </c>
@@ -9352,7 +9352,7 @@
         <v>533.75</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>98</v>
       </c>
@@ -9378,7 +9378,7 @@
         <v>1218</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A62" s="1"/>
       <c r="B62" t="s">
         <v>26</v>
@@ -9402,7 +9402,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>99</v>
       </c>
@@ -9428,7 +9428,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>100</v>
       </c>
@@ -9454,7 +9454,7 @@
         <v>289.5</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>101</v>
       </c>
@@ -9480,7 +9480,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>102</v>
       </c>
@@ -9506,7 +9506,7 @@
         <v>13800</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>102</v>
       </c>
@@ -9532,7 +9532,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>103</v>
       </c>
@@ -9558,11 +9558,11 @@
         <v>138</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A69" s="1"/>
       <c r="J69" s="2"/>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>104</v>
       </c>
@@ -9588,7 +9588,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>105</v>
       </c>
@@ -9614,7 +9614,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>106</v>
       </c>
@@ -9640,7 +9640,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>107</v>
       </c>
@@ -9666,7 +9666,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>108</v>
       </c>
@@ -9692,7 +9692,7 @@
         <v>4200</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>109</v>
       </c>
@@ -9735,27 +9735,27 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="36" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:8" ht="37" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1" s="16" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E3" s="15"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>0</v>
       </c>
@@ -9781,7 +9781,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>42009</v>
       </c>
@@ -9807,7 +9807,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>42075</v>
       </c>
@@ -9833,7 +9833,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>42079</v>
       </c>
@@ -9859,7 +9859,7 @@
         <v>1150</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>42090</v>
       </c>
@@ -9885,7 +9885,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>42110</v>
       </c>
@@ -9911,7 +9911,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>42110</v>
       </c>
@@ -9937,7 +9937,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>42119</v>
       </c>
@@ -9963,7 +9963,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>42122</v>
       </c>
@@ -9989,7 +9989,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>42188</v>
       </c>
@@ -10015,7 +10015,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>42191</v>
       </c>
@@ -10041,7 +10041,7 @@
         <v>127.5</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>42191</v>
       </c>
@@ -10067,7 +10067,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>42193</v>
       </c>
@@ -10093,7 +10093,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>42197</v>
       </c>
@@ -10119,7 +10119,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>42227</v>
       </c>
@@ -10145,7 +10145,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>42236</v>
       </c>
@@ -10171,7 +10171,7 @@
         <v>2250</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>42263</v>
       </c>
@@ -10197,7 +10197,7 @@
         <v>149.5</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>42270</v>
       </c>
@@ -10223,7 +10223,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>42273</v>
       </c>
@@ -10249,7 +10249,7 @@
         <v>74.75</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>42315</v>
       </c>
@@ -10275,7 +10275,7 @@
         <v>52.5</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>42317</v>
       </c>
@@ -10301,7 +10301,7 @@
         <v>96.5</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>42326</v>
       </c>
@@ -10327,7 +10327,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>42326</v>
       </c>
@@ -10353,7 +10353,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>42353</v>
       </c>
@@ -10379,7 +10379,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>42353</v>
       </c>
@@ -10405,7 +10405,7 @@
         <v>3240</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>42363</v>
       </c>
@@ -10431,7 +10431,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>42365</v>
       </c>
@@ -10457,7 +10457,7 @@
         <v>1930</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>42384</v>
       </c>
@@ -10483,7 +10483,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>42398</v>
       </c>
@@ -10509,7 +10509,7 @@
         <v>482.5</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>42400</v>
       </c>
@@ -10535,7 +10535,7 @@
         <v>1275</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>42407</v>
       </c>
@@ -10561,7 +10561,7 @@
         <v>1950</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>42426</v>
       </c>
@@ -10587,7 +10587,7 @@
         <v>13800</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>42435</v>
       </c>
@@ -10613,7 +10613,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>42444</v>
       </c>
@@ -10639,7 +10639,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>42456</v>
       </c>
@@ -10665,7 +10665,7 @@
         <v>127.5</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>42456</v>
       </c>
@@ -10691,7 +10691,7 @@
         <v>1560</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>42475</v>
       </c>
@@ -10717,7 +10717,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>42487</v>
       </c>
@@ -10743,7 +10743,7 @@
         <v>919.99999999999989</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>42491</v>
       </c>
@@ -10769,7 +10769,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>42491</v>
       </c>
@@ -10795,7 +10795,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>42502</v>
       </c>
@@ -10821,7 +10821,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>42522</v>
       </c>
@@ -10847,7 +10847,7 @@
         <v>1590</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>42528</v>
       </c>
@@ -10873,7 +10873,7 @@
         <v>229.99999999999997</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>42529</v>
       </c>
@@ -10899,7 +10899,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>42541</v>
       </c>
@@ -10925,7 +10925,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>42544</v>
       </c>
@@ -10951,7 +10951,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>42556</v>
       </c>
@@ -10977,7 +10977,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>42566</v>
       </c>
@@ -11003,7 +11003,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>42566</v>
       </c>
@@ -11029,7 +11029,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>42571</v>
       </c>
@@ -11055,7 +11055,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>42586</v>
       </c>
@@ -11081,7 +11081,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>42597</v>
       </c>
@@ -11107,7 +11107,7 @@
         <v>533.75</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>42599</v>
       </c>
@@ -11133,7 +11133,7 @@
         <v>1218</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>42599</v>
       </c>
@@ -11159,7 +11159,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>42609</v>
       </c>
@@ -11185,7 +11185,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>42617</v>
       </c>
@@ -11211,7 +11211,7 @@
         <v>289.5</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>42618</v>
       </c>
@@ -11237,7 +11237,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>42620</v>
       </c>
@@ -11263,7 +11263,7 @@
         <v>13800</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>42620</v>
       </c>
@@ -11289,7 +11289,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>42637</v>
       </c>
@@ -11315,7 +11315,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>42643</v>
       </c>
@@ -11341,7 +11341,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>42661</v>
       </c>
@@ -11367,7 +11367,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>42692</v>
       </c>
@@ -11393,7 +11393,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>42713</v>
       </c>
@@ -11419,7 +11419,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>42720</v>
       </c>
@@ -11445,7 +11445,7 @@
         <v>4200</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>42731</v>
       </c>
@@ -11488,27 +11488,27 @@
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E3" s="15"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>0</v>
       </c>
@@ -11534,7 +11534,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>42009</v>
       </c>
@@ -11560,7 +11560,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>42075</v>
       </c>
@@ -11586,7 +11586,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>42079</v>
       </c>
@@ -11612,7 +11612,7 @@
         <v>1150</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>42090</v>
       </c>
@@ -11638,7 +11638,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>42110</v>
       </c>
@@ -11664,7 +11664,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>42110</v>
       </c>
@@ -11690,7 +11690,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>42119</v>
       </c>
@@ -11716,7 +11716,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>42122</v>
       </c>
@@ -11742,7 +11742,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>42188</v>
       </c>
@@ -11768,7 +11768,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>42191</v>
       </c>
@@ -11794,7 +11794,7 @@
         <v>127.5</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>42191</v>
       </c>
@@ -11820,7 +11820,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>42193</v>
       </c>
@@ -11846,7 +11846,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>42197</v>
       </c>
@@ -11872,7 +11872,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>42227</v>
       </c>
@@ -11898,7 +11898,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>42236</v>
       </c>
@@ -11924,7 +11924,7 @@
         <v>2250</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>42263</v>
       </c>
@@ -11950,7 +11950,7 @@
         <v>149.5</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>42270</v>
       </c>
@@ -11976,7 +11976,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>42273</v>
       </c>
@@ -12002,7 +12002,7 @@
         <v>74.75</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>42315</v>
       </c>
@@ -12028,7 +12028,7 @@
         <v>52.5</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>42317</v>
       </c>
@@ -12054,7 +12054,7 @@
         <v>96.5</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>42326</v>
       </c>
@@ -12080,7 +12080,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>42326</v>
       </c>
@@ -12106,7 +12106,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>42353</v>
       </c>
@@ -12132,7 +12132,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>42353</v>
       </c>
@@ -12158,7 +12158,7 @@
         <v>3240</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>42363</v>
       </c>
@@ -12184,7 +12184,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>42365</v>
       </c>
@@ -12210,7 +12210,7 @@
         <v>1930</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>42384</v>
       </c>
@@ -12236,7 +12236,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>42398</v>
       </c>
@@ -12262,7 +12262,7 @@
         <v>482.5</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>42400</v>
       </c>
@@ -12288,7 +12288,7 @@
         <v>1275</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>42407</v>
       </c>
@@ -12314,7 +12314,7 @@
         <v>1950</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>42426</v>
       </c>
@@ -12340,7 +12340,7 @@
         <v>13800</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>42435</v>
       </c>
@@ -12366,7 +12366,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>42444</v>
       </c>
@@ -12392,7 +12392,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>42456</v>
       </c>
@@ -12418,7 +12418,7 @@
         <v>127.5</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>42456</v>
       </c>
@@ -12444,7 +12444,7 @@
         <v>1560</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>42475</v>
       </c>
@@ -12470,7 +12470,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>42487</v>
       </c>
@@ -12496,7 +12496,7 @@
         <v>919.99999999999989</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>42491</v>
       </c>
@@ -12522,7 +12522,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>42491</v>
       </c>
@@ -12548,7 +12548,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>42502</v>
       </c>
@@ -12574,7 +12574,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>42522</v>
       </c>
@@ -12600,7 +12600,7 @@
         <v>1590</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>42528</v>
       </c>
@@ -12626,7 +12626,7 @@
         <v>229.99999999999997</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>42529</v>
       </c>
@@ -12652,7 +12652,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>42541</v>
       </c>
@@ -12678,7 +12678,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>42544</v>
       </c>
@@ -12704,7 +12704,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>42556</v>
       </c>
@@ -12730,7 +12730,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>42566</v>
       </c>
@@ -12756,7 +12756,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>42566</v>
       </c>
@@ -12782,7 +12782,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>42571</v>
       </c>
@@ -12808,7 +12808,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>42586</v>
       </c>
@@ -12834,7 +12834,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>42597</v>
       </c>
@@ -12860,7 +12860,7 @@
         <v>533.75</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>42599</v>
       </c>
@@ -12886,7 +12886,7 @@
         <v>1218</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>42599</v>
       </c>
@@ -12912,7 +12912,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>42609</v>
       </c>
@@ -12938,7 +12938,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>42617</v>
       </c>
@@ -12964,7 +12964,7 @@
         <v>289.5</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>42618</v>
       </c>
@@ -12990,7 +12990,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>42620</v>
       </c>
@@ -13016,7 +13016,7 @@
         <v>13800</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>42620</v>
       </c>
@@ -13042,7 +13042,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>42637</v>
       </c>
@@ -13068,7 +13068,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>42643</v>
       </c>
@@ -13094,7 +13094,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>42661</v>
       </c>
@@ -13120,7 +13120,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>42692</v>
       </c>
@@ -13146,7 +13146,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>42713</v>
       </c>
@@ -13172,7 +13172,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>42720</v>
       </c>
@@ -13198,7 +13198,7 @@
         <v>4200</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>42731</v>
       </c>
@@ -13240,16 +13240,16 @@
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.7109375" customWidth="1"/>
-    <col min="5" max="5" width="9.28515625" customWidth="1"/>
-    <col min="6" max="6" width="7.140625" customWidth="1"/>
-    <col min="7" max="7" width="9.28515625" customWidth="1"/>
+    <col min="1" max="1" width="3.6640625" customWidth="1"/>
+    <col min="5" max="5" width="9.33203125" customWidth="1"/>
+    <col min="6" max="6" width="7.1640625" customWidth="1"/>
+    <col min="7" max="7" width="9.33203125" customWidth="1"/>
     <col min="8" max="9" width="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="5:10" x14ac:dyDescent="0.2">
       <c r="E7" s="3" t="s">
         <v>119</v>
       </c>
@@ -13266,7 +13266,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="8" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="5:10" x14ac:dyDescent="0.2">
       <c r="E8" t="s">
         <v>113</v>
       </c>
@@ -13284,7 +13284,7 @@
       </c>
       <c r="J8" s="6"/>
     </row>
-    <row r="9" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="5:10" x14ac:dyDescent="0.2">
       <c r="E9" t="s">
         <v>113</v>
       </c>
@@ -13302,7 +13302,7 @@
       </c>
       <c r="J9" s="6"/>
     </row>
-    <row r="10" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="5:10" x14ac:dyDescent="0.2">
       <c r="E10" t="s">
         <v>113</v>
       </c>
@@ -13320,7 +13320,7 @@
       </c>
       <c r="J10" s="6"/>
     </row>
-    <row r="11" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="5:10" x14ac:dyDescent="0.2">
       <c r="E11" t="s">
         <v>113</v>
       </c>
@@ -13338,7 +13338,7 @@
       </c>
       <c r="J11" s="6"/>
     </row>
-    <row r="12" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="5:10" x14ac:dyDescent="0.2">
       <c r="E12" s="7" t="s">
         <v>113</v>
       </c>
@@ -13356,7 +13356,7 @@
       </c>
       <c r="J12" s="6"/>
     </row>
-    <row r="13" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="5:10" x14ac:dyDescent="0.2">
       <c r="E13" s="7" t="s">
         <v>113</v>
       </c>
@@ -13374,7 +13374,7 @@
       </c>
       <c r="J13" s="6"/>
     </row>
-    <row r="14" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="5:10" x14ac:dyDescent="0.2">
       <c r="E14" s="7" t="s">
         <v>113</v>
       </c>
@@ -13392,7 +13392,7 @@
       </c>
       <c r="J14" s="6"/>
     </row>
-    <row r="15" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="5:10" x14ac:dyDescent="0.2">
       <c r="E15" s="7" t="s">
         <v>113</v>
       </c>
@@ -13410,7 +13410,7 @@
       </c>
       <c r="J15" s="6"/>
     </row>
-    <row r="16" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="5:10" x14ac:dyDescent="0.2">
       <c r="E16" s="7" t="s">
         <v>113</v>
       </c>
@@ -13428,7 +13428,7 @@
       </c>
       <c r="J16" s="6"/>
     </row>
-    <row r="17" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="5:10" x14ac:dyDescent="0.2">
       <c r="E17" s="7" t="s">
         <v>113</v>
       </c>
@@ -13446,7 +13446,7 @@
       </c>
       <c r="J17" s="6"/>
     </row>
-    <row r="18" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="5:10" x14ac:dyDescent="0.2">
       <c r="E18" s="7" t="s">
         <v>113</v>
       </c>
@@ -13464,7 +13464,7 @@
       </c>
       <c r="J18" s="6"/>
     </row>
-    <row r="19" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="5:10" x14ac:dyDescent="0.2">
       <c r="E19" s="7" t="s">
         <v>113</v>
       </c>
@@ -13482,7 +13482,7 @@
       </c>
       <c r="J19" s="6"/>
     </row>
-    <row r="20" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="5:10" x14ac:dyDescent="0.2">
       <c r="E20" s="7" t="s">
         <v>113</v>
       </c>
@@ -13500,7 +13500,7 @@
       </c>
       <c r="J20" s="6"/>
     </row>
-    <row r="21" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="5:10" x14ac:dyDescent="0.2">
       <c r="E21" s="7" t="s">
         <v>113</v>
       </c>
@@ -13518,7 +13518,7 @@
       </c>
       <c r="J21" s="6"/>
     </row>
-    <row r="22" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="5:10" x14ac:dyDescent="0.2">
       <c r="E22" s="7" t="s">
         <v>113</v>
       </c>
@@ -13536,7 +13536,7 @@
       </c>
       <c r="J22" s="6"/>
     </row>
-    <row r="23" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="5:10" x14ac:dyDescent="0.2">
       <c r="E23" s="7" t="s">
         <v>113</v>
       </c>
@@ -13554,7 +13554,7 @@
       </c>
       <c r="J23" s="6"/>
     </row>
-    <row r="24" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="5:10" x14ac:dyDescent="0.2">
       <c r="E24" s="7" t="s">
         <v>113</v>
       </c>
@@ -13572,7 +13572,7 @@
       </c>
       <c r="J24" s="6"/>
     </row>
-    <row r="25" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="5:10" x14ac:dyDescent="0.2">
       <c r="E25" s="7" t="s">
         <v>113</v>
       </c>
@@ -13590,7 +13590,7 @@
       </c>
       <c r="J25" s="6"/>
     </row>
-    <row r="26" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="5:10" x14ac:dyDescent="0.2">
       <c r="E26" s="7" t="s">
         <v>113</v>
       </c>
@@ -13608,7 +13608,7 @@
       </c>
       <c r="J26" s="6"/>
     </row>
-    <row r="27" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="5:10" x14ac:dyDescent="0.2">
       <c r="E27" s="7" t="s">
         <v>113</v>
       </c>
@@ -13626,7 +13626,7 @@
       </c>
       <c r="J27" s="6"/>
     </row>
-    <row r="28" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="5:10" x14ac:dyDescent="0.2">
       <c r="E28" s="7" t="s">
         <v>113</v>
       </c>
@@ -13644,7 +13644,7 @@
       </c>
       <c r="J28" s="6"/>
     </row>
-    <row r="29" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="5:10" x14ac:dyDescent="0.2">
       <c r="E29" s="7" t="s">
         <v>113</v>
       </c>
@@ -13662,7 +13662,7 @@
       </c>
       <c r="J29" s="6"/>
     </row>
-    <row r="30" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="5:10" x14ac:dyDescent="0.2">
       <c r="E30" s="7" t="s">
         <v>113</v>
       </c>
@@ -13680,7 +13680,7 @@
       </c>
       <c r="J30" s="6"/>
     </row>
-    <row r="31" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="5:10" x14ac:dyDescent="0.2">
       <c r="E31" s="7" t="s">
         <v>113</v>
       </c>
@@ -13698,7 +13698,7 @@
       </c>
       <c r="J31" s="6"/>
     </row>
-    <row r="32" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="5:10" x14ac:dyDescent="0.2">
       <c r="E32" s="7" t="s">
         <v>113</v>
       </c>

--- a/excel/excel-training/Level 2/Data Preparation - BEGIN.xlsx
+++ b/excel/excel-training/Level 2/Data Preparation - BEGIN.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sai_akella/Desktop/PSSM/GITHUB/data-science/excel/excel-training/Level 2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3276A305-C02F-0548-A492-449CF5F248D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D5999D4-7384-E244-8A24-A25BC468C60D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="707" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="707" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TOC" sheetId="22" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1419" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1422" uniqueCount="226">
   <si>
     <t>Date</t>
   </si>
@@ -716,6 +716,18 @@
   </si>
   <si>
     <t>Chocolate Biscuits Mix</t>
+  </si>
+  <si>
+    <t>Year +/-</t>
+  </si>
+  <si>
+    <t>Date Trick</t>
+  </si>
+  <si>
+    <t>^+;</t>
+  </si>
+  <si>
+    <t>^+; command+;</t>
   </si>
 </sst>
 </file>
@@ -894,7 +906,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -945,6 +957,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Comma" xfId="3" builtinId="3"/>
@@ -955,7 +970,93 @@
     <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
     <cellStyle name="Per cent" xfId="5" builtinId="5"/>
   </cellStyles>
-  <dxfs count="30">
+  <dxfs count="31">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="27" formatCode="d/m/yyyy\ h:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="d/m/yyyy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="19" formatCode="d/m/yyyy"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="d/m/yyyy"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="19" formatCode="d/m/yyyy"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1151,89 +1252,6 @@
       </font>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="171" formatCode="m/d/yyyy\ h:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="172" formatCode="m/d/yyyy"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="172" formatCode="m/d/yyyy"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="172" formatCode="m/d/yyyy"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="0" tint="-4.9989318521683403E-2"/>
@@ -1301,10 +1319,10 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="TableStyleLight8 2 2" pivot="0" count="4" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="wholeTable" dxfId="29"/>
-      <tableStyleElement type="headerRow" dxfId="28"/>
-      <tableStyleElement type="totalRow" dxfId="27"/>
-      <tableStyleElement type="secondRowStripe" dxfId="26"/>
+      <tableStyleElement type="wholeTable" dxfId="30"/>
+      <tableStyleElement type="headerRow" dxfId="29"/>
+      <tableStyleElement type="totalRow" dxfId="28"/>
+      <tableStyleElement type="secondRowStripe" dxfId="27"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -2409,9 +2427,9 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{23F7D0B3-4865-4211-8BDE-F0190E73F6F3}" name="Table3" displayName="Table3" ref="A3:T83" totalsRowShown="0">
-  <autoFilter ref="A3:T83" xr:uid="{1AEE508C-35F5-4547-ABDF-CA446323C2F0}"/>
-  <tableColumns count="20">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{23F7D0B3-4865-4211-8BDE-F0190E73F6F3}" name="Table3" displayName="Table3" ref="A3:U83" totalsRowShown="0">
+  <autoFilter ref="A3:U83" xr:uid="{1AEE508C-35F5-4547-ABDF-CA446323C2F0}"/>
+  <tableColumns count="21">
     <tableColumn id="1" xr3:uid="{CB264071-BDCB-414B-A833-13846A212205}" name="Order Date"/>
     <tableColumn id="2" xr3:uid="{E11A9FF2-6659-4BFC-BC2F-BDD51E410538}" name="Customer Name"/>
     <tableColumn id="3" xr3:uid="{34B473DE-9A0A-490F-A884-991E8DDA3AA5}" name="Product Name"/>
@@ -2421,19 +2439,48 @@
       <calculatedColumnFormula>D4*E4</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="7" xr3:uid="{35C06533-765B-49F8-94C5-2A818018AB28}" name="Shipping Fee"/>
-    <tableColumn id="8" xr3:uid="{D029D88E-18DC-4116-B705-992EEF65D33B}" name="Year" dataDxfId="25"/>
-    <tableColumn id="9" xr3:uid="{A9752B2A-BBCB-4D7F-B94F-A4976427FAB5}" name="Month" dataDxfId="24"/>
-    <tableColumn id="10" xr3:uid="{37AE1D0E-52AB-4358-AED4-BEE311EBF505}" name="Day" dataDxfId="23"/>
-    <tableColumn id="14" xr3:uid="{EE9ADBB0-837B-4417-8280-628E0E4E09A4}" name="Date" dataDxfId="22"/>
-    <tableColumn id="13" xr3:uid="{8DC2B5DD-B9E5-4096-9EBE-3015CBF003E5}" name="End of Month" dataDxfId="21"/>
-    <tableColumn id="11" xr3:uid="{99F0060E-55C5-4EE7-9EB9-87BCBC596672}" name="Week Day" dataDxfId="20"/>
-    <tableColumn id="12" xr3:uid="{4F236E20-18A6-4521-A372-07B9EA2D40D1}" name="Week No." dataDxfId="19"/>
-    <tableColumn id="15" xr3:uid="{2407263E-AD32-4E86-8573-05C0D4961D09}" name="Today" dataDxfId="18"/>
-    <tableColumn id="16" xr3:uid="{C1D85BB0-7CC7-49B8-A3BB-D4ADDFD2D83E}" name="Now" dataDxfId="17"/>
-    <tableColumn id="21" xr3:uid="{E0708A8B-416B-4107-ABB5-0AEE679D400F}" name="Month Name" dataDxfId="16"/>
-    <tableColumn id="22" xr3:uid="{7EE66797-2A78-4418-A8D5-5990621F28D8}" name="Full Month Name" dataDxfId="15"/>
-    <tableColumn id="23" xr3:uid="{FC1AA081-8D9A-45A5-9C70-0EB70FEE1676}" name="Day Name" dataDxfId="14"/>
-    <tableColumn id="24" xr3:uid="{38B5EAB8-B93A-4010-AE1A-7E490E811913}" name="Full Day Name" dataDxfId="13"/>
+    <tableColumn id="8" xr3:uid="{D029D88E-18DC-4116-B705-992EEF65D33B}" name="Year" dataDxfId="13">
+      <calculatedColumnFormula>YEAR(Table3[[#This Row],[Order Date]])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="9" xr3:uid="{A9752B2A-BBCB-4D7F-B94F-A4976427FAB5}" name="Month" dataDxfId="12">
+      <calculatedColumnFormula>MONTH(Table3[[#This Row],[Order Date]])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="10" xr3:uid="{37AE1D0E-52AB-4358-AED4-BEE311EBF505}" name="Day" dataDxfId="11">
+      <calculatedColumnFormula>DAY(Table3[[#This Row],[Order Date]])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="14" xr3:uid="{EE9ADBB0-837B-4417-8280-628E0E4E09A4}" name="Year +/-" dataDxfId="10">
+      <calculatedColumnFormula>DATE(Table3[[#This Row],[Year]]-1,Table3[[#This Row],[Month]],Table3[[#This Row],[Day]])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="17" xr3:uid="{7B7D1C73-75FD-0841-A0D1-7FD648B89C41}" name="Date Trick" dataDxfId="9">
+      <calculatedColumnFormula>DATE(Table3[[#This Row],[Year]],Table3[[#This Row],[Month]],0)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="13" xr3:uid="{8DC2B5DD-B9E5-4096-9EBE-3015CBF003E5}" name="End of Month" dataDxfId="8">
+      <calculatedColumnFormula>EOMONTH(Table3[[#This Row],[Order Date]],0)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="11" xr3:uid="{99F0060E-55C5-4EE7-9EB9-87BCBC596672}" name="Week Day" dataDxfId="7">
+      <calculatedColumnFormula>WEEKDAY(Table3[[#This Row],[Order Date]],1)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="12" xr3:uid="{4F236E20-18A6-4521-A372-07B9EA2D40D1}" name="Week No." dataDxfId="6">
+      <calculatedColumnFormula>WEEKNUM(Table3[[#This Row],[Order Date]],1)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="15" xr3:uid="{2407263E-AD32-4E86-8573-05C0D4961D09}" name="Today" dataDxfId="5">
+      <calculatedColumnFormula>TODAY()</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="16" xr3:uid="{C1D85BB0-7CC7-49B8-A3BB-D4ADDFD2D83E}" name="Now" dataDxfId="4">
+      <calculatedColumnFormula>NOW()</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="21" xr3:uid="{E0708A8B-416B-4107-ABB5-0AEE679D400F}" name="Month Name" dataDxfId="3">
+      <calculatedColumnFormula>TEXT(Table3[[#This Row],[Order Date]],"mmm")</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="22" xr3:uid="{7EE66797-2A78-4418-A8D5-5990621F28D8}" name="Full Month Name" dataDxfId="2">
+      <calculatedColumnFormula>TEXT(Table3[[#This Row],[Order Date]],"mmmm")</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="23" xr3:uid="{FC1AA081-8D9A-45A5-9C70-0EB70FEE1676}" name="Day Name" dataDxfId="1">
+      <calculatedColumnFormula>TEXT(Table3[[#This Row],[Order Date]],"ddd")</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="24" xr3:uid="{38B5EAB8-B93A-4010-AE1A-7E490E811913}" name="Full Day Name" dataDxfId="0">
+      <calculatedColumnFormula>TEXT(Table3[[#This Row],[Order Date]],"dddd")</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2448,8 +2495,8 @@
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{BD2E7C19-4CCD-4715-80D2-F3CEBA8B619D}" name="First Name" totalsRowLabel="Total"/>
     <tableColumn id="2" xr3:uid="{E0033434-99A9-4108-BEC3-3CA31150EB59}" name="Last Name"/>
-    <tableColumn id="3" xr3:uid="{C5FB64C1-6B7E-4177-9095-F2A5FD76111F}" name="Sales" totalsRowFunction="sum" dataDxfId="12" totalsRowDxfId="11" dataCellStyle="Currency"/>
-    <tableColumn id="4" xr3:uid="{269F38AE-02D6-429F-9F05-DA267B97CE09}" name="% of Total" totalsRowFunction="sum" dataDxfId="10" totalsRowDxfId="9">
+    <tableColumn id="3" xr3:uid="{C5FB64C1-6B7E-4177-9095-F2A5FD76111F}" name="Sales" totalsRowFunction="sum" dataDxfId="26" totalsRowDxfId="25" dataCellStyle="Currency"/>
+    <tableColumn id="4" xr3:uid="{269F38AE-02D6-429F-9F05-DA267B97CE09}" name="% of Total" totalsRowFunction="sum" dataDxfId="24" totalsRowDxfId="23">
       <calculatedColumnFormula>tblSalesReps[[#This Row],[Sales]]/tblSalesReps[[#Totals],[Sales]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2458,13 +2505,13 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table14" displayName="Table14" ref="E7:I11" headerRowDxfId="8" dataDxfId="7" totalsRowDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table14" displayName="Table14" ref="E7:I11" headerRowDxfId="22" dataDxfId="21" totalsRowDxfId="20">
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Company" totalsRowLabel="Total" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Region" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Product" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Month" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Sales $" totalsRowFunction="sum" dataDxfId="1" totalsRowDxfId="0" dataCellStyle="Comma [0]"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Company" totalsRowLabel="Total" dataDxfId="19"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Region" dataDxfId="18"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Product" dataDxfId="17"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Month" dataDxfId="16"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Sales $" totalsRowFunction="sum" dataDxfId="15" totalsRowDxfId="14" dataCellStyle="Comma [0]"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8 2 2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="1"/>
 </table>
@@ -2942,7 +2989,7 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:G84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A60" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I75" sqref="I75"/>
     </sheetView>
   </sheetViews>
@@ -5448,10 +5495,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B6B2A07-BF00-4E0E-9446-1D8700083FDF}">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:T84"/>
+  <dimension ref="A1:U84"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="X13" sqref="X13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5463,28 +5510,40 @@
     <col min="5" max="6" width="11" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="14.6640625" hidden="1" customWidth="1"/>
     <col min="8" max="10" width="9.1640625" customWidth="1"/>
-    <col min="11" max="11" width="10.6640625" customWidth="1"/>
+    <col min="11" max="11" width="10.5" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="15.5" customWidth="1"/>
-    <col min="13" max="13" width="12.33203125" customWidth="1"/>
+    <col min="13" max="13" width="14" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="12.1640625" customWidth="1"/>
     <col min="15" max="15" width="9.6640625" customWidth="1"/>
     <col min="16" max="16" width="14.83203125" customWidth="1"/>
-    <col min="17" max="17" width="15" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="18.83203125" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" ht="19" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="P1" s="40" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="O2" s="26"/>
-      <c r="P2" s="27"/>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="P2" s="26">
+        <v>45524</v>
+      </c>
+      <c r="Q2" s="27">
+        <v>45524.188194444447</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>129</v>
       </c>
@@ -5516,37 +5575,40 @@
         <v>179</v>
       </c>
       <c r="K3" t="s">
-        <v>0</v>
+        <v>222</v>
       </c>
       <c r="L3" t="s">
+        <v>223</v>
+      </c>
+      <c r="M3" t="s">
         <v>180</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>182</v>
       </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>181</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>183</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>184</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>186</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>188</v>
       </c>
-      <c r="S3" t="s">
+      <c r="T3" t="s">
         <v>187</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U3" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>42736</v>
       </c>
@@ -5569,12 +5631,64 @@
       <c r="G4" s="21">
         <v>93.702000000000012</v>
       </c>
-      <c r="K4" s="26"/>
-      <c r="L4" s="26"/>
-      <c r="O4" s="26"/>
-      <c r="P4" s="27"/>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="H4">
+        <f>YEAR(Table3[[#This Row],[Order Date]])</f>
+        <v>2017</v>
+      </c>
+      <c r="I4">
+        <f>MONTH(Table3[[#This Row],[Order Date]])</f>
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <f>DAY(Table3[[#This Row],[Order Date]])</f>
+        <v>1</v>
+      </c>
+      <c r="K4" s="26">
+        <f>DATE(Table3[[#This Row],[Year]]-1,Table3[[#This Row],[Month]],Table3[[#This Row],[Day]])</f>
+        <v>42370</v>
+      </c>
+      <c r="L4" s="26">
+        <f>DATE(Table3[[#This Row],[Year]],Table3[[#This Row],[Month]],0)</f>
+        <v>42735</v>
+      </c>
+      <c r="M4" s="26">
+        <f>EOMONTH(Table3[[#This Row],[Order Date]],0)</f>
+        <v>42766</v>
+      </c>
+      <c r="N4">
+        <f>WEEKDAY(Table3[[#This Row],[Order Date]],1)</f>
+        <v>1</v>
+      </c>
+      <c r="O4">
+        <f>WEEKNUM(Table3[[#This Row],[Order Date]],1)</f>
+        <v>1</v>
+      </c>
+      <c r="P4" s="26">
+        <f t="shared" ref="P4:P35" ca="1" si="0">TODAY()</f>
+        <v>45524</v>
+      </c>
+      <c r="Q4" s="27">
+        <f t="shared" ref="Q4:Q35" ca="1" si="1">NOW()</f>
+        <v>45524.194956134263</v>
+      </c>
+      <c r="R4" t="str">
+        <f>TEXT(Table3[[#This Row],[Order Date]],"mmm")</f>
+        <v>Jan</v>
+      </c>
+      <c r="S4" t="str">
+        <f>TEXT(Table3[[#This Row],[Order Date]],"mmmm")</f>
+        <v>January</v>
+      </c>
+      <c r="T4" t="str">
+        <f>TEXT(Table3[[#This Row],[Order Date]],"ddd")</f>
+        <v>Sun</v>
+      </c>
+      <c r="U4" t="str">
+        <f>TEXT(Table3[[#This Row],[Order Date]],"dddd")</f>
+        <v>Sunday</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>42742</v>
       </c>
@@ -5591,18 +5705,70 @@
         <v>190</v>
       </c>
       <c r="F5" s="25">
-        <f t="shared" ref="F5:F68" si="0">D5*E5</f>
+        <f t="shared" ref="F5:F68" si="2">D5*E5</f>
         <v>8740</v>
       </c>
       <c r="G5" s="21">
         <v>89.14800000000001</v>
       </c>
-      <c r="K5" s="26"/>
-      <c r="L5" s="26"/>
-      <c r="O5" s="26"/>
-      <c r="P5" s="27"/>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="H5">
+        <f>YEAR(Table3[[#This Row],[Order Date]])</f>
+        <v>2017</v>
+      </c>
+      <c r="I5">
+        <f>MONTH(Table3[[#This Row],[Order Date]])</f>
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <f>DAY(Table3[[#This Row],[Order Date]])</f>
+        <v>7</v>
+      </c>
+      <c r="K5" s="26">
+        <f>DATE(Table3[[#This Row],[Year]]-1,Table3[[#This Row],[Month]],Table3[[#This Row],[Day]])</f>
+        <v>42376</v>
+      </c>
+      <c r="L5" s="26">
+        <f>DATE(Table3[[#This Row],[Year]],Table3[[#This Row],[Month]],0)</f>
+        <v>42735</v>
+      </c>
+      <c r="M5" s="26">
+        <f>EOMONTH(Table3[[#This Row],[Order Date]],0)</f>
+        <v>42766</v>
+      </c>
+      <c r="N5">
+        <f>WEEKDAY(Table3[[#This Row],[Order Date]],1)</f>
+        <v>7</v>
+      </c>
+      <c r="O5">
+        <f>WEEKNUM(Table3[[#This Row],[Order Date]],1)</f>
+        <v>1</v>
+      </c>
+      <c r="P5" s="26">
+        <f t="shared" ca="1" si="0"/>
+        <v>45524</v>
+      </c>
+      <c r="Q5" s="27">
+        <f t="shared" ca="1" si="1"/>
+        <v>45524.194956134263</v>
+      </c>
+      <c r="R5" t="str">
+        <f>TEXT(Table3[[#This Row],[Order Date]],"mmm")</f>
+        <v>Jan</v>
+      </c>
+      <c r="S5" t="str">
+        <f>TEXT(Table3[[#This Row],[Order Date]],"mmmm")</f>
+        <v>January</v>
+      </c>
+      <c r="T5" t="str">
+        <f>TEXT(Table3[[#This Row],[Order Date]],"ddd")</f>
+        <v>Sat</v>
+      </c>
+      <c r="U5" t="str">
+        <f>TEXT(Table3[[#This Row],[Order Date]],"dddd")</f>
+        <v>Saturday</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>42750</v>
       </c>
@@ -5619,18 +5785,70 @@
         <v>470</v>
       </c>
       <c r="F6" s="25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>4324</v>
       </c>
       <c r="G6" s="21">
         <v>41.510399999999997</v>
       </c>
-      <c r="K6" s="26"/>
-      <c r="L6" s="26"/>
-      <c r="O6" s="26"/>
-      <c r="P6" s="27"/>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="H6">
+        <f>YEAR(Table3[[#This Row],[Order Date]])</f>
+        <v>2017</v>
+      </c>
+      <c r="I6">
+        <f>MONTH(Table3[[#This Row],[Order Date]])</f>
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <f>DAY(Table3[[#This Row],[Order Date]])</f>
+        <v>15</v>
+      </c>
+      <c r="K6" s="26">
+        <f>DATE(Table3[[#This Row],[Year]]-1,Table3[[#This Row],[Month]],Table3[[#This Row],[Day]])</f>
+        <v>42384</v>
+      </c>
+      <c r="L6" s="26">
+        <f>DATE(Table3[[#This Row],[Year]],Table3[[#This Row],[Month]],0)</f>
+        <v>42735</v>
+      </c>
+      <c r="M6" s="26">
+        <f>EOMONTH(Table3[[#This Row],[Order Date]],0)</f>
+        <v>42766</v>
+      </c>
+      <c r="N6">
+        <f>WEEKDAY(Table3[[#This Row],[Order Date]],1)</f>
+        <v>1</v>
+      </c>
+      <c r="O6">
+        <f>WEEKNUM(Table3[[#This Row],[Order Date]],1)</f>
+        <v>3</v>
+      </c>
+      <c r="P6" s="26">
+        <f t="shared" ca="1" si="0"/>
+        <v>45524</v>
+      </c>
+      <c r="Q6" s="27">
+        <f t="shared" ca="1" si="1"/>
+        <v>45524.194956134263</v>
+      </c>
+      <c r="R6" t="str">
+        <f>TEXT(Table3[[#This Row],[Order Date]],"mmm")</f>
+        <v>Jan</v>
+      </c>
+      <c r="S6" t="str">
+        <f>TEXT(Table3[[#This Row],[Order Date]],"mmmm")</f>
+        <v>January</v>
+      </c>
+      <c r="T6" t="str">
+        <f>TEXT(Table3[[#This Row],[Order Date]],"ddd")</f>
+        <v>Sun</v>
+      </c>
+      <c r="U6" t="str">
+        <f>TEXT(Table3[[#This Row],[Order Date]],"dddd")</f>
+        <v>Sunday</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>42757</v>
       </c>
@@ -5644,18 +5862,70 @@
         <v>0</v>
       </c>
       <c r="F7" s="25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G7" s="21">
         <v>20</v>
       </c>
-      <c r="K7" s="26"/>
-      <c r="L7" s="26"/>
-      <c r="O7" s="26"/>
-      <c r="P7" s="27"/>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="H7">
+        <f>YEAR(Table3[[#This Row],[Order Date]])</f>
+        <v>2017</v>
+      </c>
+      <c r="I7">
+        <f>MONTH(Table3[[#This Row],[Order Date]])</f>
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <f>DAY(Table3[[#This Row],[Order Date]])</f>
+        <v>22</v>
+      </c>
+      <c r="K7" s="26">
+        <f>DATE(Table3[[#This Row],[Year]]-1,Table3[[#This Row],[Month]],Table3[[#This Row],[Day]])</f>
+        <v>42391</v>
+      </c>
+      <c r="L7" s="26">
+        <f>DATE(Table3[[#This Row],[Year]],Table3[[#This Row],[Month]],0)</f>
+        <v>42735</v>
+      </c>
+      <c r="M7" s="26">
+        <f>EOMONTH(Table3[[#This Row],[Order Date]],0)</f>
+        <v>42766</v>
+      </c>
+      <c r="N7">
+        <f>WEEKDAY(Table3[[#This Row],[Order Date]],1)</f>
+        <v>1</v>
+      </c>
+      <c r="O7">
+        <f>WEEKNUM(Table3[[#This Row],[Order Date]],1)</f>
+        <v>4</v>
+      </c>
+      <c r="P7" s="26">
+        <f t="shared" ca="1" si="0"/>
+        <v>45524</v>
+      </c>
+      <c r="Q7" s="27">
+        <f t="shared" ca="1" si="1"/>
+        <v>45524.194956134263</v>
+      </c>
+      <c r="R7" t="str">
+        <f>TEXT(Table3[[#This Row],[Order Date]],"mmm")</f>
+        <v>Jan</v>
+      </c>
+      <c r="S7" t="str">
+        <f>TEXT(Table3[[#This Row],[Order Date]],"mmmm")</f>
+        <v>January</v>
+      </c>
+      <c r="T7" t="str">
+        <f>TEXT(Table3[[#This Row],[Order Date]],"ddd")</f>
+        <v>Sun</v>
+      </c>
+      <c r="U7" t="str">
+        <f>TEXT(Table3[[#This Row],[Order Date]],"dddd")</f>
+        <v>Sunday</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>42764</v>
       </c>
@@ -5672,18 +5942,70 @@
         <v>900</v>
       </c>
       <c r="F8" s="25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2691</v>
       </c>
       <c r="G8" s="21">
         <v>27.717300000000005</v>
       </c>
-      <c r="K8" s="26"/>
-      <c r="L8" s="26"/>
-      <c r="O8" s="26"/>
-      <c r="P8" s="27"/>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="H8">
+        <f>YEAR(Table3[[#This Row],[Order Date]])</f>
+        <v>2017</v>
+      </c>
+      <c r="I8">
+        <f>MONTH(Table3[[#This Row],[Order Date]])</f>
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <f>DAY(Table3[[#This Row],[Order Date]])</f>
+        <v>29</v>
+      </c>
+      <c r="K8" s="26">
+        <f>DATE(Table3[[#This Row],[Year]]-1,Table3[[#This Row],[Month]],Table3[[#This Row],[Day]])</f>
+        <v>42398</v>
+      </c>
+      <c r="L8" s="26">
+        <f>DATE(Table3[[#This Row],[Year]],Table3[[#This Row],[Month]],0)</f>
+        <v>42735</v>
+      </c>
+      <c r="M8" s="26">
+        <f>EOMONTH(Table3[[#This Row],[Order Date]],0)</f>
+        <v>42766</v>
+      </c>
+      <c r="N8">
+        <f>WEEKDAY(Table3[[#This Row],[Order Date]],1)</f>
+        <v>1</v>
+      </c>
+      <c r="O8">
+        <f>WEEKNUM(Table3[[#This Row],[Order Date]],1)</f>
+        <v>5</v>
+      </c>
+      <c r="P8" s="26">
+        <f t="shared" ca="1" si="0"/>
+        <v>45524</v>
+      </c>
+      <c r="Q8" s="27">
+        <f t="shared" ca="1" si="1"/>
+        <v>45524.194956134263</v>
+      </c>
+      <c r="R8" t="str">
+        <f>TEXT(Table3[[#This Row],[Order Date]],"mmm")</f>
+        <v>Jan</v>
+      </c>
+      <c r="S8" t="str">
+        <f>TEXT(Table3[[#This Row],[Order Date]],"mmmm")</f>
+        <v>January</v>
+      </c>
+      <c r="T8" t="str">
+        <f>TEXT(Table3[[#This Row],[Order Date]],"ddd")</f>
+        <v>Sun</v>
+      </c>
+      <c r="U8" t="str">
+        <f>TEXT(Table3[[#This Row],[Order Date]],"dddd")</f>
+        <v>Sunday</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>42771</v>
       </c>
@@ -5700,18 +6022,70 @@
         <v>100</v>
       </c>
       <c r="F9" s="25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1400</v>
       </c>
       <c r="G9" s="21">
         <v>13.86</v>
       </c>
-      <c r="K9" s="26"/>
-      <c r="L9" s="26"/>
-      <c r="O9" s="26"/>
-      <c r="P9" s="27"/>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="H9">
+        <f>YEAR(Table3[[#This Row],[Order Date]])</f>
+        <v>2017</v>
+      </c>
+      <c r="I9">
+        <f>MONTH(Table3[[#This Row],[Order Date]])</f>
+        <v>2</v>
+      </c>
+      <c r="J9">
+        <f>DAY(Table3[[#This Row],[Order Date]])</f>
+        <v>5</v>
+      </c>
+      <c r="K9" s="26">
+        <f>DATE(Table3[[#This Row],[Year]]-1,Table3[[#This Row],[Month]],Table3[[#This Row],[Day]])</f>
+        <v>42405</v>
+      </c>
+      <c r="L9" s="26">
+        <f>DATE(Table3[[#This Row],[Year]],Table3[[#This Row],[Month]],0)</f>
+        <v>42766</v>
+      </c>
+      <c r="M9" s="26">
+        <f>EOMONTH(Table3[[#This Row],[Order Date]],0)</f>
+        <v>42794</v>
+      </c>
+      <c r="N9">
+        <f>WEEKDAY(Table3[[#This Row],[Order Date]],1)</f>
+        <v>1</v>
+      </c>
+      <c r="O9">
+        <f>WEEKNUM(Table3[[#This Row],[Order Date]],1)</f>
+        <v>6</v>
+      </c>
+      <c r="P9" s="26">
+        <f t="shared" ca="1" si="0"/>
+        <v>45524</v>
+      </c>
+      <c r="Q9" s="27">
+        <f t="shared" ca="1" si="1"/>
+        <v>45524.194956134263</v>
+      </c>
+      <c r="R9" t="str">
+        <f>TEXT(Table3[[#This Row],[Order Date]],"mmm")</f>
+        <v>Feb</v>
+      </c>
+      <c r="S9" t="str">
+        <f>TEXT(Table3[[#This Row],[Order Date]],"mmmm")</f>
+        <v>February</v>
+      </c>
+      <c r="T9" t="str">
+        <f>TEXT(Table3[[#This Row],[Order Date]],"ddd")</f>
+        <v>Sun</v>
+      </c>
+      <c r="U9" t="str">
+        <f>TEXT(Table3[[#This Row],[Order Date]],"dddd")</f>
+        <v>Sunday</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>42778</v>
       </c>
@@ -5728,18 +6102,70 @@
         <v>810</v>
       </c>
       <c r="F10" s="25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>8100</v>
       </c>
       <c r="G10" s="21">
         <v>62.83</v>
       </c>
-      <c r="K10" s="26"/>
-      <c r="L10" s="26"/>
-      <c r="O10" s="26"/>
-      <c r="P10" s="27"/>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="H10">
+        <f>YEAR(Table3[[#This Row],[Order Date]])</f>
+        <v>2017</v>
+      </c>
+      <c r="I10">
+        <f>MONTH(Table3[[#This Row],[Order Date]])</f>
+        <v>2</v>
+      </c>
+      <c r="J10">
+        <f>DAY(Table3[[#This Row],[Order Date]])</f>
+        <v>12</v>
+      </c>
+      <c r="K10" s="26">
+        <f>DATE(Table3[[#This Row],[Year]]-1,Table3[[#This Row],[Month]],Table3[[#This Row],[Day]])</f>
+        <v>42412</v>
+      </c>
+      <c r="L10" s="26">
+        <f>DATE(Table3[[#This Row],[Year]],Table3[[#This Row],[Month]],0)</f>
+        <v>42766</v>
+      </c>
+      <c r="M10" s="26">
+        <f>EOMONTH(Table3[[#This Row],[Order Date]],0)</f>
+        <v>42794</v>
+      </c>
+      <c r="N10">
+        <f>WEEKDAY(Table3[[#This Row],[Order Date]],1)</f>
+        <v>1</v>
+      </c>
+      <c r="O10">
+        <f>WEEKNUM(Table3[[#This Row],[Order Date]],1)</f>
+        <v>7</v>
+      </c>
+      <c r="P10" s="26">
+        <f t="shared" ca="1" si="0"/>
+        <v>45524</v>
+      </c>
+      <c r="Q10" s="27">
+        <f t="shared" ca="1" si="1"/>
+        <v>45524.194956134263</v>
+      </c>
+      <c r="R10" t="str">
+        <f>TEXT(Table3[[#This Row],[Order Date]],"mmm")</f>
+        <v>Feb</v>
+      </c>
+      <c r="S10" t="str">
+        <f>TEXT(Table3[[#This Row],[Order Date]],"mmmm")</f>
+        <v>February</v>
+      </c>
+      <c r="T10" t="str">
+        <f>TEXT(Table3[[#This Row],[Order Date]],"ddd")</f>
+        <v>Sun</v>
+      </c>
+      <c r="U10" t="str">
+        <f>TEXT(Table3[[#This Row],[Order Date]],"dddd")</f>
+        <v>Sunday</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>42785</v>
       </c>
@@ -5756,18 +6182,70 @@
         <v>750</v>
       </c>
       <c r="F11" s="25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2625</v>
       </c>
       <c r="G11" s="21">
         <v>26.25</v>
       </c>
-      <c r="K11" s="26"/>
-      <c r="L11" s="26"/>
-      <c r="O11" s="26"/>
-      <c r="P11" s="27"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="H11">
+        <f>YEAR(Table3[[#This Row],[Order Date]])</f>
+        <v>2017</v>
+      </c>
+      <c r="I11">
+        <f>MONTH(Table3[[#This Row],[Order Date]])</f>
+        <v>2</v>
+      </c>
+      <c r="J11">
+        <f>DAY(Table3[[#This Row],[Order Date]])</f>
+        <v>19</v>
+      </c>
+      <c r="K11" s="26">
+        <f>DATE(Table3[[#This Row],[Year]]-1,Table3[[#This Row],[Month]],Table3[[#This Row],[Day]])</f>
+        <v>42419</v>
+      </c>
+      <c r="L11" s="26">
+        <f>DATE(Table3[[#This Row],[Year]],Table3[[#This Row],[Month]],0)</f>
+        <v>42766</v>
+      </c>
+      <c r="M11" s="26">
+        <f>EOMONTH(Table3[[#This Row],[Order Date]],0)</f>
+        <v>42794</v>
+      </c>
+      <c r="N11">
+        <f>WEEKDAY(Table3[[#This Row],[Order Date]],1)</f>
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <f>WEEKNUM(Table3[[#This Row],[Order Date]],1)</f>
+        <v>8</v>
+      </c>
+      <c r="P11" s="26">
+        <f t="shared" ca="1" si="0"/>
+        <v>45524</v>
+      </c>
+      <c r="Q11" s="27">
+        <f t="shared" ca="1" si="1"/>
+        <v>45524.194956134263</v>
+      </c>
+      <c r="R11" t="str">
+        <f>TEXT(Table3[[#This Row],[Order Date]],"mmm")</f>
+        <v>Feb</v>
+      </c>
+      <c r="S11" t="str">
+        <f>TEXT(Table3[[#This Row],[Order Date]],"mmmm")</f>
+        <v>February</v>
+      </c>
+      <c r="T11" t="str">
+        <f>TEXT(Table3[[#This Row],[Order Date]],"ddd")</f>
+        <v>Sun</v>
+      </c>
+      <c r="U11" t="str">
+        <f>TEXT(Table3[[#This Row],[Order Date]],"dddd")</f>
+        <v>Sunday</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>42792</v>
       </c>
@@ -5784,18 +6262,70 @@
         <v>920</v>
       </c>
       <c r="F12" s="25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>42320</v>
       </c>
       <c r="G12" s="21">
         <v>365.14800000000002</v>
       </c>
-      <c r="K12" s="26"/>
-      <c r="L12" s="26"/>
-      <c r="O12" s="26"/>
-      <c r="P12" s="27"/>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="H12">
+        <f>YEAR(Table3[[#This Row],[Order Date]])</f>
+        <v>2017</v>
+      </c>
+      <c r="I12">
+        <f>MONTH(Table3[[#This Row],[Order Date]])</f>
+        <v>2</v>
+      </c>
+      <c r="J12">
+        <f>DAY(Table3[[#This Row],[Order Date]])</f>
+        <v>26</v>
+      </c>
+      <c r="K12" s="26">
+        <f>DATE(Table3[[#This Row],[Year]]-1,Table3[[#This Row],[Month]],Table3[[#This Row],[Day]])</f>
+        <v>42426</v>
+      </c>
+      <c r="L12" s="26">
+        <f>DATE(Table3[[#This Row],[Year]],Table3[[#This Row],[Month]],0)</f>
+        <v>42766</v>
+      </c>
+      <c r="M12" s="26">
+        <f>EOMONTH(Table3[[#This Row],[Order Date]],0)</f>
+        <v>42794</v>
+      </c>
+      <c r="N12">
+        <f>WEEKDAY(Table3[[#This Row],[Order Date]],1)</f>
+        <v>1</v>
+      </c>
+      <c r="O12">
+        <f>WEEKNUM(Table3[[#This Row],[Order Date]],1)</f>
+        <v>9</v>
+      </c>
+      <c r="P12" s="26">
+        <f t="shared" ca="1" si="0"/>
+        <v>45524</v>
+      </c>
+      <c r="Q12" s="27">
+        <f t="shared" ca="1" si="1"/>
+        <v>45524.194956134263</v>
+      </c>
+      <c r="R12" t="str">
+        <f>TEXT(Table3[[#This Row],[Order Date]],"mmm")</f>
+        <v>Feb</v>
+      </c>
+      <c r="S12" t="str">
+        <f>TEXT(Table3[[#This Row],[Order Date]],"mmmm")</f>
+        <v>February</v>
+      </c>
+      <c r="T12" t="str">
+        <f>TEXT(Table3[[#This Row],[Order Date]],"ddd")</f>
+        <v>Sun</v>
+      </c>
+      <c r="U12" t="str">
+        <f>TEXT(Table3[[#This Row],[Order Date]],"dddd")</f>
+        <v>Sunday</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>42799</v>
       </c>
@@ -5812,18 +6342,70 @@
         <v>180</v>
       </c>
       <c r="F13" s="25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>6263.9999999999991</v>
       </c>
       <c r="G13" s="21">
         <v>61.3872</v>
       </c>
-      <c r="K13" s="26"/>
-      <c r="L13" s="26"/>
-      <c r="O13" s="26"/>
-      <c r="P13" s="27"/>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="H13">
+        <f>YEAR(Table3[[#This Row],[Order Date]])</f>
+        <v>2017</v>
+      </c>
+      <c r="I13">
+        <f>MONTH(Table3[[#This Row],[Order Date]])</f>
+        <v>3</v>
+      </c>
+      <c r="J13">
+        <f>DAY(Table3[[#This Row],[Order Date]])</f>
+        <v>5</v>
+      </c>
+      <c r="K13" s="26">
+        <f>DATE(Table3[[#This Row],[Year]]-1,Table3[[#This Row],[Month]],Table3[[#This Row],[Day]])</f>
+        <v>42434</v>
+      </c>
+      <c r="L13" s="26">
+        <f>DATE(Table3[[#This Row],[Year]],Table3[[#This Row],[Month]],0)</f>
+        <v>42794</v>
+      </c>
+      <c r="M13" s="26">
+        <f>EOMONTH(Table3[[#This Row],[Order Date]],0)</f>
+        <v>42825</v>
+      </c>
+      <c r="N13">
+        <f>WEEKDAY(Table3[[#This Row],[Order Date]],1)</f>
+        <v>1</v>
+      </c>
+      <c r="O13">
+        <f>WEEKNUM(Table3[[#This Row],[Order Date]],1)</f>
+        <v>10</v>
+      </c>
+      <c r="P13" s="26">
+        <f t="shared" ca="1" si="0"/>
+        <v>45524</v>
+      </c>
+      <c r="Q13" s="27">
+        <f t="shared" ca="1" si="1"/>
+        <v>45524.194956134263</v>
+      </c>
+      <c r="R13" t="str">
+        <f>TEXT(Table3[[#This Row],[Order Date]],"mmm")</f>
+        <v>Mar</v>
+      </c>
+      <c r="S13" t="str">
+        <f>TEXT(Table3[[#This Row],[Order Date]],"mmmm")</f>
+        <v>March</v>
+      </c>
+      <c r="T13" t="str">
+        <f>TEXT(Table3[[#This Row],[Order Date]],"ddd")</f>
+        <v>Sun</v>
+      </c>
+      <c r="U13" t="str">
+        <f>TEXT(Table3[[#This Row],[Order Date]],"dddd")</f>
+        <v>Sunday</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>42806</v>
       </c>
@@ -5840,18 +6422,70 @@
         <v>810</v>
       </c>
       <c r="F14" s="25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>32400</v>
       </c>
       <c r="G14" s="21">
         <v>378</v>
       </c>
-      <c r="K14" s="26"/>
-      <c r="L14" s="26"/>
-      <c r="O14" s="26"/>
-      <c r="P14" s="27"/>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="H14">
+        <f>YEAR(Table3[[#This Row],[Order Date]])</f>
+        <v>2017</v>
+      </c>
+      <c r="I14">
+        <f>MONTH(Table3[[#This Row],[Order Date]])</f>
+        <v>3</v>
+      </c>
+      <c r="J14">
+        <f>DAY(Table3[[#This Row],[Order Date]])</f>
+        <v>12</v>
+      </c>
+      <c r="K14" s="26">
+        <f>DATE(Table3[[#This Row],[Year]]-1,Table3[[#This Row],[Month]],Table3[[#This Row],[Day]])</f>
+        <v>42441</v>
+      </c>
+      <c r="L14" s="26">
+        <f>DATE(Table3[[#This Row],[Year]],Table3[[#This Row],[Month]],0)</f>
+        <v>42794</v>
+      </c>
+      <c r="M14" s="26">
+        <f>EOMONTH(Table3[[#This Row],[Order Date]],0)</f>
+        <v>42825</v>
+      </c>
+      <c r="N14">
+        <f>WEEKDAY(Table3[[#This Row],[Order Date]],1)</f>
+        <v>1</v>
+      </c>
+      <c r="O14">
+        <f>WEEKNUM(Table3[[#This Row],[Order Date]],1)</f>
+        <v>11</v>
+      </c>
+      <c r="P14" s="26">
+        <f t="shared" ca="1" si="0"/>
+        <v>45524</v>
+      </c>
+      <c r="Q14" s="27">
+        <f t="shared" ca="1" si="1"/>
+        <v>45524.194956134263</v>
+      </c>
+      <c r="R14" t="str">
+        <f>TEXT(Table3[[#This Row],[Order Date]],"mmm")</f>
+        <v>Mar</v>
+      </c>
+      <c r="S14" t="str">
+        <f>TEXT(Table3[[#This Row],[Order Date]],"mmmm")</f>
+        <v>March</v>
+      </c>
+      <c r="T14" t="str">
+        <f>TEXT(Table3[[#This Row],[Order Date]],"ddd")</f>
+        <v>Sun</v>
+      </c>
+      <c r="U14" t="str">
+        <f>TEXT(Table3[[#This Row],[Order Date]],"dddd")</f>
+        <v>Sunday</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>42813</v>
       </c>
@@ -5868,18 +6502,70 @@
         <v>380</v>
       </c>
       <c r="F15" s="25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3495.9999999999995</v>
       </c>
       <c r="G15" s="21">
         <v>36.008800000000001</v>
       </c>
-      <c r="K15" s="26"/>
-      <c r="L15" s="26"/>
-      <c r="O15" s="26"/>
-      <c r="P15" s="27"/>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="H15">
+        <f>YEAR(Table3[[#This Row],[Order Date]])</f>
+        <v>2017</v>
+      </c>
+      <c r="I15">
+        <f>MONTH(Table3[[#This Row],[Order Date]])</f>
+        <v>3</v>
+      </c>
+      <c r="J15">
+        <f>DAY(Table3[[#This Row],[Order Date]])</f>
+        <v>19</v>
+      </c>
+      <c r="K15" s="26">
+        <f>DATE(Table3[[#This Row],[Year]]-1,Table3[[#This Row],[Month]],Table3[[#This Row],[Day]])</f>
+        <v>42448</v>
+      </c>
+      <c r="L15" s="26">
+        <f>DATE(Table3[[#This Row],[Year]],Table3[[#This Row],[Month]],0)</f>
+        <v>42794</v>
+      </c>
+      <c r="M15" s="26">
+        <f>EOMONTH(Table3[[#This Row],[Order Date]],0)</f>
+        <v>42825</v>
+      </c>
+      <c r="N15">
+        <f>WEEKDAY(Table3[[#This Row],[Order Date]],1)</f>
+        <v>1</v>
+      </c>
+      <c r="O15">
+        <f>WEEKNUM(Table3[[#This Row],[Order Date]],1)</f>
+        <v>12</v>
+      </c>
+      <c r="P15" s="26">
+        <f t="shared" ca="1" si="0"/>
+        <v>45524</v>
+      </c>
+      <c r="Q15" s="27">
+        <f t="shared" ca="1" si="1"/>
+        <v>45524.194956134263</v>
+      </c>
+      <c r="R15" t="str">
+        <f>TEXT(Table3[[#This Row],[Order Date]],"mmm")</f>
+        <v>Mar</v>
+      </c>
+      <c r="S15" t="str">
+        <f>TEXT(Table3[[#This Row],[Order Date]],"mmmm")</f>
+        <v>March</v>
+      </c>
+      <c r="T15" t="str">
+        <f>TEXT(Table3[[#This Row],[Order Date]],"ddd")</f>
+        <v>Sun</v>
+      </c>
+      <c r="U15" t="str">
+        <f>TEXT(Table3[[#This Row],[Order Date]],"dddd")</f>
+        <v>Sunday</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>42820</v>
       </c>
@@ -5896,18 +6582,70 @@
         <v>880</v>
       </c>
       <c r="F16" s="25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>8095.9999999999991</v>
       </c>
       <c r="G16" s="21">
         <v>79.340799999999987</v>
       </c>
-      <c r="K16" s="26"/>
-      <c r="L16" s="26"/>
-      <c r="O16" s="26"/>
-      <c r="P16" s="27"/>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="H16">
+        <f>YEAR(Table3[[#This Row],[Order Date]])</f>
+        <v>2017</v>
+      </c>
+      <c r="I16">
+        <f>MONTH(Table3[[#This Row],[Order Date]])</f>
+        <v>3</v>
+      </c>
+      <c r="J16">
+        <f>DAY(Table3[[#This Row],[Order Date]])</f>
+        <v>26</v>
+      </c>
+      <c r="K16" s="26">
+        <f>DATE(Table3[[#This Row],[Year]]-1,Table3[[#This Row],[Month]],Table3[[#This Row],[Day]])</f>
+        <v>42455</v>
+      </c>
+      <c r="L16" s="26">
+        <f>DATE(Table3[[#This Row],[Year]],Table3[[#This Row],[Month]],0)</f>
+        <v>42794</v>
+      </c>
+      <c r="M16" s="26">
+        <f>EOMONTH(Table3[[#This Row],[Order Date]],0)</f>
+        <v>42825</v>
+      </c>
+      <c r="N16">
+        <f>WEEKDAY(Table3[[#This Row],[Order Date]],1)</f>
+        <v>1</v>
+      </c>
+      <c r="O16">
+        <f>WEEKNUM(Table3[[#This Row],[Order Date]],1)</f>
+        <v>13</v>
+      </c>
+      <c r="P16" s="26">
+        <f t="shared" ca="1" si="0"/>
+        <v>45524</v>
+      </c>
+      <c r="Q16" s="27">
+        <f t="shared" ca="1" si="1"/>
+        <v>45524.194956134263</v>
+      </c>
+      <c r="R16" t="str">
+        <f>TEXT(Table3[[#This Row],[Order Date]],"mmm")</f>
+        <v>Mar</v>
+      </c>
+      <c r="S16" t="str">
+        <f>TEXT(Table3[[#This Row],[Order Date]],"mmmm")</f>
+        <v>March</v>
+      </c>
+      <c r="T16" t="str">
+        <f>TEXT(Table3[[#This Row],[Order Date]],"ddd")</f>
+        <v>Sun</v>
+      </c>
+      <c r="U16" t="str">
+        <f>TEXT(Table3[[#This Row],[Order Date]],"dddd")</f>
+        <v>Sunday</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>42827</v>
       </c>
@@ -5924,18 +6662,70 @@
         <v>720</v>
       </c>
       <c r="F17" s="25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>15840</v>
       </c>
       <c r="G17" s="21">
         <v>150.47999999999999</v>
       </c>
-      <c r="K17" s="26"/>
-      <c r="L17" s="26"/>
-      <c r="O17" s="26"/>
-      <c r="P17" s="27"/>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="H17">
+        <f>YEAR(Table3[[#This Row],[Order Date]])</f>
+        <v>2017</v>
+      </c>
+      <c r="I17">
+        <f>MONTH(Table3[[#This Row],[Order Date]])</f>
+        <v>4</v>
+      </c>
+      <c r="J17">
+        <f>DAY(Table3[[#This Row],[Order Date]])</f>
+        <v>2</v>
+      </c>
+      <c r="K17" s="26">
+        <f>DATE(Table3[[#This Row],[Year]]-1,Table3[[#This Row],[Month]],Table3[[#This Row],[Day]])</f>
+        <v>42462</v>
+      </c>
+      <c r="L17" s="26">
+        <f>DATE(Table3[[#This Row],[Year]],Table3[[#This Row],[Month]],0)</f>
+        <v>42825</v>
+      </c>
+      <c r="M17" s="26">
+        <f>EOMONTH(Table3[[#This Row],[Order Date]],0)</f>
+        <v>42855</v>
+      </c>
+      <c r="N17">
+        <f>WEEKDAY(Table3[[#This Row],[Order Date]],1)</f>
+        <v>1</v>
+      </c>
+      <c r="O17">
+        <f>WEEKNUM(Table3[[#This Row],[Order Date]],1)</f>
+        <v>14</v>
+      </c>
+      <c r="P17" s="26">
+        <f t="shared" ca="1" si="0"/>
+        <v>45524</v>
+      </c>
+      <c r="Q17" s="27">
+        <f t="shared" ca="1" si="1"/>
+        <v>45524.194956134263</v>
+      </c>
+      <c r="R17" t="str">
+        <f>TEXT(Table3[[#This Row],[Order Date]],"mmm")</f>
+        <v>Apr</v>
+      </c>
+      <c r="S17" t="str">
+        <f>TEXT(Table3[[#This Row],[Order Date]],"mmmm")</f>
+        <v>April</v>
+      </c>
+      <c r="T17" t="str">
+        <f>TEXT(Table3[[#This Row],[Order Date]],"ddd")</f>
+        <v>Sun</v>
+      </c>
+      <c r="U17" t="str">
+        <f>TEXT(Table3[[#This Row],[Order Date]],"dddd")</f>
+        <v>Sunday</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>42834</v>
       </c>
@@ -5952,18 +6742,70 @@
         <v>250</v>
       </c>
       <c r="F18" s="25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>10000</v>
       </c>
       <c r="G18" s="21">
         <v>96</v>
       </c>
-      <c r="K18" s="26"/>
-      <c r="L18" s="26"/>
-      <c r="O18" s="26"/>
-      <c r="P18" s="27"/>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="H18">
+        <f>YEAR(Table3[[#This Row],[Order Date]])</f>
+        <v>2017</v>
+      </c>
+      <c r="I18">
+        <f>MONTH(Table3[[#This Row],[Order Date]])</f>
+        <v>4</v>
+      </c>
+      <c r="J18">
+        <f>DAY(Table3[[#This Row],[Order Date]])</f>
+        <v>9</v>
+      </c>
+      <c r="K18" s="26">
+        <f>DATE(Table3[[#This Row],[Year]]-1,Table3[[#This Row],[Month]],Table3[[#This Row],[Day]])</f>
+        <v>42469</v>
+      </c>
+      <c r="L18" s="26">
+        <f>DATE(Table3[[#This Row],[Year]],Table3[[#This Row],[Month]],0)</f>
+        <v>42825</v>
+      </c>
+      <c r="M18" s="26">
+        <f>EOMONTH(Table3[[#This Row],[Order Date]],0)</f>
+        <v>42855</v>
+      </c>
+      <c r="N18">
+        <f>WEEKDAY(Table3[[#This Row],[Order Date]],1)</f>
+        <v>1</v>
+      </c>
+      <c r="O18">
+        <f>WEEKNUM(Table3[[#This Row],[Order Date]],1)</f>
+        <v>15</v>
+      </c>
+      <c r="P18" s="26">
+        <f t="shared" ca="1" si="0"/>
+        <v>45524</v>
+      </c>
+      <c r="Q18" s="27">
+        <f t="shared" ca="1" si="1"/>
+        <v>45524.194956134263</v>
+      </c>
+      <c r="R18" t="str">
+        <f>TEXT(Table3[[#This Row],[Order Date]],"mmm")</f>
+        <v>Apr</v>
+      </c>
+      <c r="S18" t="str">
+        <f>TEXT(Table3[[#This Row],[Order Date]],"mmmm")</f>
+        <v>April</v>
+      </c>
+      <c r="T18" t="str">
+        <f>TEXT(Table3[[#This Row],[Order Date]],"ddd")</f>
+        <v>Sun</v>
+      </c>
+      <c r="U18" t="str">
+        <f>TEXT(Table3[[#This Row],[Order Date]],"dddd")</f>
+        <v>Sunday</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>42841</v>
       </c>
@@ -5980,18 +6822,70 @@
         <v>820</v>
       </c>
       <c r="F19" s="25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>32800</v>
       </c>
       <c r="G19" s="21">
         <v>318.15999999999997</v>
       </c>
-      <c r="K19" s="26"/>
-      <c r="L19" s="26"/>
-      <c r="O19" s="26"/>
-      <c r="P19" s="27"/>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="H19">
+        <f>YEAR(Table3[[#This Row],[Order Date]])</f>
+        <v>2017</v>
+      </c>
+      <c r="I19">
+        <f>MONTH(Table3[[#This Row],[Order Date]])</f>
+        <v>4</v>
+      </c>
+      <c r="J19">
+        <f>DAY(Table3[[#This Row],[Order Date]])</f>
+        <v>16</v>
+      </c>
+      <c r="K19" s="26">
+        <f>DATE(Table3[[#This Row],[Year]]-1,Table3[[#This Row],[Month]],Table3[[#This Row],[Day]])</f>
+        <v>42476</v>
+      </c>
+      <c r="L19" s="26">
+        <f>DATE(Table3[[#This Row],[Year]],Table3[[#This Row],[Month]],0)</f>
+        <v>42825</v>
+      </c>
+      <c r="M19" s="26">
+        <f>EOMONTH(Table3[[#This Row],[Order Date]],0)</f>
+        <v>42855</v>
+      </c>
+      <c r="N19">
+        <f>WEEKDAY(Table3[[#This Row],[Order Date]],1)</f>
+        <v>1</v>
+      </c>
+      <c r="O19">
+        <f>WEEKNUM(Table3[[#This Row],[Order Date]],1)</f>
+        <v>16</v>
+      </c>
+      <c r="P19" s="26">
+        <f t="shared" ca="1" si="0"/>
+        <v>45524</v>
+      </c>
+      <c r="Q19" s="27">
+        <f t="shared" ca="1" si="1"/>
+        <v>45524.194956134263</v>
+      </c>
+      <c r="R19" t="str">
+        <f>TEXT(Table3[[#This Row],[Order Date]],"mmm")</f>
+        <v>Apr</v>
+      </c>
+      <c r="S19" t="str">
+        <f>TEXT(Table3[[#This Row],[Order Date]],"mmmm")</f>
+        <v>April</v>
+      </c>
+      <c r="T19" t="str">
+        <f>TEXT(Table3[[#This Row],[Order Date]],"ddd")</f>
+        <v>Sun</v>
+      </c>
+      <c r="U19" t="str">
+        <f>TEXT(Table3[[#This Row],[Order Date]],"dddd")</f>
+        <v>Sunday</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>42848</v>
       </c>
@@ -6008,18 +6902,70 @@
         <v>1000</v>
       </c>
       <c r="F20" s="25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>12750</v>
       </c>
       <c r="G20" s="21">
         <v>122.39999999999999</v>
       </c>
-      <c r="K20" s="26"/>
-      <c r="L20" s="26"/>
-      <c r="O20" s="26"/>
-      <c r="P20" s="27"/>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="H20">
+        <f>YEAR(Table3[[#This Row],[Order Date]])</f>
+        <v>2017</v>
+      </c>
+      <c r="I20">
+        <f>MONTH(Table3[[#This Row],[Order Date]])</f>
+        <v>4</v>
+      </c>
+      <c r="J20">
+        <f>DAY(Table3[[#This Row],[Order Date]])</f>
+        <v>23</v>
+      </c>
+      <c r="K20" s="26">
+        <f>DATE(Table3[[#This Row],[Year]]-1,Table3[[#This Row],[Month]],Table3[[#This Row],[Day]])</f>
+        <v>42483</v>
+      </c>
+      <c r="L20" s="26">
+        <f>DATE(Table3[[#This Row],[Year]],Table3[[#This Row],[Month]],0)</f>
+        <v>42825</v>
+      </c>
+      <c r="M20" s="26">
+        <f>EOMONTH(Table3[[#This Row],[Order Date]],0)</f>
+        <v>42855</v>
+      </c>
+      <c r="N20">
+        <f>WEEKDAY(Table3[[#This Row],[Order Date]],1)</f>
+        <v>1</v>
+      </c>
+      <c r="O20">
+        <f>WEEKNUM(Table3[[#This Row],[Order Date]],1)</f>
+        <v>17</v>
+      </c>
+      <c r="P20" s="26">
+        <f t="shared" ca="1" si="0"/>
+        <v>45524</v>
+      </c>
+      <c r="Q20" s="27">
+        <f t="shared" ca="1" si="1"/>
+        <v>45524.194956134263</v>
+      </c>
+      <c r="R20" t="str">
+        <f>TEXT(Table3[[#This Row],[Order Date]],"mmm")</f>
+        <v>Apr</v>
+      </c>
+      <c r="S20" t="str">
+        <f>TEXT(Table3[[#This Row],[Order Date]],"mmmm")</f>
+        <v>April</v>
+      </c>
+      <c r="T20" t="str">
+        <f>TEXT(Table3[[#This Row],[Order Date]],"ddd")</f>
+        <v>Sun</v>
+      </c>
+      <c r="U20" t="str">
+        <f>TEXT(Table3[[#This Row],[Order Date]],"dddd")</f>
+        <v>Sunday</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>42855</v>
       </c>
@@ -6036,18 +6982,70 @@
         <v>320</v>
       </c>
       <c r="F21" s="25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>12800</v>
       </c>
       <c r="G21" s="21">
         <v>133.12</v>
       </c>
-      <c r="K21" s="26"/>
-      <c r="L21" s="26"/>
-      <c r="O21" s="26"/>
-      <c r="P21" s="27"/>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="H21">
+        <f>YEAR(Table3[[#This Row],[Order Date]])</f>
+        <v>2017</v>
+      </c>
+      <c r="I21">
+        <f>MONTH(Table3[[#This Row],[Order Date]])</f>
+        <v>4</v>
+      </c>
+      <c r="J21">
+        <f>DAY(Table3[[#This Row],[Order Date]])</f>
+        <v>30</v>
+      </c>
+      <c r="K21" s="26">
+        <f>DATE(Table3[[#This Row],[Year]]-1,Table3[[#This Row],[Month]],Table3[[#This Row],[Day]])</f>
+        <v>42490</v>
+      </c>
+      <c r="L21" s="26">
+        <f>DATE(Table3[[#This Row],[Year]],Table3[[#This Row],[Month]],0)</f>
+        <v>42825</v>
+      </c>
+      <c r="M21" s="26">
+        <f>EOMONTH(Table3[[#This Row],[Order Date]],0)</f>
+        <v>42855</v>
+      </c>
+      <c r="N21">
+        <f>WEEKDAY(Table3[[#This Row],[Order Date]],1)</f>
+        <v>1</v>
+      </c>
+      <c r="O21">
+        <f>WEEKNUM(Table3[[#This Row],[Order Date]],1)</f>
+        <v>18</v>
+      </c>
+      <c r="P21" s="26">
+        <f t="shared" ca="1" si="0"/>
+        <v>45524</v>
+      </c>
+      <c r="Q21" s="27">
+        <f t="shared" ca="1" si="1"/>
+        <v>45524.194956134263</v>
+      </c>
+      <c r="R21" t="str">
+        <f>TEXT(Table3[[#This Row],[Order Date]],"mmm")</f>
+        <v>Apr</v>
+      </c>
+      <c r="S21" t="str">
+        <f>TEXT(Table3[[#This Row],[Order Date]],"mmmm")</f>
+        <v>April</v>
+      </c>
+      <c r="T21" t="str">
+        <f>TEXT(Table3[[#This Row],[Order Date]],"ddd")</f>
+        <v>Sun</v>
+      </c>
+      <c r="U21" t="str">
+        <f>TEXT(Table3[[#This Row],[Order Date]],"dddd")</f>
+        <v>Sunday</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>42862</v>
       </c>
@@ -6064,18 +7062,70 @@
         <v>640</v>
       </c>
       <c r="F22" s="25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>11520</v>
       </c>
       <c r="G22" s="21">
         <v>118.65600000000001</v>
       </c>
-      <c r="K22" s="26"/>
-      <c r="L22" s="26"/>
-      <c r="O22" s="26"/>
-      <c r="P22" s="27"/>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="H22">
+        <f>YEAR(Table3[[#This Row],[Order Date]])</f>
+        <v>2017</v>
+      </c>
+      <c r="I22">
+        <f>MONTH(Table3[[#This Row],[Order Date]])</f>
+        <v>5</v>
+      </c>
+      <c r="J22">
+        <f>DAY(Table3[[#This Row],[Order Date]])</f>
+        <v>7</v>
+      </c>
+      <c r="K22" s="26">
+        <f>DATE(Table3[[#This Row],[Year]]-1,Table3[[#This Row],[Month]],Table3[[#This Row],[Day]])</f>
+        <v>42497</v>
+      </c>
+      <c r="L22" s="26">
+        <f>DATE(Table3[[#This Row],[Year]],Table3[[#This Row],[Month]],0)</f>
+        <v>42855</v>
+      </c>
+      <c r="M22" s="26">
+        <f>EOMONTH(Table3[[#This Row],[Order Date]],0)</f>
+        <v>42886</v>
+      </c>
+      <c r="N22">
+        <f>WEEKDAY(Table3[[#This Row],[Order Date]],1)</f>
+        <v>1</v>
+      </c>
+      <c r="O22">
+        <f>WEEKNUM(Table3[[#This Row],[Order Date]],1)</f>
+        <v>19</v>
+      </c>
+      <c r="P22" s="26">
+        <f t="shared" ca="1" si="0"/>
+        <v>45524</v>
+      </c>
+      <c r="Q22" s="27">
+        <f t="shared" ca="1" si="1"/>
+        <v>45524.194956134263</v>
+      </c>
+      <c r="R22" t="str">
+        <f>TEXT(Table3[[#This Row],[Order Date]],"mmm")</f>
+        <v>May</v>
+      </c>
+      <c r="S22" t="str">
+        <f>TEXT(Table3[[#This Row],[Order Date]],"mmmm")</f>
+        <v>May</v>
+      </c>
+      <c r="T22" t="str">
+        <f>TEXT(Table3[[#This Row],[Order Date]],"ddd")</f>
+        <v>Sun</v>
+      </c>
+      <c r="U22" t="str">
+        <f>TEXT(Table3[[#This Row],[Order Date]],"dddd")</f>
+        <v>Sunday</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>42869</v>
       </c>
@@ -6092,18 +7142,70 @@
         <v>810</v>
       </c>
       <c r="F23" s="25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>24300</v>
       </c>
       <c r="G23" s="21">
         <v>255.15</v>
       </c>
-      <c r="K23" s="26"/>
-      <c r="L23" s="26"/>
-      <c r="O23" s="26"/>
-      <c r="P23" s="27"/>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="H23">
+        <f>YEAR(Table3[[#This Row],[Order Date]])</f>
+        <v>2017</v>
+      </c>
+      <c r="I23">
+        <f>MONTH(Table3[[#This Row],[Order Date]])</f>
+        <v>5</v>
+      </c>
+      <c r="J23">
+        <f>DAY(Table3[[#This Row],[Order Date]])</f>
+        <v>14</v>
+      </c>
+      <c r="K23" s="26">
+        <f>DATE(Table3[[#This Row],[Year]]-1,Table3[[#This Row],[Month]],Table3[[#This Row],[Day]])</f>
+        <v>42504</v>
+      </c>
+      <c r="L23" s="26">
+        <f>DATE(Table3[[#This Row],[Year]],Table3[[#This Row],[Month]],0)</f>
+        <v>42855</v>
+      </c>
+      <c r="M23" s="26">
+        <f>EOMONTH(Table3[[#This Row],[Order Date]],0)</f>
+        <v>42886</v>
+      </c>
+      <c r="N23">
+        <f>WEEKDAY(Table3[[#This Row],[Order Date]],1)</f>
+        <v>1</v>
+      </c>
+      <c r="O23">
+        <f>WEEKNUM(Table3[[#This Row],[Order Date]],1)</f>
+        <v>20</v>
+      </c>
+      <c r="P23" s="26">
+        <f t="shared" ca="1" si="0"/>
+        <v>45524</v>
+      </c>
+      <c r="Q23" s="27">
+        <f t="shared" ca="1" si="1"/>
+        <v>45524.194956134263</v>
+      </c>
+      <c r="R23" t="str">
+        <f>TEXT(Table3[[#This Row],[Order Date]],"mmm")</f>
+        <v>May</v>
+      </c>
+      <c r="S23" t="str">
+        <f>TEXT(Table3[[#This Row],[Order Date]],"mmmm")</f>
+        <v>May</v>
+      </c>
+      <c r="T23" t="str">
+        <f>TEXT(Table3[[#This Row],[Order Date]],"ddd")</f>
+        <v>Sun</v>
+      </c>
+      <c r="U23" t="str">
+        <f>TEXT(Table3[[#This Row],[Order Date]],"dddd")</f>
+        <v>Sunday</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>42876</v>
       </c>
@@ -6120,18 +7222,70 @@
         <v>360</v>
       </c>
       <c r="F24" s="25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>4590</v>
       </c>
       <c r="G24" s="21">
         <v>45.441000000000003</v>
       </c>
-      <c r="K24" s="26"/>
-      <c r="L24" s="26"/>
-      <c r="O24" s="26"/>
-      <c r="P24" s="27"/>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="H24">
+        <f>YEAR(Table3[[#This Row],[Order Date]])</f>
+        <v>2017</v>
+      </c>
+      <c r="I24">
+        <f>MONTH(Table3[[#This Row],[Order Date]])</f>
+        <v>5</v>
+      </c>
+      <c r="J24">
+        <f>DAY(Table3[[#This Row],[Order Date]])</f>
+        <v>21</v>
+      </c>
+      <c r="K24" s="26">
+        <f>DATE(Table3[[#This Row],[Year]]-1,Table3[[#This Row],[Month]],Table3[[#This Row],[Day]])</f>
+        <v>42511</v>
+      </c>
+      <c r="L24" s="26">
+        <f>DATE(Table3[[#This Row],[Year]],Table3[[#This Row],[Month]],0)</f>
+        <v>42855</v>
+      </c>
+      <c r="M24" s="26">
+        <f>EOMONTH(Table3[[#This Row],[Order Date]],0)</f>
+        <v>42886</v>
+      </c>
+      <c r="N24">
+        <f>WEEKDAY(Table3[[#This Row],[Order Date]],1)</f>
+        <v>1</v>
+      </c>
+      <c r="O24">
+        <f>WEEKNUM(Table3[[#This Row],[Order Date]],1)</f>
+        <v>21</v>
+      </c>
+      <c r="P24" s="26">
+        <f t="shared" ca="1" si="0"/>
+        <v>45524</v>
+      </c>
+      <c r="Q24" s="27">
+        <f t="shared" ca="1" si="1"/>
+        <v>45524.194956134263</v>
+      </c>
+      <c r="R24" t="str">
+        <f>TEXT(Table3[[#This Row],[Order Date]],"mmm")</f>
+        <v>May</v>
+      </c>
+      <c r="S24" t="str">
+        <f>TEXT(Table3[[#This Row],[Order Date]],"mmmm")</f>
+        <v>May</v>
+      </c>
+      <c r="T24" t="str">
+        <f>TEXT(Table3[[#This Row],[Order Date]],"ddd")</f>
+        <v>Sun</v>
+      </c>
+      <c r="U24" t="str">
+        <f>TEXT(Table3[[#This Row],[Order Date]],"dddd")</f>
+        <v>Sunday</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>42883</v>
       </c>
@@ -6145,18 +7299,70 @@
         <v>0</v>
       </c>
       <c r="F25" s="25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G25" s="21">
         <v>34</v>
       </c>
-      <c r="K25" s="26"/>
-      <c r="L25" s="26"/>
-      <c r="O25" s="26"/>
-      <c r="P25" s="27"/>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="H25">
+        <f>YEAR(Table3[[#This Row],[Order Date]])</f>
+        <v>2017</v>
+      </c>
+      <c r="I25">
+        <f>MONTH(Table3[[#This Row],[Order Date]])</f>
+        <v>5</v>
+      </c>
+      <c r="J25">
+        <f>DAY(Table3[[#This Row],[Order Date]])</f>
+        <v>28</v>
+      </c>
+      <c r="K25" s="26">
+        <f>DATE(Table3[[#This Row],[Year]]-1,Table3[[#This Row],[Month]],Table3[[#This Row],[Day]])</f>
+        <v>42518</v>
+      </c>
+      <c r="L25" s="26">
+        <f>DATE(Table3[[#This Row],[Year]],Table3[[#This Row],[Month]],0)</f>
+        <v>42855</v>
+      </c>
+      <c r="M25" s="26">
+        <f>EOMONTH(Table3[[#This Row],[Order Date]],0)</f>
+        <v>42886</v>
+      </c>
+      <c r="N25">
+        <f>WEEKDAY(Table3[[#This Row],[Order Date]],1)</f>
+        <v>1</v>
+      </c>
+      <c r="O25">
+        <f>WEEKNUM(Table3[[#This Row],[Order Date]],1)</f>
+        <v>22</v>
+      </c>
+      <c r="P25" s="26">
+        <f t="shared" ca="1" si="0"/>
+        <v>45524</v>
+      </c>
+      <c r="Q25" s="27">
+        <f t="shared" ca="1" si="1"/>
+        <v>45524.194956134263</v>
+      </c>
+      <c r="R25" t="str">
+        <f>TEXT(Table3[[#This Row],[Order Date]],"mmm")</f>
+        <v>May</v>
+      </c>
+      <c r="S25" t="str">
+        <f>TEXT(Table3[[#This Row],[Order Date]],"mmmm")</f>
+        <v>May</v>
+      </c>
+      <c r="T25" t="str">
+        <f>TEXT(Table3[[#This Row],[Order Date]],"ddd")</f>
+        <v>Sun</v>
+      </c>
+      <c r="U25" t="str">
+        <f>TEXT(Table3[[#This Row],[Order Date]],"dddd")</f>
+        <v>Sunday</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>42890</v>
       </c>
@@ -6170,18 +7376,70 @@
         <v>0</v>
       </c>
       <c r="F26" s="25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G26" s="21">
         <v>33</v>
       </c>
-      <c r="K26" s="26"/>
-      <c r="L26" s="26"/>
-      <c r="O26" s="26"/>
-      <c r="P26" s="27"/>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="H26">
+        <f>YEAR(Table3[[#This Row],[Order Date]])</f>
+        <v>2017</v>
+      </c>
+      <c r="I26">
+        <f>MONTH(Table3[[#This Row],[Order Date]])</f>
+        <v>6</v>
+      </c>
+      <c r="J26">
+        <f>DAY(Table3[[#This Row],[Order Date]])</f>
+        <v>4</v>
+      </c>
+      <c r="K26" s="26">
+        <f>DATE(Table3[[#This Row],[Year]]-1,Table3[[#This Row],[Month]],Table3[[#This Row],[Day]])</f>
+        <v>42525</v>
+      </c>
+      <c r="L26" s="26">
+        <f>DATE(Table3[[#This Row],[Year]],Table3[[#This Row],[Month]],0)</f>
+        <v>42886</v>
+      </c>
+      <c r="M26" s="26">
+        <f>EOMONTH(Table3[[#This Row],[Order Date]],0)</f>
+        <v>42916</v>
+      </c>
+      <c r="N26">
+        <f>WEEKDAY(Table3[[#This Row],[Order Date]],1)</f>
+        <v>1</v>
+      </c>
+      <c r="O26">
+        <f>WEEKNUM(Table3[[#This Row],[Order Date]],1)</f>
+        <v>23</v>
+      </c>
+      <c r="P26" s="26">
+        <f t="shared" ca="1" si="0"/>
+        <v>45524</v>
+      </c>
+      <c r="Q26" s="27">
+        <f t="shared" ca="1" si="1"/>
+        <v>45524.194956134263</v>
+      </c>
+      <c r="R26" t="str">
+        <f>TEXT(Table3[[#This Row],[Order Date]],"mmm")</f>
+        <v>Jun</v>
+      </c>
+      <c r="S26" t="str">
+        <f>TEXT(Table3[[#This Row],[Order Date]],"mmmm")</f>
+        <v>June</v>
+      </c>
+      <c r="T26" t="str">
+        <f>TEXT(Table3[[#This Row],[Order Date]],"ddd")</f>
+        <v>Sun</v>
+      </c>
+      <c r="U26" t="str">
+        <f>TEXT(Table3[[#This Row],[Order Date]],"dddd")</f>
+        <v>Sunday</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>42897</v>
       </c>
@@ -6198,18 +7456,70 @@
         <v>410</v>
       </c>
       <c r="F27" s="25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>15990</v>
       </c>
       <c r="G27" s="21">
         <v>193.01100000000002</v>
       </c>
-      <c r="K27" s="26"/>
-      <c r="L27" s="26"/>
-      <c r="O27" s="26"/>
-      <c r="P27" s="27"/>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="H27">
+        <f>YEAR(Table3[[#This Row],[Order Date]])</f>
+        <v>2017</v>
+      </c>
+      <c r="I27">
+        <f>MONTH(Table3[[#This Row],[Order Date]])</f>
+        <v>6</v>
+      </c>
+      <c r="J27">
+        <f>DAY(Table3[[#This Row],[Order Date]])</f>
+        <v>11</v>
+      </c>
+      <c r="K27" s="26">
+        <f>DATE(Table3[[#This Row],[Year]]-1,Table3[[#This Row],[Month]],Table3[[#This Row],[Day]])</f>
+        <v>42532</v>
+      </c>
+      <c r="L27" s="26">
+        <f>DATE(Table3[[#This Row],[Year]],Table3[[#This Row],[Month]],0)</f>
+        <v>42886</v>
+      </c>
+      <c r="M27" s="26">
+        <f>EOMONTH(Table3[[#This Row],[Order Date]],0)</f>
+        <v>42916</v>
+      </c>
+      <c r="N27">
+        <f>WEEKDAY(Table3[[#This Row],[Order Date]],1)</f>
+        <v>1</v>
+      </c>
+      <c r="O27">
+        <f>WEEKNUM(Table3[[#This Row],[Order Date]],1)</f>
+        <v>24</v>
+      </c>
+      <c r="P27" s="26">
+        <f t="shared" ca="1" si="0"/>
+        <v>45524</v>
+      </c>
+      <c r="Q27" s="27">
+        <f t="shared" ca="1" si="1"/>
+        <v>45524.194956134263</v>
+      </c>
+      <c r="R27" t="str">
+        <f>TEXT(Table3[[#This Row],[Order Date]],"mmm")</f>
+        <v>Jun</v>
+      </c>
+      <c r="S27" t="str">
+        <f>TEXT(Table3[[#This Row],[Order Date]],"mmmm")</f>
+        <v>June</v>
+      </c>
+      <c r="T27" t="str">
+        <f>TEXT(Table3[[#This Row],[Order Date]],"ddd")</f>
+        <v>Sun</v>
+      </c>
+      <c r="U27" t="str">
+        <f>TEXT(Table3[[#This Row],[Order Date]],"dddd")</f>
+        <v>Sunday</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>42904</v>
       </c>
@@ -6226,18 +7536,70 @@
         <v>600</v>
       </c>
       <c r="F28" s="25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>5520</v>
       </c>
       <c r="G28" s="21">
         <v>56.856000000000002</v>
       </c>
-      <c r="K28" s="26"/>
-      <c r="L28" s="26"/>
-      <c r="O28" s="26"/>
-      <c r="P28" s="27"/>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="H28">
+        <f>YEAR(Table3[[#This Row],[Order Date]])</f>
+        <v>2017</v>
+      </c>
+      <c r="I28">
+        <f>MONTH(Table3[[#This Row],[Order Date]])</f>
+        <v>6</v>
+      </c>
+      <c r="J28">
+        <f>DAY(Table3[[#This Row],[Order Date]])</f>
+        <v>18</v>
+      </c>
+      <c r="K28" s="26">
+        <f>DATE(Table3[[#This Row],[Year]]-1,Table3[[#This Row],[Month]],Table3[[#This Row],[Day]])</f>
+        <v>42539</v>
+      </c>
+      <c r="L28" s="26">
+        <f>DATE(Table3[[#This Row],[Year]],Table3[[#This Row],[Month]],0)</f>
+        <v>42886</v>
+      </c>
+      <c r="M28" s="26">
+        <f>EOMONTH(Table3[[#This Row],[Order Date]],0)</f>
+        <v>42916</v>
+      </c>
+      <c r="N28">
+        <f>WEEKDAY(Table3[[#This Row],[Order Date]],1)</f>
+        <v>1</v>
+      </c>
+      <c r="O28">
+        <f>WEEKNUM(Table3[[#This Row],[Order Date]],1)</f>
+        <v>25</v>
+      </c>
+      <c r="P28" s="26">
+        <f t="shared" ca="1" si="0"/>
+        <v>45524</v>
+      </c>
+      <c r="Q28" s="27">
+        <f t="shared" ca="1" si="1"/>
+        <v>45524.194956134263</v>
+      </c>
+      <c r="R28" t="str">
+        <f>TEXT(Table3[[#This Row],[Order Date]],"mmm")</f>
+        <v>Jun</v>
+      </c>
+      <c r="S28" t="str">
+        <f>TEXT(Table3[[#This Row],[Order Date]],"mmmm")</f>
+        <v>June</v>
+      </c>
+      <c r="T28" t="str">
+        <f>TEXT(Table3[[#This Row],[Order Date]],"ddd")</f>
+        <v>Sun</v>
+      </c>
+      <c r="U28" t="str">
+        <f>TEXT(Table3[[#This Row],[Order Date]],"dddd")</f>
+        <v>Sunday</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>42911</v>
       </c>
@@ -6254,18 +7616,70 @@
         <v>810</v>
       </c>
       <c r="F29" s="25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>14580</v>
       </c>
       <c r="G29" s="21">
         <v>141.42600000000002</v>
       </c>
-      <c r="K29" s="26"/>
-      <c r="L29" s="26"/>
-      <c r="O29" s="26"/>
-      <c r="P29" s="27"/>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="H29">
+        <f>YEAR(Table3[[#This Row],[Order Date]])</f>
+        <v>2017</v>
+      </c>
+      <c r="I29">
+        <f>MONTH(Table3[[#This Row],[Order Date]])</f>
+        <v>6</v>
+      </c>
+      <c r="J29">
+        <f>DAY(Table3[[#This Row],[Order Date]])</f>
+        <v>25</v>
+      </c>
+      <c r="K29" s="26">
+        <f>DATE(Table3[[#This Row],[Year]]-1,Table3[[#This Row],[Month]],Table3[[#This Row],[Day]])</f>
+        <v>42546</v>
+      </c>
+      <c r="L29" s="26">
+        <f>DATE(Table3[[#This Row],[Year]],Table3[[#This Row],[Month]],0)</f>
+        <v>42886</v>
+      </c>
+      <c r="M29" s="26">
+        <f>EOMONTH(Table3[[#This Row],[Order Date]],0)</f>
+        <v>42916</v>
+      </c>
+      <c r="N29">
+        <f>WEEKDAY(Table3[[#This Row],[Order Date]],1)</f>
+        <v>1</v>
+      </c>
+      <c r="O29">
+        <f>WEEKNUM(Table3[[#This Row],[Order Date]],1)</f>
+        <v>26</v>
+      </c>
+      <c r="P29" s="26">
+        <f t="shared" ca="1" si="0"/>
+        <v>45524</v>
+      </c>
+      <c r="Q29" s="27">
+        <f t="shared" ca="1" si="1"/>
+        <v>45524.194956134263</v>
+      </c>
+      <c r="R29" t="str">
+        <f>TEXT(Table3[[#This Row],[Order Date]],"mmm")</f>
+        <v>Jun</v>
+      </c>
+      <c r="S29" t="str">
+        <f>TEXT(Table3[[#This Row],[Order Date]],"mmmm")</f>
+        <v>June</v>
+      </c>
+      <c r="T29" t="str">
+        <f>TEXT(Table3[[#This Row],[Order Date]],"ddd")</f>
+        <v>Sun</v>
+      </c>
+      <c r="U29" t="str">
+        <f>TEXT(Table3[[#This Row],[Order Date]],"dddd")</f>
+        <v>Sunday</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>42918</v>
       </c>
@@ -6282,18 +7696,70 @@
         <v>850</v>
       </c>
       <c r="F30" s="25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>11900</v>
       </c>
       <c r="G30" s="21">
         <v>115.42999999999999</v>
       </c>
-      <c r="K30" s="26"/>
-      <c r="L30" s="26"/>
-      <c r="O30" s="26"/>
-      <c r="P30" s="27"/>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="H30">
+        <f>YEAR(Table3[[#This Row],[Order Date]])</f>
+        <v>2017</v>
+      </c>
+      <c r="I30">
+        <f>MONTH(Table3[[#This Row],[Order Date]])</f>
+        <v>7</v>
+      </c>
+      <c r="J30">
+        <f>DAY(Table3[[#This Row],[Order Date]])</f>
+        <v>2</v>
+      </c>
+      <c r="K30" s="26">
+        <f>DATE(Table3[[#This Row],[Year]]-1,Table3[[#This Row],[Month]],Table3[[#This Row],[Day]])</f>
+        <v>42553</v>
+      </c>
+      <c r="L30" s="26">
+        <f>DATE(Table3[[#This Row],[Year]],Table3[[#This Row],[Month]],0)</f>
+        <v>42916</v>
+      </c>
+      <c r="M30" s="26">
+        <f>EOMONTH(Table3[[#This Row],[Order Date]],0)</f>
+        <v>42947</v>
+      </c>
+      <c r="N30">
+        <f>WEEKDAY(Table3[[#This Row],[Order Date]],1)</f>
+        <v>1</v>
+      </c>
+      <c r="O30">
+        <f>WEEKNUM(Table3[[#This Row],[Order Date]],1)</f>
+        <v>27</v>
+      </c>
+      <c r="P30" s="26">
+        <f t="shared" ca="1" si="0"/>
+        <v>45524</v>
+      </c>
+      <c r="Q30" s="27">
+        <f t="shared" ca="1" si="1"/>
+        <v>45524.194956250001</v>
+      </c>
+      <c r="R30" t="str">
+        <f>TEXT(Table3[[#This Row],[Order Date]],"mmm")</f>
+        <v>Jul</v>
+      </c>
+      <c r="S30" t="str">
+        <f>TEXT(Table3[[#This Row],[Order Date]],"mmmm")</f>
+        <v>July</v>
+      </c>
+      <c r="T30" t="str">
+        <f>TEXT(Table3[[#This Row],[Order Date]],"ddd")</f>
+        <v>Sun</v>
+      </c>
+      <c r="U30" t="str">
+        <f>TEXT(Table3[[#This Row],[Order Date]],"dddd")</f>
+        <v>Sunday</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>42925</v>
       </c>
@@ -6310,18 +7776,70 @@
         <v>840</v>
       </c>
       <c r="F31" s="25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>21000</v>
       </c>
       <c r="G31" s="21">
         <v>220.5</v>
       </c>
-      <c r="K31" s="26"/>
-      <c r="L31" s="26"/>
-      <c r="O31" s="26"/>
-      <c r="P31" s="27"/>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="H31">
+        <f>YEAR(Table3[[#This Row],[Order Date]])</f>
+        <v>2017</v>
+      </c>
+      <c r="I31">
+        <f>MONTH(Table3[[#This Row],[Order Date]])</f>
+        <v>7</v>
+      </c>
+      <c r="J31">
+        <f>DAY(Table3[[#This Row],[Order Date]])</f>
+        <v>9</v>
+      </c>
+      <c r="K31" s="26">
+        <f>DATE(Table3[[#This Row],[Year]]-1,Table3[[#This Row],[Month]],Table3[[#This Row],[Day]])</f>
+        <v>42560</v>
+      </c>
+      <c r="L31" s="26">
+        <f>DATE(Table3[[#This Row],[Year]],Table3[[#This Row],[Month]],0)</f>
+        <v>42916</v>
+      </c>
+      <c r="M31" s="26">
+        <f>EOMONTH(Table3[[#This Row],[Order Date]],0)</f>
+        <v>42947</v>
+      </c>
+      <c r="N31">
+        <f>WEEKDAY(Table3[[#This Row],[Order Date]],1)</f>
+        <v>1</v>
+      </c>
+      <c r="O31">
+        <f>WEEKNUM(Table3[[#This Row],[Order Date]],1)</f>
+        <v>28</v>
+      </c>
+      <c r="P31" s="26">
+        <f t="shared" ca="1" si="0"/>
+        <v>45524</v>
+      </c>
+      <c r="Q31" s="27">
+        <f t="shared" ca="1" si="1"/>
+        <v>45524.194956134263</v>
+      </c>
+      <c r="R31" t="str">
+        <f>TEXT(Table3[[#This Row],[Order Date]],"mmm")</f>
+        <v>Jul</v>
+      </c>
+      <c r="S31" t="str">
+        <f>TEXT(Table3[[#This Row],[Order Date]],"mmmm")</f>
+        <v>July</v>
+      </c>
+      <c r="T31" t="str">
+        <f>TEXT(Table3[[#This Row],[Order Date]],"ddd")</f>
+        <v>Sun</v>
+      </c>
+      <c r="U31" t="str">
+        <f>TEXT(Table3[[#This Row],[Order Date]],"dddd")</f>
+        <v>Sunday</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>42932</v>
       </c>
@@ -6338,18 +7856,70 @@
         <v>990</v>
       </c>
       <c r="F32" s="25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>9900</v>
       </c>
       <c r="G32" s="21">
         <v>99</v>
       </c>
-      <c r="K32" s="26"/>
-      <c r="L32" s="26"/>
-      <c r="O32" s="26"/>
-      <c r="P32" s="27"/>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="H32">
+        <f>YEAR(Table3[[#This Row],[Order Date]])</f>
+        <v>2017</v>
+      </c>
+      <c r="I32">
+        <f>MONTH(Table3[[#This Row],[Order Date]])</f>
+        <v>7</v>
+      </c>
+      <c r="J32">
+        <f>DAY(Table3[[#This Row],[Order Date]])</f>
+        <v>16</v>
+      </c>
+      <c r="K32" s="26">
+        <f>DATE(Table3[[#This Row],[Year]]-1,Table3[[#This Row],[Month]],Table3[[#This Row],[Day]])</f>
+        <v>42567</v>
+      </c>
+      <c r="L32" s="26">
+        <f>DATE(Table3[[#This Row],[Year]],Table3[[#This Row],[Month]],0)</f>
+        <v>42916</v>
+      </c>
+      <c r="M32" s="26">
+        <f>EOMONTH(Table3[[#This Row],[Order Date]],0)</f>
+        <v>42947</v>
+      </c>
+      <c r="N32">
+        <f>WEEKDAY(Table3[[#This Row],[Order Date]],1)</f>
+        <v>1</v>
+      </c>
+      <c r="O32">
+        <f>WEEKNUM(Table3[[#This Row],[Order Date]],1)</f>
+        <v>29</v>
+      </c>
+      <c r="P32" s="26">
+        <f t="shared" ca="1" si="0"/>
+        <v>45524</v>
+      </c>
+      <c r="Q32" s="27">
+        <f t="shared" ca="1" si="1"/>
+        <v>45524.194956134263</v>
+      </c>
+      <c r="R32" t="str">
+        <f>TEXT(Table3[[#This Row],[Order Date]],"mmm")</f>
+        <v>Jul</v>
+      </c>
+      <c r="S32" t="str">
+        <f>TEXT(Table3[[#This Row],[Order Date]],"mmmm")</f>
+        <v>July</v>
+      </c>
+      <c r="T32" t="str">
+        <f>TEXT(Table3[[#This Row],[Order Date]],"ddd")</f>
+        <v>Sun</v>
+      </c>
+      <c r="U32" t="str">
+        <f>TEXT(Table3[[#This Row],[Order Date]],"dddd")</f>
+        <v>Sunday</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>42939</v>
       </c>
@@ -6366,18 +7936,70 @@
         <v>410</v>
       </c>
       <c r="F33" s="25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>5227.5</v>
       </c>
       <c r="G33" s="21">
         <v>43.783500000000004</v>
       </c>
-      <c r="K33" s="26"/>
-      <c r="L33" s="26"/>
-      <c r="O33" s="26"/>
-      <c r="P33" s="27"/>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="H33">
+        <f>YEAR(Table3[[#This Row],[Order Date]])</f>
+        <v>2017</v>
+      </c>
+      <c r="I33">
+        <f>MONTH(Table3[[#This Row],[Order Date]])</f>
+        <v>7</v>
+      </c>
+      <c r="J33">
+        <f>DAY(Table3[[#This Row],[Order Date]])</f>
+        <v>23</v>
+      </c>
+      <c r="K33" s="26">
+        <f>DATE(Table3[[#This Row],[Year]]-1,Table3[[#This Row],[Month]],Table3[[#This Row],[Day]])</f>
+        <v>42574</v>
+      </c>
+      <c r="L33" s="26">
+        <f>DATE(Table3[[#This Row],[Year]],Table3[[#This Row],[Month]],0)</f>
+        <v>42916</v>
+      </c>
+      <c r="M33" s="26">
+        <f>EOMONTH(Table3[[#This Row],[Order Date]],0)</f>
+        <v>42947</v>
+      </c>
+      <c r="N33">
+        <f>WEEKDAY(Table3[[#This Row],[Order Date]],1)</f>
+        <v>1</v>
+      </c>
+      <c r="O33">
+        <f>WEEKNUM(Table3[[#This Row],[Order Date]],1)</f>
+        <v>30</v>
+      </c>
+      <c r="P33" s="26">
+        <f t="shared" ca="1" si="0"/>
+        <v>45524</v>
+      </c>
+      <c r="Q33" s="27">
+        <f t="shared" ca="1" si="1"/>
+        <v>45524.194956134263</v>
+      </c>
+      <c r="R33" t="str">
+        <f>TEXT(Table3[[#This Row],[Order Date]],"mmm")</f>
+        <v>Jul</v>
+      </c>
+      <c r="S33" t="str">
+        <f>TEXT(Table3[[#This Row],[Order Date]],"mmmm")</f>
+        <v>July</v>
+      </c>
+      <c r="T33" t="str">
+        <f>TEXT(Table3[[#This Row],[Order Date]],"ddd")</f>
+        <v>Sun</v>
+      </c>
+      <c r="U33" t="str">
+        <f>TEXT(Table3[[#This Row],[Order Date]],"dddd")</f>
+        <v>Sunday</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>42946</v>
       </c>
@@ -6394,18 +8016,70 @@
         <v>240</v>
       </c>
       <c r="F34" s="25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>6000</v>
       </c>
       <c r="G34" s="21">
         <v>164.15</v>
       </c>
-      <c r="K34" s="26"/>
-      <c r="L34" s="26"/>
-      <c r="O34" s="26"/>
-      <c r="P34" s="27"/>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="H34">
+        <f>YEAR(Table3[[#This Row],[Order Date]])</f>
+        <v>2017</v>
+      </c>
+      <c r="I34">
+        <f>MONTH(Table3[[#This Row],[Order Date]])</f>
+        <v>7</v>
+      </c>
+      <c r="J34">
+        <f>DAY(Table3[[#This Row],[Order Date]])</f>
+        <v>30</v>
+      </c>
+      <c r="K34" s="26">
+        <f>DATE(Table3[[#This Row],[Year]]-1,Table3[[#This Row],[Month]],Table3[[#This Row],[Day]])</f>
+        <v>42581</v>
+      </c>
+      <c r="L34" s="26">
+        <f>DATE(Table3[[#This Row],[Year]],Table3[[#This Row],[Month]],0)</f>
+        <v>42916</v>
+      </c>
+      <c r="M34" s="26">
+        <f>EOMONTH(Table3[[#This Row],[Order Date]],0)</f>
+        <v>42947</v>
+      </c>
+      <c r="N34">
+        <f>WEEKDAY(Table3[[#This Row],[Order Date]],1)</f>
+        <v>1</v>
+      </c>
+      <c r="O34">
+        <f>WEEKNUM(Table3[[#This Row],[Order Date]],1)</f>
+        <v>31</v>
+      </c>
+      <c r="P34" s="26">
+        <f t="shared" ca="1" si="0"/>
+        <v>45524</v>
+      </c>
+      <c r="Q34" s="27">
+        <f t="shared" ca="1" si="1"/>
+        <v>45524.194956134263</v>
+      </c>
+      <c r="R34" t="str">
+        <f>TEXT(Table3[[#This Row],[Order Date]],"mmm")</f>
+        <v>Jul</v>
+      </c>
+      <c r="S34" t="str">
+        <f>TEXT(Table3[[#This Row],[Order Date]],"mmmm")</f>
+        <v>July</v>
+      </c>
+      <c r="T34" t="str">
+        <f>TEXT(Table3[[#This Row],[Order Date]],"ddd")</f>
+        <v>Sun</v>
+      </c>
+      <c r="U34" t="str">
+        <f>TEXT(Table3[[#This Row],[Order Date]],"dddd")</f>
+        <v>Sunday</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>42953</v>
       </c>
@@ -6422,18 +8096,70 @@
         <v>290</v>
       </c>
       <c r="F35" s="25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>11600</v>
       </c>
       <c r="G35" s="21">
         <v>239.12</v>
       </c>
-      <c r="K35" s="26"/>
-      <c r="L35" s="26"/>
-      <c r="O35" s="26"/>
-      <c r="P35" s="27"/>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="H35">
+        <f>YEAR(Table3[[#This Row],[Order Date]])</f>
+        <v>2017</v>
+      </c>
+      <c r="I35">
+        <f>MONTH(Table3[[#This Row],[Order Date]])</f>
+        <v>8</v>
+      </c>
+      <c r="J35">
+        <f>DAY(Table3[[#This Row],[Order Date]])</f>
+        <v>6</v>
+      </c>
+      <c r="K35" s="26">
+        <f>DATE(Table3[[#This Row],[Year]]-1,Table3[[#This Row],[Month]],Table3[[#This Row],[Day]])</f>
+        <v>42588</v>
+      </c>
+      <c r="L35" s="26">
+        <f>DATE(Table3[[#This Row],[Year]],Table3[[#This Row],[Month]],0)</f>
+        <v>42947</v>
+      </c>
+      <c r="M35" s="26">
+        <f>EOMONTH(Table3[[#This Row],[Order Date]],0)</f>
+        <v>42978</v>
+      </c>
+      <c r="N35">
+        <f>WEEKDAY(Table3[[#This Row],[Order Date]],1)</f>
+        <v>1</v>
+      </c>
+      <c r="O35">
+        <f>WEEKNUM(Table3[[#This Row],[Order Date]],1)</f>
+        <v>32</v>
+      </c>
+      <c r="P35" s="26">
+        <f t="shared" ca="1" si="0"/>
+        <v>45524</v>
+      </c>
+      <c r="Q35" s="27">
+        <f t="shared" ca="1" si="1"/>
+        <v>45524.194956134263</v>
+      </c>
+      <c r="R35" t="str">
+        <f>TEXT(Table3[[#This Row],[Order Date]],"mmm")</f>
+        <v>Aug</v>
+      </c>
+      <c r="S35" t="str">
+        <f>TEXT(Table3[[#This Row],[Order Date]],"mmmm")</f>
+        <v>August</v>
+      </c>
+      <c r="T35" t="str">
+        <f>TEXT(Table3[[#This Row],[Order Date]],"ddd")</f>
+        <v>Sun</v>
+      </c>
+      <c r="U35" t="str">
+        <f>TEXT(Table3[[#This Row],[Order Date]],"dddd")</f>
+        <v>Sunday</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>42960</v>
       </c>
@@ -6450,18 +8176,70 @@
         <v>170</v>
       </c>
       <c r="F36" s="25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>508.3</v>
       </c>
       <c r="G36" s="21">
         <v>5.1338300000000014</v>
       </c>
-      <c r="K36" s="26"/>
-      <c r="L36" s="26"/>
-      <c r="O36" s="26"/>
-      <c r="P36" s="27"/>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="H36">
+        <f>YEAR(Table3[[#This Row],[Order Date]])</f>
+        <v>2017</v>
+      </c>
+      <c r="I36">
+        <f>MONTH(Table3[[#This Row],[Order Date]])</f>
+        <v>8</v>
+      </c>
+      <c r="J36">
+        <f>DAY(Table3[[#This Row],[Order Date]])</f>
+        <v>13</v>
+      </c>
+      <c r="K36" s="26">
+        <f>DATE(Table3[[#This Row],[Year]]-1,Table3[[#This Row],[Month]],Table3[[#This Row],[Day]])</f>
+        <v>42595</v>
+      </c>
+      <c r="L36" s="26">
+        <f>DATE(Table3[[#This Row],[Year]],Table3[[#This Row],[Month]],0)</f>
+        <v>42947</v>
+      </c>
+      <c r="M36" s="26">
+        <f>EOMONTH(Table3[[#This Row],[Order Date]],0)</f>
+        <v>42978</v>
+      </c>
+      <c r="N36">
+        <f>WEEKDAY(Table3[[#This Row],[Order Date]],1)</f>
+        <v>1</v>
+      </c>
+      <c r="O36">
+        <f>WEEKNUM(Table3[[#This Row],[Order Date]],1)</f>
+        <v>33</v>
+      </c>
+      <c r="P36" s="26">
+        <f t="shared" ref="P36:P67" ca="1" si="3">TODAY()</f>
+        <v>45524</v>
+      </c>
+      <c r="Q36" s="27">
+        <f t="shared" ref="Q36:Q67" ca="1" si="4">NOW()</f>
+        <v>45524.194956134263</v>
+      </c>
+      <c r="R36" t="str">
+        <f>TEXT(Table3[[#This Row],[Order Date]],"mmm")</f>
+        <v>Aug</v>
+      </c>
+      <c r="S36" t="str">
+        <f>TEXT(Table3[[#This Row],[Order Date]],"mmmm")</f>
+        <v>August</v>
+      </c>
+      <c r="T36" t="str">
+        <f>TEXT(Table3[[#This Row],[Order Date]],"ddd")</f>
+        <v>Sun</v>
+      </c>
+      <c r="U36" t="str">
+        <f>TEXT(Table3[[#This Row],[Order Date]],"dddd")</f>
+        <v>Sunday</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>42967</v>
       </c>
@@ -6475,18 +8253,70 @@
         <v>0</v>
       </c>
       <c r="F37" s="25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G37" s="21">
         <v>31</v>
       </c>
-      <c r="K37" s="26"/>
-      <c r="L37" s="26"/>
-      <c r="O37" s="26"/>
-      <c r="P37" s="27"/>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="H37">
+        <f>YEAR(Table3[[#This Row],[Order Date]])</f>
+        <v>2017</v>
+      </c>
+      <c r="I37">
+        <f>MONTH(Table3[[#This Row],[Order Date]])</f>
+        <v>8</v>
+      </c>
+      <c r="J37">
+        <f>DAY(Table3[[#This Row],[Order Date]])</f>
+        <v>20</v>
+      </c>
+      <c r="K37" s="26">
+        <f>DATE(Table3[[#This Row],[Year]]-1,Table3[[#This Row],[Month]],Table3[[#This Row],[Day]])</f>
+        <v>42602</v>
+      </c>
+      <c r="L37" s="26">
+        <f>DATE(Table3[[#This Row],[Year]],Table3[[#This Row],[Month]],0)</f>
+        <v>42947</v>
+      </c>
+      <c r="M37" s="26">
+        <f>EOMONTH(Table3[[#This Row],[Order Date]],0)</f>
+        <v>42978</v>
+      </c>
+      <c r="N37">
+        <f>WEEKDAY(Table3[[#This Row],[Order Date]],1)</f>
+        <v>1</v>
+      </c>
+      <c r="O37">
+        <f>WEEKNUM(Table3[[#This Row],[Order Date]],1)</f>
+        <v>34</v>
+      </c>
+      <c r="P37" s="26">
+        <f t="shared" ca="1" si="3"/>
+        <v>45524</v>
+      </c>
+      <c r="Q37" s="27">
+        <f t="shared" ca="1" si="4"/>
+        <v>45524.194956134263</v>
+      </c>
+      <c r="R37" t="str">
+        <f>TEXT(Table3[[#This Row],[Order Date]],"mmm")</f>
+        <v>Aug</v>
+      </c>
+      <c r="S37" t="str">
+        <f>TEXT(Table3[[#This Row],[Order Date]],"mmmm")</f>
+        <v>August</v>
+      </c>
+      <c r="T37" t="str">
+        <f>TEXT(Table3[[#This Row],[Order Date]],"ddd")</f>
+        <v>Sun</v>
+      </c>
+      <c r="U37" t="str">
+        <f>TEXT(Table3[[#This Row],[Order Date]],"dddd")</f>
+        <v>Sunday</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>42974</v>
       </c>
@@ -6503,18 +8333,70 @@
         <v>470</v>
       </c>
       <c r="F38" s="25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1645</v>
       </c>
       <c r="G38" s="21">
         <v>16.6145</v>
       </c>
-      <c r="K38" s="26"/>
-      <c r="L38" s="26"/>
-      <c r="O38" s="26"/>
-      <c r="P38" s="27"/>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="H38">
+        <f>YEAR(Table3[[#This Row],[Order Date]])</f>
+        <v>2017</v>
+      </c>
+      <c r="I38">
+        <f>MONTH(Table3[[#This Row],[Order Date]])</f>
+        <v>8</v>
+      </c>
+      <c r="J38">
+        <f>DAY(Table3[[#This Row],[Order Date]])</f>
+        <v>27</v>
+      </c>
+      <c r="K38" s="26">
+        <f>DATE(Table3[[#This Row],[Year]]-1,Table3[[#This Row],[Month]],Table3[[#This Row],[Day]])</f>
+        <v>42609</v>
+      </c>
+      <c r="L38" s="26">
+        <f>DATE(Table3[[#This Row],[Year]],Table3[[#This Row],[Month]],0)</f>
+        <v>42947</v>
+      </c>
+      <c r="M38" s="26">
+        <f>EOMONTH(Table3[[#This Row],[Order Date]],0)</f>
+        <v>42978</v>
+      </c>
+      <c r="N38">
+        <f>WEEKDAY(Table3[[#This Row],[Order Date]],1)</f>
+        <v>1</v>
+      </c>
+      <c r="O38">
+        <f>WEEKNUM(Table3[[#This Row],[Order Date]],1)</f>
+        <v>35</v>
+      </c>
+      <c r="P38" s="26">
+        <f t="shared" ca="1" si="3"/>
+        <v>45524</v>
+      </c>
+      <c r="Q38" s="27">
+        <f t="shared" ca="1" si="4"/>
+        <v>45524.194956250001</v>
+      </c>
+      <c r="R38" t="str">
+        <f>TEXT(Table3[[#This Row],[Order Date]],"mmm")</f>
+        <v>Aug</v>
+      </c>
+      <c r="S38" t="str">
+        <f>TEXT(Table3[[#This Row],[Order Date]],"mmmm")</f>
+        <v>August</v>
+      </c>
+      <c r="T38" t="str">
+        <f>TEXT(Table3[[#This Row],[Order Date]],"ddd")</f>
+        <v>Sun</v>
+      </c>
+      <c r="U38" t="str">
+        <f>TEXT(Table3[[#This Row],[Order Date]],"dddd")</f>
+        <v>Sunday</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>42981</v>
       </c>
@@ -6531,18 +8413,70 @@
         <v>230</v>
       </c>
       <c r="F39" s="25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2932.5</v>
       </c>
       <c r="G39" s="21">
         <v>29.325000000000003</v>
       </c>
-      <c r="K39" s="26"/>
-      <c r="L39" s="26"/>
-      <c r="O39" s="26"/>
-      <c r="P39" s="27"/>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="H39">
+        <f>YEAR(Table3[[#This Row],[Order Date]])</f>
+        <v>2017</v>
+      </c>
+      <c r="I39">
+        <f>MONTH(Table3[[#This Row],[Order Date]])</f>
+        <v>9</v>
+      </c>
+      <c r="J39">
+        <f>DAY(Table3[[#This Row],[Order Date]])</f>
+        <v>3</v>
+      </c>
+      <c r="K39" s="26">
+        <f>DATE(Table3[[#This Row],[Year]]-1,Table3[[#This Row],[Month]],Table3[[#This Row],[Day]])</f>
+        <v>42616</v>
+      </c>
+      <c r="L39" s="26">
+        <f>DATE(Table3[[#This Row],[Year]],Table3[[#This Row],[Month]],0)</f>
+        <v>42978</v>
+      </c>
+      <c r="M39" s="26">
+        <f>EOMONTH(Table3[[#This Row],[Order Date]],0)</f>
+        <v>43008</v>
+      </c>
+      <c r="N39">
+        <f>WEEKDAY(Table3[[#This Row],[Order Date]],1)</f>
+        <v>1</v>
+      </c>
+      <c r="O39">
+        <f>WEEKNUM(Table3[[#This Row],[Order Date]],1)</f>
+        <v>36</v>
+      </c>
+      <c r="P39" s="26">
+        <f t="shared" ca="1" si="3"/>
+        <v>45524</v>
+      </c>
+      <c r="Q39" s="27">
+        <f t="shared" ca="1" si="4"/>
+        <v>45524.194956134263</v>
+      </c>
+      <c r="R39" t="str">
+        <f>TEXT(Table3[[#This Row],[Order Date]],"mmm")</f>
+        <v>Sep</v>
+      </c>
+      <c r="S39" t="str">
+        <f>TEXT(Table3[[#This Row],[Order Date]],"mmmm")</f>
+        <v>September</v>
+      </c>
+      <c r="T39" t="str">
+        <f>TEXT(Table3[[#This Row],[Order Date]],"ddd")</f>
+        <v>Sun</v>
+      </c>
+      <c r="U39" t="str">
+        <f>TEXT(Table3[[#This Row],[Order Date]],"dddd")</f>
+        <v>Sunday</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>42988</v>
       </c>
@@ -6559,18 +8493,70 @@
         <v>670</v>
       </c>
       <c r="F40" s="25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>8542.5</v>
       </c>
       <c r="G40" s="21">
         <v>82.875</v>
       </c>
-      <c r="K40" s="26"/>
-      <c r="L40" s="26"/>
-      <c r="O40" s="26"/>
-      <c r="P40" s="27"/>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="H40">
+        <f>YEAR(Table3[[#This Row],[Order Date]])</f>
+        <v>2017</v>
+      </c>
+      <c r="I40">
+        <f>MONTH(Table3[[#This Row],[Order Date]])</f>
+        <v>9</v>
+      </c>
+      <c r="J40">
+        <f>DAY(Table3[[#This Row],[Order Date]])</f>
+        <v>10</v>
+      </c>
+      <c r="K40" s="26">
+        <f>DATE(Table3[[#This Row],[Year]]-1,Table3[[#This Row],[Month]],Table3[[#This Row],[Day]])</f>
+        <v>42623</v>
+      </c>
+      <c r="L40" s="26">
+        <f>DATE(Table3[[#This Row],[Year]],Table3[[#This Row],[Month]],0)</f>
+        <v>42978</v>
+      </c>
+      <c r="M40" s="26">
+        <f>EOMONTH(Table3[[#This Row],[Order Date]],0)</f>
+        <v>43008</v>
+      </c>
+      <c r="N40">
+        <f>WEEKDAY(Table3[[#This Row],[Order Date]],1)</f>
+        <v>1</v>
+      </c>
+      <c r="O40">
+        <f>WEEKNUM(Table3[[#This Row],[Order Date]],1)</f>
+        <v>37</v>
+      </c>
+      <c r="P40" s="26">
+        <f t="shared" ca="1" si="3"/>
+        <v>45524</v>
+      </c>
+      <c r="Q40" s="27">
+        <f t="shared" ca="1" si="4"/>
+        <v>45524.194956250001</v>
+      </c>
+      <c r="R40" t="str">
+        <f>TEXT(Table3[[#This Row],[Order Date]],"mmm")</f>
+        <v>Sep</v>
+      </c>
+      <c r="S40" t="str">
+        <f>TEXT(Table3[[#This Row],[Order Date]],"mmmm")</f>
+        <v>September</v>
+      </c>
+      <c r="T40" t="str">
+        <f>TEXT(Table3[[#This Row],[Order Date]],"ddd")</f>
+        <v>Sun</v>
+      </c>
+      <c r="U40" t="str">
+        <f>TEXT(Table3[[#This Row],[Order Date]],"dddd")</f>
+        <v>Sunday</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>42995</v>
       </c>
@@ -6587,18 +8573,70 @@
         <v>440</v>
       </c>
       <c r="F41" s="25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>20240</v>
       </c>
       <c r="G41" s="21">
         <v>198.352</v>
       </c>
-      <c r="K41" s="26"/>
-      <c r="L41" s="26"/>
-      <c r="O41" s="26"/>
-      <c r="P41" s="27"/>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="H41">
+        <f>YEAR(Table3[[#This Row],[Order Date]])</f>
+        <v>2017</v>
+      </c>
+      <c r="I41">
+        <f>MONTH(Table3[[#This Row],[Order Date]])</f>
+        <v>9</v>
+      </c>
+      <c r="J41">
+        <f>DAY(Table3[[#This Row],[Order Date]])</f>
+        <v>17</v>
+      </c>
+      <c r="K41" s="26">
+        <f>DATE(Table3[[#This Row],[Year]]-1,Table3[[#This Row],[Month]],Table3[[#This Row],[Day]])</f>
+        <v>42630</v>
+      </c>
+      <c r="L41" s="26">
+        <f>DATE(Table3[[#This Row],[Year]],Table3[[#This Row],[Month]],0)</f>
+        <v>42978</v>
+      </c>
+      <c r="M41" s="26">
+        <f>EOMONTH(Table3[[#This Row],[Order Date]],0)</f>
+        <v>43008</v>
+      </c>
+      <c r="N41">
+        <f>WEEKDAY(Table3[[#This Row],[Order Date]],1)</f>
+        <v>1</v>
+      </c>
+      <c r="O41">
+        <f>WEEKNUM(Table3[[#This Row],[Order Date]],1)</f>
+        <v>38</v>
+      </c>
+      <c r="P41" s="26">
+        <f t="shared" ca="1" si="3"/>
+        <v>45524</v>
+      </c>
+      <c r="Q41" s="27">
+        <f t="shared" ca="1" si="4"/>
+        <v>45524.194956250001</v>
+      </c>
+      <c r="R41" t="str">
+        <f>TEXT(Table3[[#This Row],[Order Date]],"mmm")</f>
+        <v>Sep</v>
+      </c>
+      <c r="S41" t="str">
+        <f>TEXT(Table3[[#This Row],[Order Date]],"mmmm")</f>
+        <v>September</v>
+      </c>
+      <c r="T41" t="str">
+        <f>TEXT(Table3[[#This Row],[Order Date]],"ddd")</f>
+        <v>Sun</v>
+      </c>
+      <c r="U41" t="str">
+        <f>TEXT(Table3[[#This Row],[Order Date]],"dddd")</f>
+        <v>Sunday</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>43002</v>
       </c>
@@ -6615,18 +8653,70 @@
         <v>600</v>
       </c>
       <c r="F42" s="25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2100</v>
       </c>
       <c r="G42" s="21">
         <v>20.16</v>
       </c>
-      <c r="K42" s="26"/>
-      <c r="L42" s="26"/>
-      <c r="O42" s="26"/>
-      <c r="P42" s="27"/>
-    </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="H42">
+        <f>YEAR(Table3[[#This Row],[Order Date]])</f>
+        <v>2017</v>
+      </c>
+      <c r="I42">
+        <f>MONTH(Table3[[#This Row],[Order Date]])</f>
+        <v>9</v>
+      </c>
+      <c r="J42">
+        <f>DAY(Table3[[#This Row],[Order Date]])</f>
+        <v>24</v>
+      </c>
+      <c r="K42" s="26">
+        <f>DATE(Table3[[#This Row],[Year]]-1,Table3[[#This Row],[Month]],Table3[[#This Row],[Day]])</f>
+        <v>42637</v>
+      </c>
+      <c r="L42" s="26">
+        <f>DATE(Table3[[#This Row],[Year]],Table3[[#This Row],[Month]],0)</f>
+        <v>42978</v>
+      </c>
+      <c r="M42" s="26">
+        <f>EOMONTH(Table3[[#This Row],[Order Date]],0)</f>
+        <v>43008</v>
+      </c>
+      <c r="N42">
+        <f>WEEKDAY(Table3[[#This Row],[Order Date]],1)</f>
+        <v>1</v>
+      </c>
+      <c r="O42">
+        <f>WEEKNUM(Table3[[#This Row],[Order Date]],1)</f>
+        <v>39</v>
+      </c>
+      <c r="P42" s="26">
+        <f t="shared" ca="1" si="3"/>
+        <v>45524</v>
+      </c>
+      <c r="Q42" s="27">
+        <f t="shared" ca="1" si="4"/>
+        <v>45524.194956134263</v>
+      </c>
+      <c r="R42" t="str">
+        <f>TEXT(Table3[[#This Row],[Order Date]],"mmm")</f>
+        <v>Sep</v>
+      </c>
+      <c r="S42" t="str">
+        <f>TEXT(Table3[[#This Row],[Order Date]],"mmmm")</f>
+        <v>September</v>
+      </c>
+      <c r="T42" t="str">
+        <f>TEXT(Table3[[#This Row],[Order Date]],"ddd")</f>
+        <v>Sun</v>
+      </c>
+      <c r="U42" t="str">
+        <f>TEXT(Table3[[#This Row],[Order Date]],"dddd")</f>
+        <v>Sunday</v>
+      </c>
+    </row>
+    <row r="43" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>43009</v>
       </c>
@@ -6643,18 +8733,70 @@
         <v>490</v>
       </c>
       <c r="F43" s="25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>4900</v>
       </c>
       <c r="G43" s="21">
         <v>90.25</v>
       </c>
-      <c r="K43" s="26"/>
-      <c r="L43" s="26"/>
-      <c r="O43" s="26"/>
-      <c r="P43" s="27"/>
-    </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="H43">
+        <f>YEAR(Table3[[#This Row],[Order Date]])</f>
+        <v>2017</v>
+      </c>
+      <c r="I43">
+        <f>MONTH(Table3[[#This Row],[Order Date]])</f>
+        <v>10</v>
+      </c>
+      <c r="J43">
+        <f>DAY(Table3[[#This Row],[Order Date]])</f>
+        <v>1</v>
+      </c>
+      <c r="K43" s="26">
+        <f>DATE(Table3[[#This Row],[Year]]-1,Table3[[#This Row],[Month]],Table3[[#This Row],[Day]])</f>
+        <v>42644</v>
+      </c>
+      <c r="L43" s="26">
+        <f>DATE(Table3[[#This Row],[Year]],Table3[[#This Row],[Month]],0)</f>
+        <v>43008</v>
+      </c>
+      <c r="M43" s="26">
+        <f>EOMONTH(Table3[[#This Row],[Order Date]],0)</f>
+        <v>43039</v>
+      </c>
+      <c r="N43">
+        <f>WEEKDAY(Table3[[#This Row],[Order Date]],1)</f>
+        <v>1</v>
+      </c>
+      <c r="O43">
+        <f>WEEKNUM(Table3[[#This Row],[Order Date]],1)</f>
+        <v>40</v>
+      </c>
+      <c r="P43" s="26">
+        <f t="shared" ca="1" si="3"/>
+        <v>45524</v>
+      </c>
+      <c r="Q43" s="27">
+        <f t="shared" ca="1" si="4"/>
+        <v>45524.194956134263</v>
+      </c>
+      <c r="R43" t="str">
+        <f>TEXT(Table3[[#This Row],[Order Date]],"mmm")</f>
+        <v>Oct</v>
+      </c>
+      <c r="S43" t="str">
+        <f>TEXT(Table3[[#This Row],[Order Date]],"mmmm")</f>
+        <v>October</v>
+      </c>
+      <c r="T43" t="str">
+        <f>TEXT(Table3[[#This Row],[Order Date]],"ddd")</f>
+        <v>Sun</v>
+      </c>
+      <c r="U43" t="str">
+        <f>TEXT(Table3[[#This Row],[Order Date]],"dddd")</f>
+        <v>Sunday</v>
+      </c>
+    </row>
+    <row r="44" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>43016</v>
       </c>
@@ -6671,18 +8813,70 @@
         <v>330</v>
       </c>
       <c r="F44" s="25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>12540</v>
       </c>
       <c r="G44" s="21">
         <v>175.02800000000002</v>
       </c>
-      <c r="K44" s="26"/>
-      <c r="L44" s="26"/>
-      <c r="O44" s="26"/>
-      <c r="P44" s="27"/>
-    </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="H44">
+        <f>YEAR(Table3[[#This Row],[Order Date]])</f>
+        <v>2017</v>
+      </c>
+      <c r="I44">
+        <f>MONTH(Table3[[#This Row],[Order Date]])</f>
+        <v>10</v>
+      </c>
+      <c r="J44">
+        <f>DAY(Table3[[#This Row],[Order Date]])</f>
+        <v>8</v>
+      </c>
+      <c r="K44" s="26">
+        <f>DATE(Table3[[#This Row],[Year]]-1,Table3[[#This Row],[Month]],Table3[[#This Row],[Day]])</f>
+        <v>42651</v>
+      </c>
+      <c r="L44" s="26">
+        <f>DATE(Table3[[#This Row],[Year]],Table3[[#This Row],[Month]],0)</f>
+        <v>43008</v>
+      </c>
+      <c r="M44" s="26">
+        <f>EOMONTH(Table3[[#This Row],[Order Date]],0)</f>
+        <v>43039</v>
+      </c>
+      <c r="N44">
+        <f>WEEKDAY(Table3[[#This Row],[Order Date]],1)</f>
+        <v>1</v>
+      </c>
+      <c r="O44">
+        <f>WEEKNUM(Table3[[#This Row],[Order Date]],1)</f>
+        <v>41</v>
+      </c>
+      <c r="P44" s="26">
+        <f t="shared" ca="1" si="3"/>
+        <v>45524</v>
+      </c>
+      <c r="Q44" s="27">
+        <f t="shared" ca="1" si="4"/>
+        <v>45524.194956134263</v>
+      </c>
+      <c r="R44" t="str">
+        <f>TEXT(Table3[[#This Row],[Order Date]],"mmm")</f>
+        <v>Oct</v>
+      </c>
+      <c r="S44" t="str">
+        <f>TEXT(Table3[[#This Row],[Order Date]],"mmmm")</f>
+        <v>October</v>
+      </c>
+      <c r="T44" t="str">
+        <f>TEXT(Table3[[#This Row],[Order Date]],"ddd")</f>
+        <v>Sun</v>
+      </c>
+      <c r="U44" t="str">
+        <f>TEXT(Table3[[#This Row],[Order Date]],"dddd")</f>
+        <v>Sunday</v>
+      </c>
+    </row>
+    <row r="45" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>43023</v>
       </c>
@@ -6699,18 +8893,70 @@
         <v>680</v>
       </c>
       <c r="F45" s="25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>36040</v>
       </c>
       <c r="G45" s="21">
         <v>225.62100000000001</v>
       </c>
-      <c r="K45" s="26"/>
-      <c r="L45" s="26"/>
-      <c r="O45" s="26"/>
-      <c r="P45" s="27"/>
-    </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="H45">
+        <f>YEAR(Table3[[#This Row],[Order Date]])</f>
+        <v>2017</v>
+      </c>
+      <c r="I45">
+        <f>MONTH(Table3[[#This Row],[Order Date]])</f>
+        <v>10</v>
+      </c>
+      <c r="J45">
+        <f>DAY(Table3[[#This Row],[Order Date]])</f>
+        <v>15</v>
+      </c>
+      <c r="K45" s="26">
+        <f>DATE(Table3[[#This Row],[Year]]-1,Table3[[#This Row],[Month]],Table3[[#This Row],[Day]])</f>
+        <v>42658</v>
+      </c>
+      <c r="L45" s="26">
+        <f>DATE(Table3[[#This Row],[Year]],Table3[[#This Row],[Month]],0)</f>
+        <v>43008</v>
+      </c>
+      <c r="M45" s="26">
+        <f>EOMONTH(Table3[[#This Row],[Order Date]],0)</f>
+        <v>43039</v>
+      </c>
+      <c r="N45">
+        <f>WEEKDAY(Table3[[#This Row],[Order Date]],1)</f>
+        <v>1</v>
+      </c>
+      <c r="O45">
+        <f>WEEKNUM(Table3[[#This Row],[Order Date]],1)</f>
+        <v>42</v>
+      </c>
+      <c r="P45" s="26">
+        <f t="shared" ca="1" si="3"/>
+        <v>45524</v>
+      </c>
+      <c r="Q45" s="27">
+        <f t="shared" ca="1" si="4"/>
+        <v>45524.194956134263</v>
+      </c>
+      <c r="R45" t="str">
+        <f>TEXT(Table3[[#This Row],[Order Date]],"mmm")</f>
+        <v>Oct</v>
+      </c>
+      <c r="S45" t="str">
+        <f>TEXT(Table3[[#This Row],[Order Date]],"mmmm")</f>
+        <v>October</v>
+      </c>
+      <c r="T45" t="str">
+        <f>TEXT(Table3[[#This Row],[Order Date]],"ddd")</f>
+        <v>Sun</v>
+      </c>
+      <c r="U45" t="str">
+        <f>TEXT(Table3[[#This Row],[Order Date]],"dddd")</f>
+        <v>Sunday</v>
+      </c>
+    </row>
+    <row r="46" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>43030</v>
       </c>
@@ -6727,18 +8973,70 @@
         <v>940</v>
       </c>
       <c r="F46" s="25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>11985</v>
       </c>
       <c r="G46" s="21">
         <v>122.24700000000001</v>
       </c>
-      <c r="K46" s="26"/>
-      <c r="L46" s="26"/>
-      <c r="O46" s="26"/>
-      <c r="P46" s="27"/>
-    </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="H46">
+        <f>YEAR(Table3[[#This Row],[Order Date]])</f>
+        <v>2017</v>
+      </c>
+      <c r="I46">
+        <f>MONTH(Table3[[#This Row],[Order Date]])</f>
+        <v>10</v>
+      </c>
+      <c r="J46">
+        <f>DAY(Table3[[#This Row],[Order Date]])</f>
+        <v>22</v>
+      </c>
+      <c r="K46" s="26">
+        <f>DATE(Table3[[#This Row],[Year]]-1,Table3[[#This Row],[Month]],Table3[[#This Row],[Day]])</f>
+        <v>42665</v>
+      </c>
+      <c r="L46" s="26">
+        <f>DATE(Table3[[#This Row],[Year]],Table3[[#This Row],[Month]],0)</f>
+        <v>43008</v>
+      </c>
+      <c r="M46" s="26">
+        <f>EOMONTH(Table3[[#This Row],[Order Date]],0)</f>
+        <v>43039</v>
+      </c>
+      <c r="N46">
+        <f>WEEKDAY(Table3[[#This Row],[Order Date]],1)</f>
+        <v>1</v>
+      </c>
+      <c r="O46">
+        <f>WEEKNUM(Table3[[#This Row],[Order Date]],1)</f>
+        <v>43</v>
+      </c>
+      <c r="P46" s="26">
+        <f t="shared" ca="1" si="3"/>
+        <v>45524</v>
+      </c>
+      <c r="Q46" s="27">
+        <f t="shared" ca="1" si="4"/>
+        <v>45524.194956250001</v>
+      </c>
+      <c r="R46" t="str">
+        <f>TEXT(Table3[[#This Row],[Order Date]],"mmm")</f>
+        <v>Oct</v>
+      </c>
+      <c r="S46" t="str">
+        <f>TEXT(Table3[[#This Row],[Order Date]],"mmmm")</f>
+        <v>October</v>
+      </c>
+      <c r="T46" t="str">
+        <f>TEXT(Table3[[#This Row],[Order Date]],"ddd")</f>
+        <v>Sun</v>
+      </c>
+      <c r="U46" t="str">
+        <f>TEXT(Table3[[#This Row],[Order Date]],"dddd")</f>
+        <v>Sunday</v>
+      </c>
+    </row>
+    <row r="47" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>43037</v>
       </c>
@@ -6755,18 +9053,70 @@
         <v>640</v>
       </c>
       <c r="F47" s="25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>29440</v>
       </c>
       <c r="G47" s="21">
         <v>279.68</v>
       </c>
-      <c r="K47" s="26"/>
-      <c r="L47" s="26"/>
-      <c r="O47" s="26"/>
-      <c r="P47" s="27"/>
-    </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="H47">
+        <f>YEAR(Table3[[#This Row],[Order Date]])</f>
+        <v>2017</v>
+      </c>
+      <c r="I47">
+        <f>MONTH(Table3[[#This Row],[Order Date]])</f>
+        <v>10</v>
+      </c>
+      <c r="J47">
+        <f>DAY(Table3[[#This Row],[Order Date]])</f>
+        <v>29</v>
+      </c>
+      <c r="K47" s="26">
+        <f>DATE(Table3[[#This Row],[Year]]-1,Table3[[#This Row],[Month]],Table3[[#This Row],[Day]])</f>
+        <v>42672</v>
+      </c>
+      <c r="L47" s="26">
+        <f>DATE(Table3[[#This Row],[Year]],Table3[[#This Row],[Month]],0)</f>
+        <v>43008</v>
+      </c>
+      <c r="M47" s="26">
+        <f>EOMONTH(Table3[[#This Row],[Order Date]],0)</f>
+        <v>43039</v>
+      </c>
+      <c r="N47">
+        <f>WEEKDAY(Table3[[#This Row],[Order Date]],1)</f>
+        <v>1</v>
+      </c>
+      <c r="O47">
+        <f>WEEKNUM(Table3[[#This Row],[Order Date]],1)</f>
+        <v>44</v>
+      </c>
+      <c r="P47" s="26">
+        <f t="shared" ca="1" si="3"/>
+        <v>45524</v>
+      </c>
+      <c r="Q47" s="27">
+        <f t="shared" ca="1" si="4"/>
+        <v>45524.194956134263</v>
+      </c>
+      <c r="R47" t="str">
+        <f>TEXT(Table3[[#This Row],[Order Date]],"mmm")</f>
+        <v>Oct</v>
+      </c>
+      <c r="S47" t="str">
+        <f>TEXT(Table3[[#This Row],[Order Date]],"mmmm")</f>
+        <v>October</v>
+      </c>
+      <c r="T47" t="str">
+        <f>TEXT(Table3[[#This Row],[Order Date]],"ddd")</f>
+        <v>Sun</v>
+      </c>
+      <c r="U47" t="str">
+        <f>TEXT(Table3[[#This Row],[Order Date]],"dddd")</f>
+        <v>Sunday</v>
+      </c>
+    </row>
+    <row r="48" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>43044</v>
       </c>
@@ -6783,18 +9133,70 @@
         <v>670</v>
       </c>
       <c r="F48" s="25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2345</v>
       </c>
       <c r="G48" s="21">
         <v>22.746500000000001</v>
       </c>
-      <c r="K48" s="26"/>
-      <c r="L48" s="26"/>
-      <c r="O48" s="26"/>
-      <c r="P48" s="27"/>
-    </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="H48">
+        <f>YEAR(Table3[[#This Row],[Order Date]])</f>
+        <v>2017</v>
+      </c>
+      <c r="I48">
+        <f>MONTH(Table3[[#This Row],[Order Date]])</f>
+        <v>11</v>
+      </c>
+      <c r="J48">
+        <f>DAY(Table3[[#This Row],[Order Date]])</f>
+        <v>5</v>
+      </c>
+      <c r="K48" s="26">
+        <f>DATE(Table3[[#This Row],[Year]]-1,Table3[[#This Row],[Month]],Table3[[#This Row],[Day]])</f>
+        <v>42679</v>
+      </c>
+      <c r="L48" s="26">
+        <f>DATE(Table3[[#This Row],[Year]],Table3[[#This Row],[Month]],0)</f>
+        <v>43039</v>
+      </c>
+      <c r="M48" s="26">
+        <f>EOMONTH(Table3[[#This Row],[Order Date]],0)</f>
+        <v>43069</v>
+      </c>
+      <c r="N48">
+        <f>WEEKDAY(Table3[[#This Row],[Order Date]],1)</f>
+        <v>1</v>
+      </c>
+      <c r="O48">
+        <f>WEEKNUM(Table3[[#This Row],[Order Date]],1)</f>
+        <v>45</v>
+      </c>
+      <c r="P48" s="26">
+        <f t="shared" ca="1" si="3"/>
+        <v>45524</v>
+      </c>
+      <c r="Q48" s="27">
+        <f t="shared" ca="1" si="4"/>
+        <v>45524.194956250001</v>
+      </c>
+      <c r="R48" t="str">
+        <f>TEXT(Table3[[#This Row],[Order Date]],"mmm")</f>
+        <v>Nov</v>
+      </c>
+      <c r="S48" t="str">
+        <f>TEXT(Table3[[#This Row],[Order Date]],"mmmm")</f>
+        <v>November</v>
+      </c>
+      <c r="T48" t="str">
+        <f>TEXT(Table3[[#This Row],[Order Date]],"ddd")</f>
+        <v>Sun</v>
+      </c>
+      <c r="U48" t="str">
+        <f>TEXT(Table3[[#This Row],[Order Date]],"dddd")</f>
+        <v>Sunday</v>
+      </c>
+    </row>
+    <row r="49" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>43051</v>
       </c>
@@ -6811,18 +9213,70 @@
         <v>380</v>
       </c>
       <c r="F49" s="25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3667</v>
       </c>
       <c r="G49" s="21">
         <v>36.67</v>
       </c>
-      <c r="K49" s="26"/>
-      <c r="L49" s="26"/>
-      <c r="O49" s="26"/>
-      <c r="P49" s="27"/>
-    </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="H49">
+        <f>YEAR(Table3[[#This Row],[Order Date]])</f>
+        <v>2017</v>
+      </c>
+      <c r="I49">
+        <f>MONTH(Table3[[#This Row],[Order Date]])</f>
+        <v>11</v>
+      </c>
+      <c r="J49">
+        <f>DAY(Table3[[#This Row],[Order Date]])</f>
+        <v>12</v>
+      </c>
+      <c r="K49" s="26">
+        <f>DATE(Table3[[#This Row],[Year]]-1,Table3[[#This Row],[Month]],Table3[[#This Row],[Day]])</f>
+        <v>42686</v>
+      </c>
+      <c r="L49" s="26">
+        <f>DATE(Table3[[#This Row],[Year]],Table3[[#This Row],[Month]],0)</f>
+        <v>43039</v>
+      </c>
+      <c r="M49" s="26">
+        <f>EOMONTH(Table3[[#This Row],[Order Date]],0)</f>
+        <v>43069</v>
+      </c>
+      <c r="N49">
+        <f>WEEKDAY(Table3[[#This Row],[Order Date]],1)</f>
+        <v>1</v>
+      </c>
+      <c r="O49">
+        <f>WEEKNUM(Table3[[#This Row],[Order Date]],1)</f>
+        <v>46</v>
+      </c>
+      <c r="P49" s="26">
+        <f t="shared" ca="1" si="3"/>
+        <v>45524</v>
+      </c>
+      <c r="Q49" s="27">
+        <f t="shared" ca="1" si="4"/>
+        <v>45524.194956250001</v>
+      </c>
+      <c r="R49" t="str">
+        <f>TEXT(Table3[[#This Row],[Order Date]],"mmm")</f>
+        <v>Nov</v>
+      </c>
+      <c r="S49" t="str">
+        <f>TEXT(Table3[[#This Row],[Order Date]],"mmmm")</f>
+        <v>November</v>
+      </c>
+      <c r="T49" t="str">
+        <f>TEXT(Table3[[#This Row],[Order Date]],"ddd")</f>
+        <v>Sun</v>
+      </c>
+      <c r="U49" t="str">
+        <f>TEXT(Table3[[#This Row],[Order Date]],"dddd")</f>
+        <v>Sunday</v>
+      </c>
+    </row>
+    <row r="50" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>43058</v>
       </c>
@@ -6839,18 +9293,70 @@
         <v>490</v>
       </c>
       <c r="F50" s="25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>10461.5</v>
       </c>
       <c r="G50" s="21">
         <v>106.70730000000002</v>
       </c>
-      <c r="K50" s="26"/>
-      <c r="L50" s="26"/>
-      <c r="O50" s="26"/>
-      <c r="P50" s="27"/>
-    </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="H50">
+        <f>YEAR(Table3[[#This Row],[Order Date]])</f>
+        <v>2017</v>
+      </c>
+      <c r="I50">
+        <f>MONTH(Table3[[#This Row],[Order Date]])</f>
+        <v>11</v>
+      </c>
+      <c r="J50">
+        <f>DAY(Table3[[#This Row],[Order Date]])</f>
+        <v>19</v>
+      </c>
+      <c r="K50" s="26">
+        <f>DATE(Table3[[#This Row],[Year]]-1,Table3[[#This Row],[Month]],Table3[[#This Row],[Day]])</f>
+        <v>42693</v>
+      </c>
+      <c r="L50" s="26">
+        <f>DATE(Table3[[#This Row],[Year]],Table3[[#This Row],[Month]],0)</f>
+        <v>43039</v>
+      </c>
+      <c r="M50" s="26">
+        <f>EOMONTH(Table3[[#This Row],[Order Date]],0)</f>
+        <v>43069</v>
+      </c>
+      <c r="N50">
+        <f>WEEKDAY(Table3[[#This Row],[Order Date]],1)</f>
+        <v>1</v>
+      </c>
+      <c r="O50">
+        <f>WEEKNUM(Table3[[#This Row],[Order Date]],1)</f>
+        <v>47</v>
+      </c>
+      <c r="P50" s="26">
+        <f t="shared" ca="1" si="3"/>
+        <v>45524</v>
+      </c>
+      <c r="Q50" s="27">
+        <f t="shared" ca="1" si="4"/>
+        <v>45524.194956134263</v>
+      </c>
+      <c r="R50" t="str">
+        <f>TEXT(Table3[[#This Row],[Order Date]],"mmm")</f>
+        <v>Nov</v>
+      </c>
+      <c r="S50" t="str">
+        <f>TEXT(Table3[[#This Row],[Order Date]],"mmmm")</f>
+        <v>November</v>
+      </c>
+      <c r="T50" t="str">
+        <f>TEXT(Table3[[#This Row],[Order Date]],"ddd")</f>
+        <v>Sun</v>
+      </c>
+      <c r="U50" t="str">
+        <f>TEXT(Table3[[#This Row],[Order Date]],"dddd")</f>
+        <v>Sunday</v>
+      </c>
+    </row>
+    <row r="51" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>43065</v>
       </c>
@@ -6864,18 +9370,70 @@
         <v>0</v>
       </c>
       <c r="F51" s="25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G51" s="21">
         <v>8</v>
       </c>
-      <c r="K51" s="26"/>
-      <c r="L51" s="26"/>
-      <c r="O51" s="26"/>
-      <c r="P51" s="27"/>
-    </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="H51">
+        <f>YEAR(Table3[[#This Row],[Order Date]])</f>
+        <v>2017</v>
+      </c>
+      <c r="I51">
+        <f>MONTH(Table3[[#This Row],[Order Date]])</f>
+        <v>11</v>
+      </c>
+      <c r="J51">
+        <f>DAY(Table3[[#This Row],[Order Date]])</f>
+        <v>26</v>
+      </c>
+      <c r="K51" s="26">
+        <f>DATE(Table3[[#This Row],[Year]]-1,Table3[[#This Row],[Month]],Table3[[#This Row],[Day]])</f>
+        <v>42700</v>
+      </c>
+      <c r="L51" s="26">
+        <f>DATE(Table3[[#This Row],[Year]],Table3[[#This Row],[Month]],0)</f>
+        <v>43039</v>
+      </c>
+      <c r="M51" s="26">
+        <f>EOMONTH(Table3[[#This Row],[Order Date]],0)</f>
+        <v>43069</v>
+      </c>
+      <c r="N51">
+        <f>WEEKDAY(Table3[[#This Row],[Order Date]],1)</f>
+        <v>1</v>
+      </c>
+      <c r="O51">
+        <f>WEEKNUM(Table3[[#This Row],[Order Date]],1)</f>
+        <v>48</v>
+      </c>
+      <c r="P51" s="26">
+        <f t="shared" ca="1" si="3"/>
+        <v>45524</v>
+      </c>
+      <c r="Q51" s="27">
+        <f t="shared" ca="1" si="4"/>
+        <v>45524.194956134263</v>
+      </c>
+      <c r="R51" t="str">
+        <f>TEXT(Table3[[#This Row],[Order Date]],"mmm")</f>
+        <v>Nov</v>
+      </c>
+      <c r="S51" t="str">
+        <f>TEXT(Table3[[#This Row],[Order Date]],"mmmm")</f>
+        <v>November</v>
+      </c>
+      <c r="T51" t="str">
+        <f>TEXT(Table3[[#This Row],[Order Date]],"ddd")</f>
+        <v>Sun</v>
+      </c>
+      <c r="U51" t="str">
+        <f>TEXT(Table3[[#This Row],[Order Date]],"dddd")</f>
+        <v>Sunday</v>
+      </c>
+    </row>
+    <row r="52" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>43072</v>
       </c>
@@ -6892,18 +9450,70 @@
         <v>120</v>
       </c>
       <c r="F52" s="25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>358.8</v>
       </c>
       <c r="G52" s="21">
         <v>17.042999999999999</v>
       </c>
-      <c r="K52" s="26"/>
-      <c r="L52" s="26"/>
-      <c r="O52" s="26"/>
-      <c r="P52" s="27"/>
-    </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="H52">
+        <f>YEAR(Table3[[#This Row],[Order Date]])</f>
+        <v>2017</v>
+      </c>
+      <c r="I52">
+        <f>MONTH(Table3[[#This Row],[Order Date]])</f>
+        <v>12</v>
+      </c>
+      <c r="J52">
+        <f>DAY(Table3[[#This Row],[Order Date]])</f>
+        <v>3</v>
+      </c>
+      <c r="K52" s="26">
+        <f>DATE(Table3[[#This Row],[Year]]-1,Table3[[#This Row],[Month]],Table3[[#This Row],[Day]])</f>
+        <v>42707</v>
+      </c>
+      <c r="L52" s="26">
+        <f>DATE(Table3[[#This Row],[Year]],Table3[[#This Row],[Month]],0)</f>
+        <v>43069</v>
+      </c>
+      <c r="M52" s="26">
+        <f>EOMONTH(Table3[[#This Row],[Order Date]],0)</f>
+        <v>43100</v>
+      </c>
+      <c r="N52">
+        <f>WEEKDAY(Table3[[#This Row],[Order Date]],1)</f>
+        <v>1</v>
+      </c>
+      <c r="O52">
+        <f>WEEKNUM(Table3[[#This Row],[Order Date]],1)</f>
+        <v>49</v>
+      </c>
+      <c r="P52" s="26">
+        <f t="shared" ca="1" si="3"/>
+        <v>45524</v>
+      </c>
+      <c r="Q52" s="27">
+        <f t="shared" ca="1" si="4"/>
+        <v>45524.194956134263</v>
+      </c>
+      <c r="R52" t="str">
+        <f>TEXT(Table3[[#This Row],[Order Date]],"mmm")</f>
+        <v>Dec</v>
+      </c>
+      <c r="S52" t="str">
+        <f>TEXT(Table3[[#This Row],[Order Date]],"mmmm")</f>
+        <v>December</v>
+      </c>
+      <c r="T52" t="str">
+        <f>TEXT(Table3[[#This Row],[Order Date]],"ddd")</f>
+        <v>Sun</v>
+      </c>
+      <c r="U52" t="str">
+        <f>TEXT(Table3[[#This Row],[Order Date]],"dddd")</f>
+        <v>Sunday</v>
+      </c>
+    </row>
+    <row r="53" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>43079</v>
       </c>
@@ -6920,18 +9530,70 @@
         <v>910</v>
       </c>
       <c r="F53" s="25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>8781.5</v>
       </c>
       <c r="G53" s="21">
         <v>92.205749999999995</v>
       </c>
-      <c r="K53" s="26"/>
-      <c r="L53" s="26"/>
-      <c r="O53" s="26"/>
-      <c r="P53" s="27"/>
-    </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="H53">
+        <f>YEAR(Table3[[#This Row],[Order Date]])</f>
+        <v>2017</v>
+      </c>
+      <c r="I53">
+        <f>MONTH(Table3[[#This Row],[Order Date]])</f>
+        <v>12</v>
+      </c>
+      <c r="J53">
+        <f>DAY(Table3[[#This Row],[Order Date]])</f>
+        <v>10</v>
+      </c>
+      <c r="K53" s="26">
+        <f>DATE(Table3[[#This Row],[Year]]-1,Table3[[#This Row],[Month]],Table3[[#This Row],[Day]])</f>
+        <v>42714</v>
+      </c>
+      <c r="L53" s="26">
+        <f>DATE(Table3[[#This Row],[Year]],Table3[[#This Row],[Month]],0)</f>
+        <v>43069</v>
+      </c>
+      <c r="M53" s="26">
+        <f>EOMONTH(Table3[[#This Row],[Order Date]],0)</f>
+        <v>43100</v>
+      </c>
+      <c r="N53">
+        <f>WEEKDAY(Table3[[#This Row],[Order Date]],1)</f>
+        <v>1</v>
+      </c>
+      <c r="O53">
+        <f>WEEKNUM(Table3[[#This Row],[Order Date]],1)</f>
+        <v>50</v>
+      </c>
+      <c r="P53" s="26">
+        <f t="shared" ca="1" si="3"/>
+        <v>45524</v>
+      </c>
+      <c r="Q53" s="27">
+        <f t="shared" ca="1" si="4"/>
+        <v>45524.194956134263</v>
+      </c>
+      <c r="R53" t="str">
+        <f>TEXT(Table3[[#This Row],[Order Date]],"mmm")</f>
+        <v>Dec</v>
+      </c>
+      <c r="S53" t="str">
+        <f>TEXT(Table3[[#This Row],[Order Date]],"mmmm")</f>
+        <v>December</v>
+      </c>
+      <c r="T53" t="str">
+        <f>TEXT(Table3[[#This Row],[Order Date]],"ddd")</f>
+        <v>Sun</v>
+      </c>
+      <c r="U53" t="str">
+        <f>TEXT(Table3[[#This Row],[Order Date]],"dddd")</f>
+        <v>Sunday</v>
+      </c>
+    </row>
+    <row r="54" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>43086</v>
       </c>
@@ -6948,18 +9610,70 @@
         <v>290</v>
       </c>
       <c r="F54" s="25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>10092</v>
       </c>
       <c r="G54" s="21">
         <v>300.846</v>
       </c>
-      <c r="K54" s="26"/>
-      <c r="L54" s="26"/>
-      <c r="O54" s="26"/>
-      <c r="P54" s="27"/>
-    </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="H54">
+        <f>YEAR(Table3[[#This Row],[Order Date]])</f>
+        <v>2017</v>
+      </c>
+      <c r="I54">
+        <f>MONTH(Table3[[#This Row],[Order Date]])</f>
+        <v>12</v>
+      </c>
+      <c r="J54">
+        <f>DAY(Table3[[#This Row],[Order Date]])</f>
+        <v>17</v>
+      </c>
+      <c r="K54" s="26">
+        <f>DATE(Table3[[#This Row],[Year]]-1,Table3[[#This Row],[Month]],Table3[[#This Row],[Day]])</f>
+        <v>42721</v>
+      </c>
+      <c r="L54" s="26">
+        <f>DATE(Table3[[#This Row],[Year]],Table3[[#This Row],[Month]],0)</f>
+        <v>43069</v>
+      </c>
+      <c r="M54" s="26">
+        <f>EOMONTH(Table3[[#This Row],[Order Date]],0)</f>
+        <v>43100</v>
+      </c>
+      <c r="N54">
+        <f>WEEKDAY(Table3[[#This Row],[Order Date]],1)</f>
+        <v>1</v>
+      </c>
+      <c r="O54">
+        <f>WEEKNUM(Table3[[#This Row],[Order Date]],1)</f>
+        <v>51</v>
+      </c>
+      <c r="P54" s="26">
+        <f t="shared" ca="1" si="3"/>
+        <v>45524</v>
+      </c>
+      <c r="Q54" s="27">
+        <f t="shared" ca="1" si="4"/>
+        <v>45524.194956250001</v>
+      </c>
+      <c r="R54" t="str">
+        <f>TEXT(Table3[[#This Row],[Order Date]],"mmm")</f>
+        <v>Dec</v>
+      </c>
+      <c r="S54" t="str">
+        <f>TEXT(Table3[[#This Row],[Order Date]],"mmmm")</f>
+        <v>December</v>
+      </c>
+      <c r="T54" t="str">
+        <f>TEXT(Table3[[#This Row],[Order Date]],"ddd")</f>
+        <v>Sun</v>
+      </c>
+      <c r="U54" t="str">
+        <f>TEXT(Table3[[#This Row],[Order Date]],"dddd")</f>
+        <v>Sunday</v>
+      </c>
+    </row>
+    <row r="55" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>43093</v>
       </c>
@@ -6976,18 +9690,70 @@
         <v>550</v>
       </c>
       <c r="F55" s="25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>25300</v>
       </c>
       <c r="G55" s="21">
         <v>253</v>
       </c>
-      <c r="K55" s="26"/>
-      <c r="L55" s="26"/>
-      <c r="O55" s="26"/>
-      <c r="P55" s="27"/>
-    </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="H55">
+        <f>YEAR(Table3[[#This Row],[Order Date]])</f>
+        <v>2017</v>
+      </c>
+      <c r="I55">
+        <f>MONTH(Table3[[#This Row],[Order Date]])</f>
+        <v>12</v>
+      </c>
+      <c r="J55">
+        <f>DAY(Table3[[#This Row],[Order Date]])</f>
+        <v>24</v>
+      </c>
+      <c r="K55" s="26">
+        <f>DATE(Table3[[#This Row],[Year]]-1,Table3[[#This Row],[Month]],Table3[[#This Row],[Day]])</f>
+        <v>42728</v>
+      </c>
+      <c r="L55" s="26">
+        <f>DATE(Table3[[#This Row],[Year]],Table3[[#This Row],[Month]],0)</f>
+        <v>43069</v>
+      </c>
+      <c r="M55" s="26">
+        <f>EOMONTH(Table3[[#This Row],[Order Date]],0)</f>
+        <v>43100</v>
+      </c>
+      <c r="N55">
+        <f>WEEKDAY(Table3[[#This Row],[Order Date]],1)</f>
+        <v>1</v>
+      </c>
+      <c r="O55">
+        <f>WEEKNUM(Table3[[#This Row],[Order Date]],1)</f>
+        <v>52</v>
+      </c>
+      <c r="P55" s="26">
+        <f t="shared" ca="1" si="3"/>
+        <v>45524</v>
+      </c>
+      <c r="Q55" s="27">
+        <f t="shared" ca="1" si="4"/>
+        <v>45524.194956134263</v>
+      </c>
+      <c r="R55" t="str">
+        <f>TEXT(Table3[[#This Row],[Order Date]],"mmm")</f>
+        <v>Dec</v>
+      </c>
+      <c r="S55" t="str">
+        <f>TEXT(Table3[[#This Row],[Order Date]],"mmmm")</f>
+        <v>December</v>
+      </c>
+      <c r="T55" t="str">
+        <f>TEXT(Table3[[#This Row],[Order Date]],"ddd")</f>
+        <v>Sun</v>
+      </c>
+      <c r="U55" t="str">
+        <f>TEXT(Table3[[#This Row],[Order Date]],"dddd")</f>
+        <v>Sunday</v>
+      </c>
+    </row>
+    <row r="56" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>43100</v>
       </c>
@@ -7004,18 +9770,70 @@
         <v>280</v>
       </c>
       <c r="F56" s="25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2576</v>
       </c>
       <c r="G56" s="21">
         <v>24.471999999999998</v>
       </c>
-      <c r="K56" s="26"/>
-      <c r="L56" s="26"/>
-      <c r="O56" s="26"/>
-      <c r="P56" s="27"/>
-    </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="H56">
+        <f>YEAR(Table3[[#This Row],[Order Date]])</f>
+        <v>2017</v>
+      </c>
+      <c r="I56">
+        <f>MONTH(Table3[[#This Row],[Order Date]])</f>
+        <v>12</v>
+      </c>
+      <c r="J56">
+        <f>DAY(Table3[[#This Row],[Order Date]])</f>
+        <v>31</v>
+      </c>
+      <c r="K56" s="26">
+        <f>DATE(Table3[[#This Row],[Year]]-1,Table3[[#This Row],[Month]],Table3[[#This Row],[Day]])</f>
+        <v>42735</v>
+      </c>
+      <c r="L56" s="26">
+        <f>DATE(Table3[[#This Row],[Year]],Table3[[#This Row],[Month]],0)</f>
+        <v>43069</v>
+      </c>
+      <c r="M56" s="26">
+        <f>EOMONTH(Table3[[#This Row],[Order Date]],0)</f>
+        <v>43100</v>
+      </c>
+      <c r="N56">
+        <f>WEEKDAY(Table3[[#This Row],[Order Date]],1)</f>
+        <v>1</v>
+      </c>
+      <c r="O56">
+        <f>WEEKNUM(Table3[[#This Row],[Order Date]],1)</f>
+        <v>53</v>
+      </c>
+      <c r="P56" s="26">
+        <f t="shared" ca="1" si="3"/>
+        <v>45524</v>
+      </c>
+      <c r="Q56" s="27">
+        <f t="shared" ca="1" si="4"/>
+        <v>45524.194956250001</v>
+      </c>
+      <c r="R56" t="str">
+        <f>TEXT(Table3[[#This Row],[Order Date]],"mmm")</f>
+        <v>Dec</v>
+      </c>
+      <c r="S56" t="str">
+        <f>TEXT(Table3[[#This Row],[Order Date]],"mmmm")</f>
+        <v>December</v>
+      </c>
+      <c r="T56" t="str">
+        <f>TEXT(Table3[[#This Row],[Order Date]],"ddd")</f>
+        <v>Sun</v>
+      </c>
+      <c r="U56" t="str">
+        <f>TEXT(Table3[[#This Row],[Order Date]],"dddd")</f>
+        <v>Sunday</v>
+      </c>
+    </row>
+    <row r="57" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>43107</v>
       </c>
@@ -7032,18 +9850,70 @@
         <v>850</v>
       </c>
       <c r="F57" s="25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>16575</v>
       </c>
       <c r="G57" s="21">
         <v>165.75</v>
       </c>
-      <c r="K57" s="26"/>
-      <c r="L57" s="26"/>
-      <c r="O57" s="26"/>
-      <c r="P57" s="27"/>
-    </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="H57">
+        <f>YEAR(Table3[[#This Row],[Order Date]])</f>
+        <v>2018</v>
+      </c>
+      <c r="I57">
+        <f>MONTH(Table3[[#This Row],[Order Date]])</f>
+        <v>1</v>
+      </c>
+      <c r="J57">
+        <f>DAY(Table3[[#This Row],[Order Date]])</f>
+        <v>7</v>
+      </c>
+      <c r="K57" s="26">
+        <f>DATE(Table3[[#This Row],[Year]]-1,Table3[[#This Row],[Month]],Table3[[#This Row],[Day]])</f>
+        <v>42742</v>
+      </c>
+      <c r="L57" s="26">
+        <f>DATE(Table3[[#This Row],[Year]],Table3[[#This Row],[Month]],0)</f>
+        <v>43100</v>
+      </c>
+      <c r="M57" s="26">
+        <f>EOMONTH(Table3[[#This Row],[Order Date]],0)</f>
+        <v>43131</v>
+      </c>
+      <c r="N57">
+        <f>WEEKDAY(Table3[[#This Row],[Order Date]],1)</f>
+        <v>1</v>
+      </c>
+      <c r="O57">
+        <f>WEEKNUM(Table3[[#This Row],[Order Date]],1)</f>
+        <v>2</v>
+      </c>
+      <c r="P57" s="26">
+        <f t="shared" ca="1" si="3"/>
+        <v>45524</v>
+      </c>
+      <c r="Q57" s="27">
+        <f t="shared" ca="1" si="4"/>
+        <v>45524.194956250001</v>
+      </c>
+      <c r="R57" t="str">
+        <f>TEXT(Table3[[#This Row],[Order Date]],"mmm")</f>
+        <v>Jan</v>
+      </c>
+      <c r="S57" t="str">
+        <f>TEXT(Table3[[#This Row],[Order Date]],"mmmm")</f>
+        <v>January</v>
+      </c>
+      <c r="T57" t="str">
+        <f>TEXT(Table3[[#This Row],[Order Date]],"ddd")</f>
+        <v>Sun</v>
+      </c>
+      <c r="U57" t="str">
+        <f>TEXT(Table3[[#This Row],[Order Date]],"dddd")</f>
+        <v>Sunday</v>
+      </c>
+    </row>
+    <row r="58" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>43114</v>
       </c>
@@ -7060,18 +9930,70 @@
         <v>690</v>
       </c>
       <c r="F58" s="25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>20700</v>
       </c>
       <c r="G58" s="21">
         <v>198.72</v>
       </c>
-      <c r="K58" s="26"/>
-      <c r="L58" s="26"/>
-      <c r="O58" s="26"/>
-      <c r="P58" s="27"/>
-    </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="H58">
+        <f>YEAR(Table3[[#This Row],[Order Date]])</f>
+        <v>2018</v>
+      </c>
+      <c r="I58">
+        <f>MONTH(Table3[[#This Row],[Order Date]])</f>
+        <v>1</v>
+      </c>
+      <c r="J58">
+        <f>DAY(Table3[[#This Row],[Order Date]])</f>
+        <v>14</v>
+      </c>
+      <c r="K58" s="26">
+        <f>DATE(Table3[[#This Row],[Year]]-1,Table3[[#This Row],[Month]],Table3[[#This Row],[Day]])</f>
+        <v>42749</v>
+      </c>
+      <c r="L58" s="26">
+        <f>DATE(Table3[[#This Row],[Year]],Table3[[#This Row],[Month]],0)</f>
+        <v>43100</v>
+      </c>
+      <c r="M58" s="26">
+        <f>EOMONTH(Table3[[#This Row],[Order Date]],0)</f>
+        <v>43131</v>
+      </c>
+      <c r="N58">
+        <f>WEEKDAY(Table3[[#This Row],[Order Date]],1)</f>
+        <v>1</v>
+      </c>
+      <c r="O58">
+        <f>WEEKNUM(Table3[[#This Row],[Order Date]],1)</f>
+        <v>3</v>
+      </c>
+      <c r="P58" s="26">
+        <f t="shared" ca="1" si="3"/>
+        <v>45524</v>
+      </c>
+      <c r="Q58" s="27">
+        <f t="shared" ca="1" si="4"/>
+        <v>45524.194956134263</v>
+      </c>
+      <c r="R58" t="str">
+        <f>TEXT(Table3[[#This Row],[Order Date]],"mmm")</f>
+        <v>Jan</v>
+      </c>
+      <c r="S58" t="str">
+        <f>TEXT(Table3[[#This Row],[Order Date]],"mmmm")</f>
+        <v>January</v>
+      </c>
+      <c r="T58" t="str">
+        <f>TEXT(Table3[[#This Row],[Order Date]],"ddd")</f>
+        <v>Sun</v>
+      </c>
+      <c r="U58" t="str">
+        <f>TEXT(Table3[[#This Row],[Order Date]],"dddd")</f>
+        <v>Sunday</v>
+      </c>
+    </row>
+    <row r="59" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>43121</v>
       </c>
@@ -7088,18 +10010,70 @@
         <v>820</v>
       </c>
       <c r="F59" s="25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>37720</v>
       </c>
       <c r="G59" s="21">
         <v>392.28800000000007</v>
       </c>
-      <c r="K59" s="26"/>
-      <c r="L59" s="26"/>
-      <c r="O59" s="26"/>
-      <c r="P59" s="27"/>
-    </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="H59">
+        <f>YEAR(Table3[[#This Row],[Order Date]])</f>
+        <v>2018</v>
+      </c>
+      <c r="I59">
+        <f>MONTH(Table3[[#This Row],[Order Date]])</f>
+        <v>1</v>
+      </c>
+      <c r="J59">
+        <f>DAY(Table3[[#This Row],[Order Date]])</f>
+        <v>21</v>
+      </c>
+      <c r="K59" s="26">
+        <f>DATE(Table3[[#This Row],[Year]]-1,Table3[[#This Row],[Month]],Table3[[#This Row],[Day]])</f>
+        <v>42756</v>
+      </c>
+      <c r="L59" s="26">
+        <f>DATE(Table3[[#This Row],[Year]],Table3[[#This Row],[Month]],0)</f>
+        <v>43100</v>
+      </c>
+      <c r="M59" s="26">
+        <f>EOMONTH(Table3[[#This Row],[Order Date]],0)</f>
+        <v>43131</v>
+      </c>
+      <c r="N59">
+        <f>WEEKDAY(Table3[[#This Row],[Order Date]],1)</f>
+        <v>1</v>
+      </c>
+      <c r="O59">
+        <f>WEEKNUM(Table3[[#This Row],[Order Date]],1)</f>
+        <v>4</v>
+      </c>
+      <c r="P59" s="26">
+        <f t="shared" ca="1" si="3"/>
+        <v>45524</v>
+      </c>
+      <c r="Q59" s="27">
+        <f t="shared" ca="1" si="4"/>
+        <v>45524.194956134263</v>
+      </c>
+      <c r="R59" t="str">
+        <f>TEXT(Table3[[#This Row],[Order Date]],"mmm")</f>
+        <v>Jan</v>
+      </c>
+      <c r="S59" t="str">
+        <f>TEXT(Table3[[#This Row],[Order Date]],"mmmm")</f>
+        <v>January</v>
+      </c>
+      <c r="T59" t="str">
+        <f>TEXT(Table3[[#This Row],[Order Date]],"ddd")</f>
+        <v>Sun</v>
+      </c>
+      <c r="U59" t="str">
+        <f>TEXT(Table3[[#This Row],[Order Date]],"dddd")</f>
+        <v>Sunday</v>
+      </c>
+    </row>
+    <row r="60" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>43128</v>
       </c>
@@ -7116,18 +10090,70 @@
         <v>620</v>
       </c>
       <c r="F60" s="25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>50220</v>
       </c>
       <c r="G60" s="21">
         <v>117.93600000000001</v>
       </c>
-      <c r="K60" s="26"/>
-      <c r="L60" s="26"/>
-      <c r="O60" s="26"/>
-      <c r="P60" s="27"/>
-    </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="H60">
+        <f>YEAR(Table3[[#This Row],[Order Date]])</f>
+        <v>2018</v>
+      </c>
+      <c r="I60">
+        <f>MONTH(Table3[[#This Row],[Order Date]])</f>
+        <v>1</v>
+      </c>
+      <c r="J60">
+        <f>DAY(Table3[[#This Row],[Order Date]])</f>
+        <v>28</v>
+      </c>
+      <c r="K60" s="26">
+        <f>DATE(Table3[[#This Row],[Year]]-1,Table3[[#This Row],[Month]],Table3[[#This Row],[Day]])</f>
+        <v>42763</v>
+      </c>
+      <c r="L60" s="26">
+        <f>DATE(Table3[[#This Row],[Year]],Table3[[#This Row],[Month]],0)</f>
+        <v>43100</v>
+      </c>
+      <c r="M60" s="26">
+        <f>EOMONTH(Table3[[#This Row],[Order Date]],0)</f>
+        <v>43131</v>
+      </c>
+      <c r="N60">
+        <f>WEEKDAY(Table3[[#This Row],[Order Date]],1)</f>
+        <v>1</v>
+      </c>
+      <c r="O60">
+        <f>WEEKNUM(Table3[[#This Row],[Order Date]],1)</f>
+        <v>5</v>
+      </c>
+      <c r="P60" s="26">
+        <f t="shared" ca="1" si="3"/>
+        <v>45524</v>
+      </c>
+      <c r="Q60" s="27">
+        <f t="shared" ca="1" si="4"/>
+        <v>45524.194956250001</v>
+      </c>
+      <c r="R60" t="str">
+        <f>TEXT(Table3[[#This Row],[Order Date]],"mmm")</f>
+        <v>Jan</v>
+      </c>
+      <c r="S60" t="str">
+        <f>TEXT(Table3[[#This Row],[Order Date]],"mmmm")</f>
+        <v>January</v>
+      </c>
+      <c r="T60" t="str">
+        <f>TEXT(Table3[[#This Row],[Order Date]],"ddd")</f>
+        <v>Sun</v>
+      </c>
+      <c r="U60" t="str">
+        <f>TEXT(Table3[[#This Row],[Order Date]],"dddd")</f>
+        <v>Sunday</v>
+      </c>
+    </row>
+    <row r="61" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>43135</v>
       </c>
@@ -7141,18 +10167,70 @@
         <v>0</v>
       </c>
       <c r="F61" s="25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G61" s="21">
         <v>23</v>
       </c>
-      <c r="K61" s="26"/>
-      <c r="L61" s="26"/>
-      <c r="O61" s="26"/>
-      <c r="P61" s="27"/>
-    </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="H61">
+        <f>YEAR(Table3[[#This Row],[Order Date]])</f>
+        <v>2018</v>
+      </c>
+      <c r="I61">
+        <f>MONTH(Table3[[#This Row],[Order Date]])</f>
+        <v>2</v>
+      </c>
+      <c r="J61">
+        <f>DAY(Table3[[#This Row],[Order Date]])</f>
+        <v>4</v>
+      </c>
+      <c r="K61" s="26">
+        <f>DATE(Table3[[#This Row],[Year]]-1,Table3[[#This Row],[Month]],Table3[[#This Row],[Day]])</f>
+        <v>42770</v>
+      </c>
+      <c r="L61" s="26">
+        <f>DATE(Table3[[#This Row],[Year]],Table3[[#This Row],[Month]],0)</f>
+        <v>43131</v>
+      </c>
+      <c r="M61" s="26">
+        <f>EOMONTH(Table3[[#This Row],[Order Date]],0)</f>
+        <v>43159</v>
+      </c>
+      <c r="N61">
+        <f>WEEKDAY(Table3[[#This Row],[Order Date]],1)</f>
+        <v>1</v>
+      </c>
+      <c r="O61">
+        <f>WEEKNUM(Table3[[#This Row],[Order Date]],1)</f>
+        <v>6</v>
+      </c>
+      <c r="P61" s="26">
+        <f t="shared" ca="1" si="3"/>
+        <v>45524</v>
+      </c>
+      <c r="Q61" s="27">
+        <f t="shared" ca="1" si="4"/>
+        <v>45524.194956134263</v>
+      </c>
+      <c r="R61" t="str">
+        <f>TEXT(Table3[[#This Row],[Order Date]],"mmm")</f>
+        <v>Feb</v>
+      </c>
+      <c r="S61" t="str">
+        <f>TEXT(Table3[[#This Row],[Order Date]],"mmmm")</f>
+        <v>February</v>
+      </c>
+      <c r="T61" t="str">
+        <f>TEXT(Table3[[#This Row],[Order Date]],"ddd")</f>
+        <v>Sun</v>
+      </c>
+      <c r="U61" t="str">
+        <f>TEXT(Table3[[#This Row],[Order Date]],"dddd")</f>
+        <v>Sunday</v>
+      </c>
+    </row>
+    <row r="62" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>43142</v>
       </c>
@@ -7169,18 +10247,70 @@
         <v>490</v>
       </c>
       <c r="F62" s="25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>6860</v>
       </c>
       <c r="G62" s="21">
         <v>66.542000000000002</v>
       </c>
-      <c r="K62" s="26"/>
-      <c r="L62" s="26"/>
-      <c r="O62" s="26"/>
-      <c r="P62" s="27"/>
-    </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="H62">
+        <f>YEAR(Table3[[#This Row],[Order Date]])</f>
+        <v>2018</v>
+      </c>
+      <c r="I62">
+        <f>MONTH(Table3[[#This Row],[Order Date]])</f>
+        <v>2</v>
+      </c>
+      <c r="J62">
+        <f>DAY(Table3[[#This Row],[Order Date]])</f>
+        <v>11</v>
+      </c>
+      <c r="K62" s="26">
+        <f>DATE(Table3[[#This Row],[Year]]-1,Table3[[#This Row],[Month]],Table3[[#This Row],[Day]])</f>
+        <v>42777</v>
+      </c>
+      <c r="L62" s="26">
+        <f>DATE(Table3[[#This Row],[Year]],Table3[[#This Row],[Month]],0)</f>
+        <v>43131</v>
+      </c>
+      <c r="M62" s="26">
+        <f>EOMONTH(Table3[[#This Row],[Order Date]],0)</f>
+        <v>43159</v>
+      </c>
+      <c r="N62">
+        <f>WEEKDAY(Table3[[#This Row],[Order Date]],1)</f>
+        <v>1</v>
+      </c>
+      <c r="O62">
+        <f>WEEKNUM(Table3[[#This Row],[Order Date]],1)</f>
+        <v>7</v>
+      </c>
+      <c r="P62" s="26">
+        <f t="shared" ca="1" si="3"/>
+        <v>45524</v>
+      </c>
+      <c r="Q62" s="27">
+        <f t="shared" ca="1" si="4"/>
+        <v>45524.194956250001</v>
+      </c>
+      <c r="R62" t="str">
+        <f>TEXT(Table3[[#This Row],[Order Date]],"mmm")</f>
+        <v>Feb</v>
+      </c>
+      <c r="S62" t="str">
+        <f>TEXT(Table3[[#This Row],[Order Date]],"mmmm")</f>
+        <v>February</v>
+      </c>
+      <c r="T62" t="str">
+        <f>TEXT(Table3[[#This Row],[Order Date]],"ddd")</f>
+        <v>Sun</v>
+      </c>
+      <c r="U62" t="str">
+        <f>TEXT(Table3[[#This Row],[Order Date]],"dddd")</f>
+        <v>Sunday</v>
+      </c>
+    </row>
+    <row r="63" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>43149</v>
       </c>
@@ -7197,18 +10327,70 @@
         <v>960</v>
       </c>
       <c r="F63" s="25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3360</v>
       </c>
       <c r="G63" s="21">
         <v>21.315000000000001</v>
       </c>
-      <c r="K63" s="26"/>
-      <c r="L63" s="26"/>
-      <c r="O63" s="26"/>
-      <c r="P63" s="27"/>
-    </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="H63">
+        <f>YEAR(Table3[[#This Row],[Order Date]])</f>
+        <v>2018</v>
+      </c>
+      <c r="I63">
+        <f>MONTH(Table3[[#This Row],[Order Date]])</f>
+        <v>2</v>
+      </c>
+      <c r="J63">
+        <f>DAY(Table3[[#This Row],[Order Date]])</f>
+        <v>18</v>
+      </c>
+      <c r="K63" s="26">
+        <f>DATE(Table3[[#This Row],[Year]]-1,Table3[[#This Row],[Month]],Table3[[#This Row],[Day]])</f>
+        <v>42784</v>
+      </c>
+      <c r="L63" s="26">
+        <f>DATE(Table3[[#This Row],[Year]],Table3[[#This Row],[Month]],0)</f>
+        <v>43131</v>
+      </c>
+      <c r="M63" s="26">
+        <f>EOMONTH(Table3[[#This Row],[Order Date]],0)</f>
+        <v>43159</v>
+      </c>
+      <c r="N63">
+        <f>WEEKDAY(Table3[[#This Row],[Order Date]],1)</f>
+        <v>1</v>
+      </c>
+      <c r="O63">
+        <f>WEEKNUM(Table3[[#This Row],[Order Date]],1)</f>
+        <v>8</v>
+      </c>
+      <c r="P63" s="26">
+        <f t="shared" ca="1" si="3"/>
+        <v>45524</v>
+      </c>
+      <c r="Q63" s="27">
+        <f t="shared" ca="1" si="4"/>
+        <v>45524.194956250001</v>
+      </c>
+      <c r="R63" t="str">
+        <f>TEXT(Table3[[#This Row],[Order Date]],"mmm")</f>
+        <v>Feb</v>
+      </c>
+      <c r="S63" t="str">
+        <f>TEXT(Table3[[#This Row],[Order Date]],"mmmm")</f>
+        <v>February</v>
+      </c>
+      <c r="T63" t="str">
+        <f>TEXT(Table3[[#This Row],[Order Date]],"ddd")</f>
+        <v>Sun</v>
+      </c>
+      <c r="U63" t="str">
+        <f>TEXT(Table3[[#This Row],[Order Date]],"dddd")</f>
+        <v>Sunday</v>
+      </c>
+    </row>
+    <row r="64" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>43156</v>
       </c>
@@ -7225,18 +10407,70 @@
         <v>470</v>
       </c>
       <c r="F64" s="25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>5992.5</v>
       </c>
       <c r="G64" s="21">
         <v>61.722750000000005</v>
       </c>
-      <c r="K64" s="26"/>
-      <c r="L64" s="26"/>
-      <c r="O64" s="26"/>
-      <c r="P64" s="27"/>
-    </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="H64">
+        <f>YEAR(Table3[[#This Row],[Order Date]])</f>
+        <v>2018</v>
+      </c>
+      <c r="I64">
+        <f>MONTH(Table3[[#This Row],[Order Date]])</f>
+        <v>2</v>
+      </c>
+      <c r="J64">
+        <f>DAY(Table3[[#This Row],[Order Date]])</f>
+        <v>25</v>
+      </c>
+      <c r="K64" s="26">
+        <f>DATE(Table3[[#This Row],[Year]]-1,Table3[[#This Row],[Month]],Table3[[#This Row],[Day]])</f>
+        <v>42791</v>
+      </c>
+      <c r="L64" s="26">
+        <f>DATE(Table3[[#This Row],[Year]],Table3[[#This Row],[Month]],0)</f>
+        <v>43131</v>
+      </c>
+      <c r="M64" s="26">
+        <f>EOMONTH(Table3[[#This Row],[Order Date]],0)</f>
+        <v>43159</v>
+      </c>
+      <c r="N64">
+        <f>WEEKDAY(Table3[[#This Row],[Order Date]],1)</f>
+        <v>1</v>
+      </c>
+      <c r="O64">
+        <f>WEEKNUM(Table3[[#This Row],[Order Date]],1)</f>
+        <v>9</v>
+      </c>
+      <c r="P64" s="26">
+        <f t="shared" ca="1" si="3"/>
+        <v>45524</v>
+      </c>
+      <c r="Q64" s="27">
+        <f t="shared" ca="1" si="4"/>
+        <v>45524.194956250001</v>
+      </c>
+      <c r="R64" t="str">
+        <f>TEXT(Table3[[#This Row],[Order Date]],"mmm")</f>
+        <v>Feb</v>
+      </c>
+      <c r="S64" t="str">
+        <f>TEXT(Table3[[#This Row],[Order Date]],"mmmm")</f>
+        <v>February</v>
+      </c>
+      <c r="T64" t="str">
+        <f>TEXT(Table3[[#This Row],[Order Date]],"ddd")</f>
+        <v>Sun</v>
+      </c>
+      <c r="U64" t="str">
+        <f>TEXT(Table3[[#This Row],[Order Date]],"dddd")</f>
+        <v>Sunday</v>
+      </c>
+    </row>
+    <row r="65" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>43163</v>
       </c>
@@ -7253,18 +10487,70 @@
         <v>830</v>
       </c>
       <c r="F65" s="25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>43990</v>
       </c>
       <c r="G65" s="21">
         <v>461.89500000000004</v>
       </c>
-      <c r="K65" s="26"/>
-      <c r="L65" s="26"/>
-      <c r="O65" s="26"/>
-      <c r="P65" s="27"/>
-    </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="H65">
+        <f>YEAR(Table3[[#This Row],[Order Date]])</f>
+        <v>2018</v>
+      </c>
+      <c r="I65">
+        <f>MONTH(Table3[[#This Row],[Order Date]])</f>
+        <v>3</v>
+      </c>
+      <c r="J65">
+        <f>DAY(Table3[[#This Row],[Order Date]])</f>
+        <v>4</v>
+      </c>
+      <c r="K65" s="26">
+        <f>DATE(Table3[[#This Row],[Year]]-1,Table3[[#This Row],[Month]],Table3[[#This Row],[Day]])</f>
+        <v>42798</v>
+      </c>
+      <c r="L65" s="26">
+        <f>DATE(Table3[[#This Row],[Year]],Table3[[#This Row],[Month]],0)</f>
+        <v>43159</v>
+      </c>
+      <c r="M65" s="26">
+        <f>EOMONTH(Table3[[#This Row],[Order Date]],0)</f>
+        <v>43190</v>
+      </c>
+      <c r="N65">
+        <f>WEEKDAY(Table3[[#This Row],[Order Date]],1)</f>
+        <v>1</v>
+      </c>
+      <c r="O65">
+        <f>WEEKNUM(Table3[[#This Row],[Order Date]],1)</f>
+        <v>10</v>
+      </c>
+      <c r="P65" s="26">
+        <f t="shared" ca="1" si="3"/>
+        <v>45524</v>
+      </c>
+      <c r="Q65" s="27">
+        <f t="shared" ca="1" si="4"/>
+        <v>45524.194956250001</v>
+      </c>
+      <c r="R65" t="str">
+        <f>TEXT(Table3[[#This Row],[Order Date]],"mmm")</f>
+        <v>Mar</v>
+      </c>
+      <c r="S65" t="str">
+        <f>TEXT(Table3[[#This Row],[Order Date]],"mmmm")</f>
+        <v>March</v>
+      </c>
+      <c r="T65" t="str">
+        <f>TEXT(Table3[[#This Row],[Order Date]],"ddd")</f>
+        <v>Sun</v>
+      </c>
+      <c r="U65" t="str">
+        <f>TEXT(Table3[[#This Row],[Order Date]],"dddd")</f>
+        <v>Sunday</v>
+      </c>
+    </row>
+    <row r="66" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>43170</v>
       </c>
@@ -7281,18 +10567,70 @@
         <v>880</v>
       </c>
       <c r="F66" s="25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>16191.999999999998</v>
       </c>
       <c r="G66" s="21">
         <v>148.13839999999999</v>
       </c>
-      <c r="K66" s="26"/>
-      <c r="L66" s="26"/>
-      <c r="O66" s="26"/>
-      <c r="P66" s="27"/>
-    </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="H66">
+        <f>YEAR(Table3[[#This Row],[Order Date]])</f>
+        <v>2018</v>
+      </c>
+      <c r="I66">
+        <f>MONTH(Table3[[#This Row],[Order Date]])</f>
+        <v>3</v>
+      </c>
+      <c r="J66">
+        <f>DAY(Table3[[#This Row],[Order Date]])</f>
+        <v>11</v>
+      </c>
+      <c r="K66" s="26">
+        <f>DATE(Table3[[#This Row],[Year]]-1,Table3[[#This Row],[Month]],Table3[[#This Row],[Day]])</f>
+        <v>42805</v>
+      </c>
+      <c r="L66" s="26">
+        <f>DATE(Table3[[#This Row],[Year]],Table3[[#This Row],[Month]],0)</f>
+        <v>43159</v>
+      </c>
+      <c r="M66" s="26">
+        <f>EOMONTH(Table3[[#This Row],[Order Date]],0)</f>
+        <v>43190</v>
+      </c>
+      <c r="N66">
+        <f>WEEKDAY(Table3[[#This Row],[Order Date]],1)</f>
+        <v>1</v>
+      </c>
+      <c r="O66">
+        <f>WEEKNUM(Table3[[#This Row],[Order Date]],1)</f>
+        <v>11</v>
+      </c>
+      <c r="P66" s="26">
+        <f t="shared" ca="1" si="3"/>
+        <v>45524</v>
+      </c>
+      <c r="Q66" s="27">
+        <f t="shared" ca="1" si="4"/>
+        <v>45524.194956134263</v>
+      </c>
+      <c r="R66" t="str">
+        <f>TEXT(Table3[[#This Row],[Order Date]],"mmm")</f>
+        <v>Mar</v>
+      </c>
+      <c r="S66" t="str">
+        <f>TEXT(Table3[[#This Row],[Order Date]],"mmmm")</f>
+        <v>March</v>
+      </c>
+      <c r="T66" t="str">
+        <f>TEXT(Table3[[#This Row],[Order Date]],"ddd")</f>
+        <v>Sun</v>
+      </c>
+      <c r="U66" t="str">
+        <f>TEXT(Table3[[#This Row],[Order Date]],"dddd")</f>
+        <v>Sunday</v>
+      </c>
+    </row>
+    <row r="67" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>43177</v>
       </c>
@@ -7309,18 +10647,70 @@
         <v>740</v>
       </c>
       <c r="F67" s="25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>16280</v>
       </c>
       <c r="G67" s="21">
         <v>84.47999999999999</v>
       </c>
-      <c r="K67" s="26"/>
-      <c r="L67" s="26"/>
-      <c r="O67" s="26"/>
-      <c r="P67" s="27"/>
-    </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="H67">
+        <f>YEAR(Table3[[#This Row],[Order Date]])</f>
+        <v>2018</v>
+      </c>
+      <c r="I67">
+        <f>MONTH(Table3[[#This Row],[Order Date]])</f>
+        <v>3</v>
+      </c>
+      <c r="J67">
+        <f>DAY(Table3[[#This Row],[Order Date]])</f>
+        <v>18</v>
+      </c>
+      <c r="K67" s="26">
+        <f>DATE(Table3[[#This Row],[Year]]-1,Table3[[#This Row],[Month]],Table3[[#This Row],[Day]])</f>
+        <v>42812</v>
+      </c>
+      <c r="L67" s="26">
+        <f>DATE(Table3[[#This Row],[Year]],Table3[[#This Row],[Month]],0)</f>
+        <v>43159</v>
+      </c>
+      <c r="M67" s="26">
+        <f>EOMONTH(Table3[[#This Row],[Order Date]],0)</f>
+        <v>43190</v>
+      </c>
+      <c r="N67">
+        <f>WEEKDAY(Table3[[#This Row],[Order Date]],1)</f>
+        <v>1</v>
+      </c>
+      <c r="O67">
+        <f>WEEKNUM(Table3[[#This Row],[Order Date]],1)</f>
+        <v>12</v>
+      </c>
+      <c r="P67" s="26">
+        <f t="shared" ca="1" si="3"/>
+        <v>45524</v>
+      </c>
+      <c r="Q67" s="27">
+        <f t="shared" ca="1" si="4"/>
+        <v>45524.194956134263</v>
+      </c>
+      <c r="R67" t="str">
+        <f>TEXT(Table3[[#This Row],[Order Date]],"mmm")</f>
+        <v>Mar</v>
+      </c>
+      <c r="S67" t="str">
+        <f>TEXT(Table3[[#This Row],[Order Date]],"mmmm")</f>
+        <v>March</v>
+      </c>
+      <c r="T67" t="str">
+        <f>TEXT(Table3[[#This Row],[Order Date]],"ddd")</f>
+        <v>Sun</v>
+      </c>
+      <c r="U67" t="str">
+        <f>TEXT(Table3[[#This Row],[Order Date]],"dddd")</f>
+        <v>Sunday</v>
+      </c>
+    </row>
+    <row r="68" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>43184</v>
       </c>
@@ -7337,18 +10727,70 @@
         <v>970</v>
       </c>
       <c r="F68" s="25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>17460</v>
       </c>
       <c r="G68" s="21">
         <v>183.33000000000004</v>
       </c>
-      <c r="K68" s="26"/>
-      <c r="L68" s="26"/>
-      <c r="O68" s="26"/>
-      <c r="P68" s="27"/>
-    </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="H68">
+        <f>YEAR(Table3[[#This Row],[Order Date]])</f>
+        <v>2018</v>
+      </c>
+      <c r="I68">
+        <f>MONTH(Table3[[#This Row],[Order Date]])</f>
+        <v>3</v>
+      </c>
+      <c r="J68">
+        <f>DAY(Table3[[#This Row],[Order Date]])</f>
+        <v>25</v>
+      </c>
+      <c r="K68" s="26">
+        <f>DATE(Table3[[#This Row],[Year]]-1,Table3[[#This Row],[Month]],Table3[[#This Row],[Day]])</f>
+        <v>42819</v>
+      </c>
+      <c r="L68" s="26">
+        <f>DATE(Table3[[#This Row],[Year]],Table3[[#This Row],[Month]],0)</f>
+        <v>43159</v>
+      </c>
+      <c r="M68" s="26">
+        <f>EOMONTH(Table3[[#This Row],[Order Date]],0)</f>
+        <v>43190</v>
+      </c>
+      <c r="N68">
+        <f>WEEKDAY(Table3[[#This Row],[Order Date]],1)</f>
+        <v>1</v>
+      </c>
+      <c r="O68">
+        <f>WEEKNUM(Table3[[#This Row],[Order Date]],1)</f>
+        <v>13</v>
+      </c>
+      <c r="P68" s="26">
+        <f t="shared" ref="P68:P83" ca="1" si="5">TODAY()</f>
+        <v>45524</v>
+      </c>
+      <c r="Q68" s="27">
+        <f t="shared" ref="Q68:Q83" ca="1" si="6">NOW()</f>
+        <v>45524.194956250001</v>
+      </c>
+      <c r="R68" t="str">
+        <f>TEXT(Table3[[#This Row],[Order Date]],"mmm")</f>
+        <v>Mar</v>
+      </c>
+      <c r="S68" t="str">
+        <f>TEXT(Table3[[#This Row],[Order Date]],"mmmm")</f>
+        <v>March</v>
+      </c>
+      <c r="T68" t="str">
+        <f>TEXT(Table3[[#This Row],[Order Date]],"ddd")</f>
+        <v>Sun</v>
+      </c>
+      <c r="U68" t="str">
+        <f>TEXT(Table3[[#This Row],[Order Date]],"dddd")</f>
+        <v>Sunday</v>
+      </c>
+    </row>
+    <row r="69" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>43191</v>
       </c>
@@ -7365,18 +10807,70 @@
         <v>990</v>
       </c>
       <c r="F69" s="25">
-        <f t="shared" ref="F69:F83" si="1">D69*E69</f>
+        <f t="shared" ref="F69:F83" si="7">D69*E69</f>
         <v>18216</v>
       </c>
       <c r="G69" s="21">
         <v>191.268</v>
       </c>
-      <c r="K69" s="26"/>
-      <c r="L69" s="26"/>
-      <c r="O69" s="26"/>
-      <c r="P69" s="27"/>
-    </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="H69">
+        <f>YEAR(Table3[[#This Row],[Order Date]])</f>
+        <v>2018</v>
+      </c>
+      <c r="I69">
+        <f>MONTH(Table3[[#This Row],[Order Date]])</f>
+        <v>4</v>
+      </c>
+      <c r="J69">
+        <f>DAY(Table3[[#This Row],[Order Date]])</f>
+        <v>1</v>
+      </c>
+      <c r="K69" s="26">
+        <f>DATE(Table3[[#This Row],[Year]]-1,Table3[[#This Row],[Month]],Table3[[#This Row],[Day]])</f>
+        <v>42826</v>
+      </c>
+      <c r="L69" s="26">
+        <f>DATE(Table3[[#This Row],[Year]],Table3[[#This Row],[Month]],0)</f>
+        <v>43190</v>
+      </c>
+      <c r="M69" s="26">
+        <f>EOMONTH(Table3[[#This Row],[Order Date]],0)</f>
+        <v>43220</v>
+      </c>
+      <c r="N69">
+        <f>WEEKDAY(Table3[[#This Row],[Order Date]],1)</f>
+        <v>1</v>
+      </c>
+      <c r="O69">
+        <f>WEEKNUM(Table3[[#This Row],[Order Date]],1)</f>
+        <v>14</v>
+      </c>
+      <c r="P69" s="26">
+        <f t="shared" ca="1" si="5"/>
+        <v>45524</v>
+      </c>
+      <c r="Q69" s="27">
+        <f t="shared" ca="1" si="6"/>
+        <v>45524.194956134263</v>
+      </c>
+      <c r="R69" t="str">
+        <f>TEXT(Table3[[#This Row],[Order Date]],"mmm")</f>
+        <v>Apr</v>
+      </c>
+      <c r="S69" t="str">
+        <f>TEXT(Table3[[#This Row],[Order Date]],"mmmm")</f>
+        <v>April</v>
+      </c>
+      <c r="T69" t="str">
+        <f>TEXT(Table3[[#This Row],[Order Date]],"ddd")</f>
+        <v>Sun</v>
+      </c>
+      <c r="U69" t="str">
+        <f>TEXT(Table3[[#This Row],[Order Date]],"dddd")</f>
+        <v>Sunday</v>
+      </c>
+    </row>
+    <row r="70" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>43198</v>
       </c>
@@ -7390,18 +10884,70 @@
         <v>0</v>
       </c>
       <c r="F70" s="25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="G70" s="21">
         <v>9</v>
       </c>
-      <c r="K70" s="26"/>
-      <c r="L70" s="26"/>
-      <c r="O70" s="26"/>
-      <c r="P70" s="27"/>
-    </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="H70">
+        <f>YEAR(Table3[[#This Row],[Order Date]])</f>
+        <v>2018</v>
+      </c>
+      <c r="I70">
+        <f>MONTH(Table3[[#This Row],[Order Date]])</f>
+        <v>4</v>
+      </c>
+      <c r="J70">
+        <f>DAY(Table3[[#This Row],[Order Date]])</f>
+        <v>8</v>
+      </c>
+      <c r="K70" s="26">
+        <f>DATE(Table3[[#This Row],[Year]]-1,Table3[[#This Row],[Month]],Table3[[#This Row],[Day]])</f>
+        <v>42833</v>
+      </c>
+      <c r="L70" s="26">
+        <f>DATE(Table3[[#This Row],[Year]],Table3[[#This Row],[Month]],0)</f>
+        <v>43190</v>
+      </c>
+      <c r="M70" s="26">
+        <f>EOMONTH(Table3[[#This Row],[Order Date]],0)</f>
+        <v>43220</v>
+      </c>
+      <c r="N70">
+        <f>WEEKDAY(Table3[[#This Row],[Order Date]],1)</f>
+        <v>1</v>
+      </c>
+      <c r="O70">
+        <f>WEEKNUM(Table3[[#This Row],[Order Date]],1)</f>
+        <v>15</v>
+      </c>
+      <c r="P70" s="26">
+        <f t="shared" ca="1" si="5"/>
+        <v>45524</v>
+      </c>
+      <c r="Q70" s="27">
+        <f t="shared" ca="1" si="6"/>
+        <v>45524.194956250001</v>
+      </c>
+      <c r="R70" t="str">
+        <f>TEXT(Table3[[#This Row],[Order Date]],"mmm")</f>
+        <v>Apr</v>
+      </c>
+      <c r="S70" t="str">
+        <f>TEXT(Table3[[#This Row],[Order Date]],"mmmm")</f>
+        <v>April</v>
+      </c>
+      <c r="T70" t="str">
+        <f>TEXT(Table3[[#This Row],[Order Date]],"ddd")</f>
+        <v>Sun</v>
+      </c>
+      <c r="U70" t="str">
+        <f>TEXT(Table3[[#This Row],[Order Date]],"dddd")</f>
+        <v>Sunday</v>
+      </c>
+    </row>
+    <row r="71" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>43205</v>
       </c>
@@ -7418,18 +10964,70 @@
         <v>190</v>
       </c>
       <c r="F71" s="25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>2660</v>
       </c>
       <c r="G71" s="21">
         <v>25.802</v>
       </c>
-      <c r="K71" s="26"/>
-      <c r="L71" s="26"/>
-      <c r="O71" s="26"/>
-      <c r="P71" s="27"/>
-    </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="H71">
+        <f>YEAR(Table3[[#This Row],[Order Date]])</f>
+        <v>2018</v>
+      </c>
+      <c r="I71">
+        <f>MONTH(Table3[[#This Row],[Order Date]])</f>
+        <v>4</v>
+      </c>
+      <c r="J71">
+        <f>DAY(Table3[[#This Row],[Order Date]])</f>
+        <v>15</v>
+      </c>
+      <c r="K71" s="26">
+        <f>DATE(Table3[[#This Row],[Year]]-1,Table3[[#This Row],[Month]],Table3[[#This Row],[Day]])</f>
+        <v>42840</v>
+      </c>
+      <c r="L71" s="26">
+        <f>DATE(Table3[[#This Row],[Year]],Table3[[#This Row],[Month]],0)</f>
+        <v>43190</v>
+      </c>
+      <c r="M71" s="26">
+        <f>EOMONTH(Table3[[#This Row],[Order Date]],0)</f>
+        <v>43220</v>
+      </c>
+      <c r="N71">
+        <f>WEEKDAY(Table3[[#This Row],[Order Date]],1)</f>
+        <v>1</v>
+      </c>
+      <c r="O71">
+        <f>WEEKNUM(Table3[[#This Row],[Order Date]],1)</f>
+        <v>16</v>
+      </c>
+      <c r="P71" s="26">
+        <f t="shared" ca="1" si="5"/>
+        <v>45524</v>
+      </c>
+      <c r="Q71" s="27">
+        <f t="shared" ca="1" si="6"/>
+        <v>45524.194956250001</v>
+      </c>
+      <c r="R71" t="str">
+        <f>TEXT(Table3[[#This Row],[Order Date]],"mmm")</f>
+        <v>Apr</v>
+      </c>
+      <c r="S71" t="str">
+        <f>TEXT(Table3[[#This Row],[Order Date]],"mmmm")</f>
+        <v>April</v>
+      </c>
+      <c r="T71" t="str">
+        <f>TEXT(Table3[[#This Row],[Order Date]],"ddd")</f>
+        <v>Sun</v>
+      </c>
+      <c r="U71" t="str">
+        <f>TEXT(Table3[[#This Row],[Order Date]],"dddd")</f>
+        <v>Sunday</v>
+      </c>
+    </row>
+    <row r="72" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>43212</v>
       </c>
@@ -7446,18 +11044,70 @@
         <v>250</v>
       </c>
       <c r="F72" s="25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>4600</v>
       </c>
       <c r="G72" s="21">
         <v>45.54</v>
       </c>
-      <c r="K72" s="26"/>
-      <c r="L72" s="26"/>
-      <c r="O72" s="26"/>
-      <c r="P72" s="27"/>
-    </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="H72">
+        <f>YEAR(Table3[[#This Row],[Order Date]])</f>
+        <v>2018</v>
+      </c>
+      <c r="I72">
+        <f>MONTH(Table3[[#This Row],[Order Date]])</f>
+        <v>4</v>
+      </c>
+      <c r="J72">
+        <f>DAY(Table3[[#This Row],[Order Date]])</f>
+        <v>22</v>
+      </c>
+      <c r="K72" s="26">
+        <f>DATE(Table3[[#This Row],[Year]]-1,Table3[[#This Row],[Month]],Table3[[#This Row],[Day]])</f>
+        <v>42847</v>
+      </c>
+      <c r="L72" s="26">
+        <f>DATE(Table3[[#This Row],[Year]],Table3[[#This Row],[Month]],0)</f>
+        <v>43190</v>
+      </c>
+      <c r="M72" s="26">
+        <f>EOMONTH(Table3[[#This Row],[Order Date]],0)</f>
+        <v>43220</v>
+      </c>
+      <c r="N72">
+        <f>WEEKDAY(Table3[[#This Row],[Order Date]],1)</f>
+        <v>1</v>
+      </c>
+      <c r="O72">
+        <f>WEEKNUM(Table3[[#This Row],[Order Date]],1)</f>
+        <v>17</v>
+      </c>
+      <c r="P72" s="26">
+        <f t="shared" ca="1" si="5"/>
+        <v>45524</v>
+      </c>
+      <c r="Q72" s="27">
+        <f t="shared" ca="1" si="6"/>
+        <v>45524.194956250001</v>
+      </c>
+      <c r="R72" t="str">
+        <f>TEXT(Table3[[#This Row],[Order Date]],"mmm")</f>
+        <v>Apr</v>
+      </c>
+      <c r="S72" t="str">
+        <f>TEXT(Table3[[#This Row],[Order Date]],"mmmm")</f>
+        <v>April</v>
+      </c>
+      <c r="T72" t="str">
+        <f>TEXT(Table3[[#This Row],[Order Date]],"ddd")</f>
+        <v>Sun</v>
+      </c>
+      <c r="U72" t="str">
+        <f>TEXT(Table3[[#This Row],[Order Date]],"dddd")</f>
+        <v>Sunday</v>
+      </c>
+    </row>
+    <row r="73" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>43219</v>
       </c>
@@ -7474,18 +11124,70 @@
         <v>610</v>
       </c>
       <c r="F73" s="25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>28060</v>
       </c>
       <c r="G73" s="21">
         <v>291.82400000000001</v>
       </c>
-      <c r="K73" s="26"/>
-      <c r="L73" s="26"/>
-      <c r="O73" s="26"/>
-      <c r="P73" s="27"/>
-    </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="H73">
+        <f>YEAR(Table3[[#This Row],[Order Date]])</f>
+        <v>2018</v>
+      </c>
+      <c r="I73">
+        <f>MONTH(Table3[[#This Row],[Order Date]])</f>
+        <v>4</v>
+      </c>
+      <c r="J73">
+        <f>DAY(Table3[[#This Row],[Order Date]])</f>
+        <v>29</v>
+      </c>
+      <c r="K73" s="26">
+        <f>DATE(Table3[[#This Row],[Year]]-1,Table3[[#This Row],[Month]],Table3[[#This Row],[Day]])</f>
+        <v>42854</v>
+      </c>
+      <c r="L73" s="26">
+        <f>DATE(Table3[[#This Row],[Year]],Table3[[#This Row],[Month]],0)</f>
+        <v>43190</v>
+      </c>
+      <c r="M73" s="26">
+        <f>EOMONTH(Table3[[#This Row],[Order Date]],0)</f>
+        <v>43220</v>
+      </c>
+      <c r="N73">
+        <f>WEEKDAY(Table3[[#This Row],[Order Date]],1)</f>
+        <v>1</v>
+      </c>
+      <c r="O73">
+        <f>WEEKNUM(Table3[[#This Row],[Order Date]],1)</f>
+        <v>18</v>
+      </c>
+      <c r="P73" s="26">
+        <f t="shared" ca="1" si="5"/>
+        <v>45524</v>
+      </c>
+      <c r="Q73" s="27">
+        <f t="shared" ca="1" si="6"/>
+        <v>45524.194956250001</v>
+      </c>
+      <c r="R73" t="str">
+        <f>TEXT(Table3[[#This Row],[Order Date]],"mmm")</f>
+        <v>Apr</v>
+      </c>
+      <c r="S73" t="str">
+        <f>TEXT(Table3[[#This Row],[Order Date]],"mmmm")</f>
+        <v>April</v>
+      </c>
+      <c r="T73" t="str">
+        <f>TEXT(Table3[[#This Row],[Order Date]],"ddd")</f>
+        <v>Sun</v>
+      </c>
+      <c r="U73" t="str">
+        <f>TEXT(Table3[[#This Row],[Order Date]],"dddd")</f>
+        <v>Sunday</v>
+      </c>
+    </row>
+    <row r="74" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>43226</v>
       </c>
@@ -7502,18 +11204,70 @@
         <v>930</v>
       </c>
       <c r="F74" s="25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>2780.7000000000003</v>
       </c>
       <c r="G74" s="21">
         <v>26.416650000000001</v>
       </c>
-      <c r="K74" s="26"/>
-      <c r="L74" s="26"/>
-      <c r="O74" s="26"/>
-      <c r="P74" s="27"/>
-    </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="H74">
+        <f>YEAR(Table3[[#This Row],[Order Date]])</f>
+        <v>2018</v>
+      </c>
+      <c r="I74">
+        <f>MONTH(Table3[[#This Row],[Order Date]])</f>
+        <v>5</v>
+      </c>
+      <c r="J74">
+        <f>DAY(Table3[[#This Row],[Order Date]])</f>
+        <v>6</v>
+      </c>
+      <c r="K74" s="26">
+        <f>DATE(Table3[[#This Row],[Year]]-1,Table3[[#This Row],[Month]],Table3[[#This Row],[Day]])</f>
+        <v>42861</v>
+      </c>
+      <c r="L74" s="26">
+        <f>DATE(Table3[[#This Row],[Year]],Table3[[#This Row],[Month]],0)</f>
+        <v>43220</v>
+      </c>
+      <c r="M74" s="26">
+        <f>EOMONTH(Table3[[#This Row],[Order Date]],0)</f>
+        <v>43251</v>
+      </c>
+      <c r="N74">
+        <f>WEEKDAY(Table3[[#This Row],[Order Date]],1)</f>
+        <v>1</v>
+      </c>
+      <c r="O74">
+        <f>WEEKNUM(Table3[[#This Row],[Order Date]],1)</f>
+        <v>19</v>
+      </c>
+      <c r="P74" s="26">
+        <f t="shared" ca="1" si="5"/>
+        <v>45524</v>
+      </c>
+      <c r="Q74" s="27">
+        <f t="shared" ca="1" si="6"/>
+        <v>45524.194956134263</v>
+      </c>
+      <c r="R74" t="str">
+        <f>TEXT(Table3[[#This Row],[Order Date]],"mmm")</f>
+        <v>May</v>
+      </c>
+      <c r="S74" t="str">
+        <f>TEXT(Table3[[#This Row],[Order Date]],"mmmm")</f>
+        <v>May</v>
+      </c>
+      <c r="T74" t="str">
+        <f>TEXT(Table3[[#This Row],[Order Date]],"ddd")</f>
+        <v>Sun</v>
+      </c>
+      <c r="U74" t="str">
+        <f>TEXT(Table3[[#This Row],[Order Date]],"dddd")</f>
+        <v>Sunday</v>
+      </c>
+    </row>
+    <row r="75" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>43233</v>
       </c>
@@ -7530,18 +11284,70 @@
         <v>120</v>
       </c>
       <c r="F75" s="25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>3600</v>
       </c>
       <c r="G75" s="21">
         <v>200.85</v>
       </c>
-      <c r="K75" s="26"/>
-      <c r="L75" s="26"/>
-      <c r="O75" s="26"/>
-      <c r="P75" s="27"/>
-    </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="H75">
+        <f>YEAR(Table3[[#This Row],[Order Date]])</f>
+        <v>2018</v>
+      </c>
+      <c r="I75">
+        <f>MONTH(Table3[[#This Row],[Order Date]])</f>
+        <v>5</v>
+      </c>
+      <c r="J75">
+        <f>DAY(Table3[[#This Row],[Order Date]])</f>
+        <v>13</v>
+      </c>
+      <c r="K75" s="26">
+        <f>DATE(Table3[[#This Row],[Year]]-1,Table3[[#This Row],[Month]],Table3[[#This Row],[Day]])</f>
+        <v>42868</v>
+      </c>
+      <c r="L75" s="26">
+        <f>DATE(Table3[[#This Row],[Year]],Table3[[#This Row],[Month]],0)</f>
+        <v>43220</v>
+      </c>
+      <c r="M75" s="26">
+        <f>EOMONTH(Table3[[#This Row],[Order Date]],0)</f>
+        <v>43251</v>
+      </c>
+      <c r="N75">
+        <f>WEEKDAY(Table3[[#This Row],[Order Date]],1)</f>
+        <v>1</v>
+      </c>
+      <c r="O75">
+        <f>WEEKNUM(Table3[[#This Row],[Order Date]],1)</f>
+        <v>20</v>
+      </c>
+      <c r="P75" s="26">
+        <f t="shared" ca="1" si="5"/>
+        <v>45524</v>
+      </c>
+      <c r="Q75" s="27">
+        <f t="shared" ca="1" si="6"/>
+        <v>45524.194956134263</v>
+      </c>
+      <c r="R75" t="str">
+        <f>TEXT(Table3[[#This Row],[Order Date]],"mmm")</f>
+        <v>May</v>
+      </c>
+      <c r="S75" t="str">
+        <f>TEXT(Table3[[#This Row],[Order Date]],"mmmm")</f>
+        <v>May</v>
+      </c>
+      <c r="T75" t="str">
+        <f>TEXT(Table3[[#This Row],[Order Date]],"ddd")</f>
+        <v>Sun</v>
+      </c>
+      <c r="U75" t="str">
+        <f>TEXT(Table3[[#This Row],[Order Date]],"dddd")</f>
+        <v>Sunday</v>
+      </c>
+    </row>
+    <row r="76" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>43240</v>
       </c>
@@ -7558,18 +11364,70 @@
         <v>110</v>
       </c>
       <c r="F76" s="25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>385</v>
       </c>
       <c r="G76" s="21">
         <v>3.7345000000000002</v>
       </c>
-      <c r="K76" s="26"/>
-      <c r="L76" s="26"/>
-      <c r="O76" s="26"/>
-      <c r="P76" s="27"/>
-    </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="H76">
+        <f>YEAR(Table3[[#This Row],[Order Date]])</f>
+        <v>2018</v>
+      </c>
+      <c r="I76">
+        <f>MONTH(Table3[[#This Row],[Order Date]])</f>
+        <v>5</v>
+      </c>
+      <c r="J76">
+        <f>DAY(Table3[[#This Row],[Order Date]])</f>
+        <v>20</v>
+      </c>
+      <c r="K76" s="26">
+        <f>DATE(Table3[[#This Row],[Year]]-1,Table3[[#This Row],[Month]],Table3[[#This Row],[Day]])</f>
+        <v>42875</v>
+      </c>
+      <c r="L76" s="26">
+        <f>DATE(Table3[[#This Row],[Year]],Table3[[#This Row],[Month]],0)</f>
+        <v>43220</v>
+      </c>
+      <c r="M76" s="26">
+        <f>EOMONTH(Table3[[#This Row],[Order Date]],0)</f>
+        <v>43251</v>
+      </c>
+      <c r="N76">
+        <f>WEEKDAY(Table3[[#This Row],[Order Date]],1)</f>
+        <v>1</v>
+      </c>
+      <c r="O76">
+        <f>WEEKNUM(Table3[[#This Row],[Order Date]],1)</f>
+        <v>21</v>
+      </c>
+      <c r="P76" s="26">
+        <f t="shared" ca="1" si="5"/>
+        <v>45524</v>
+      </c>
+      <c r="Q76" s="27">
+        <f t="shared" ca="1" si="6"/>
+        <v>45524.194956250001</v>
+      </c>
+      <c r="R76" t="str">
+        <f>TEXT(Table3[[#This Row],[Order Date]],"mmm")</f>
+        <v>May</v>
+      </c>
+      <c r="S76" t="str">
+        <f>TEXT(Table3[[#This Row],[Order Date]],"mmmm")</f>
+        <v>May</v>
+      </c>
+      <c r="T76" t="str">
+        <f>TEXT(Table3[[#This Row],[Order Date]],"ddd")</f>
+        <v>Sun</v>
+      </c>
+      <c r="U76" t="str">
+        <f>TEXT(Table3[[#This Row],[Order Date]],"dddd")</f>
+        <v>Sunday</v>
+      </c>
+    </row>
+    <row r="77" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>43247</v>
       </c>
@@ -7586,18 +11444,70 @@
         <v>890</v>
       </c>
       <c r="F77" s="25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>8588.5</v>
       </c>
       <c r="G77" s="21">
         <v>81.59075</v>
       </c>
-      <c r="K77" s="26"/>
-      <c r="L77" s="26"/>
-      <c r="O77" s="26"/>
-      <c r="P77" s="27"/>
-    </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="H77">
+        <f>YEAR(Table3[[#This Row],[Order Date]])</f>
+        <v>2018</v>
+      </c>
+      <c r="I77">
+        <f>MONTH(Table3[[#This Row],[Order Date]])</f>
+        <v>5</v>
+      </c>
+      <c r="J77">
+        <f>DAY(Table3[[#This Row],[Order Date]])</f>
+        <v>27</v>
+      </c>
+      <c r="K77" s="26">
+        <f>DATE(Table3[[#This Row],[Year]]-1,Table3[[#This Row],[Month]],Table3[[#This Row],[Day]])</f>
+        <v>42882</v>
+      </c>
+      <c r="L77" s="26">
+        <f>DATE(Table3[[#This Row],[Year]],Table3[[#This Row],[Month]],0)</f>
+        <v>43220</v>
+      </c>
+      <c r="M77" s="26">
+        <f>EOMONTH(Table3[[#This Row],[Order Date]],0)</f>
+        <v>43251</v>
+      </c>
+      <c r="N77">
+        <f>WEEKDAY(Table3[[#This Row],[Order Date]],1)</f>
+        <v>1</v>
+      </c>
+      <c r="O77">
+        <f>WEEKNUM(Table3[[#This Row],[Order Date]],1)</f>
+        <v>22</v>
+      </c>
+      <c r="P77" s="26">
+        <f t="shared" ca="1" si="5"/>
+        <v>45524</v>
+      </c>
+      <c r="Q77" s="27">
+        <f t="shared" ca="1" si="6"/>
+        <v>45524.194956134263</v>
+      </c>
+      <c r="R77" t="str">
+        <f>TEXT(Table3[[#This Row],[Order Date]],"mmm")</f>
+        <v>May</v>
+      </c>
+      <c r="S77" t="str">
+        <f>TEXT(Table3[[#This Row],[Order Date]],"mmmm")</f>
+        <v>May</v>
+      </c>
+      <c r="T77" t="str">
+        <f>TEXT(Table3[[#This Row],[Order Date]],"ddd")</f>
+        <v>Sun</v>
+      </c>
+      <c r="U77" t="str">
+        <f>TEXT(Table3[[#This Row],[Order Date]],"dddd")</f>
+        <v>Sunday</v>
+      </c>
+    </row>
+    <row r="78" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>43254</v>
       </c>
@@ -7614,18 +11524,70 @@
         <v>480</v>
       </c>
       <c r="F78" s="25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>1435.2</v>
       </c>
       <c r="G78" s="21">
         <v>13.634400000000001</v>
       </c>
-      <c r="K78" s="26"/>
-      <c r="L78" s="26"/>
-      <c r="O78" s="26"/>
-      <c r="P78" s="27"/>
-    </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="H78">
+        <f>YEAR(Table3[[#This Row],[Order Date]])</f>
+        <v>2018</v>
+      </c>
+      <c r="I78">
+        <f>MONTH(Table3[[#This Row],[Order Date]])</f>
+        <v>6</v>
+      </c>
+      <c r="J78">
+        <f>DAY(Table3[[#This Row],[Order Date]])</f>
+        <v>3</v>
+      </c>
+      <c r="K78" s="26">
+        <f>DATE(Table3[[#This Row],[Year]]-1,Table3[[#This Row],[Month]],Table3[[#This Row],[Day]])</f>
+        <v>42889</v>
+      </c>
+      <c r="L78" s="26">
+        <f>DATE(Table3[[#This Row],[Year]],Table3[[#This Row],[Month]],0)</f>
+        <v>43251</v>
+      </c>
+      <c r="M78" s="26">
+        <f>EOMONTH(Table3[[#This Row],[Order Date]],0)</f>
+        <v>43281</v>
+      </c>
+      <c r="N78">
+        <f>WEEKDAY(Table3[[#This Row],[Order Date]],1)</f>
+        <v>1</v>
+      </c>
+      <c r="O78">
+        <f>WEEKNUM(Table3[[#This Row],[Order Date]],1)</f>
+        <v>23</v>
+      </c>
+      <c r="P78" s="26">
+        <f t="shared" ca="1" si="5"/>
+        <v>45524</v>
+      </c>
+      <c r="Q78" s="27">
+        <f t="shared" ca="1" si="6"/>
+        <v>45524.194956250001</v>
+      </c>
+      <c r="R78" t="str">
+        <f>TEXT(Table3[[#This Row],[Order Date]],"mmm")</f>
+        <v>Jun</v>
+      </c>
+      <c r="S78" t="str">
+        <f>TEXT(Table3[[#This Row],[Order Date]],"mmmm")</f>
+        <v>June</v>
+      </c>
+      <c r="T78" t="str">
+        <f>TEXT(Table3[[#This Row],[Order Date]],"ddd")</f>
+        <v>Sun</v>
+      </c>
+      <c r="U78" t="str">
+        <f>TEXT(Table3[[#This Row],[Order Date]],"dddd")</f>
+        <v>Sunday</v>
+      </c>
+    </row>
+    <row r="79" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>43261</v>
       </c>
@@ -7642,18 +11604,70 @@
         <v>720</v>
       </c>
       <c r="F79" s="25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>6948</v>
       </c>
       <c r="G79" s="21">
         <v>72.954000000000008</v>
       </c>
-      <c r="K79" s="26"/>
-      <c r="L79" s="26"/>
-      <c r="O79" s="26"/>
-      <c r="P79" s="27"/>
-    </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="H79">
+        <f>YEAR(Table3[[#This Row],[Order Date]])</f>
+        <v>2018</v>
+      </c>
+      <c r="I79">
+        <f>MONTH(Table3[[#This Row],[Order Date]])</f>
+        <v>6</v>
+      </c>
+      <c r="J79">
+        <f>DAY(Table3[[#This Row],[Order Date]])</f>
+        <v>10</v>
+      </c>
+      <c r="K79" s="26">
+        <f>DATE(Table3[[#This Row],[Year]]-1,Table3[[#This Row],[Month]],Table3[[#This Row],[Day]])</f>
+        <v>42896</v>
+      </c>
+      <c r="L79" s="26">
+        <f>DATE(Table3[[#This Row],[Year]],Table3[[#This Row],[Month]],0)</f>
+        <v>43251</v>
+      </c>
+      <c r="M79" s="26">
+        <f>EOMONTH(Table3[[#This Row],[Order Date]],0)</f>
+        <v>43281</v>
+      </c>
+      <c r="N79">
+        <f>WEEKDAY(Table3[[#This Row],[Order Date]],1)</f>
+        <v>1</v>
+      </c>
+      <c r="O79">
+        <f>WEEKNUM(Table3[[#This Row],[Order Date]],1)</f>
+        <v>24</v>
+      </c>
+      <c r="P79" s="26">
+        <f t="shared" ca="1" si="5"/>
+        <v>45524</v>
+      </c>
+      <c r="Q79" s="27">
+        <f t="shared" ca="1" si="6"/>
+        <v>45524.194956250001</v>
+      </c>
+      <c r="R79" t="str">
+        <f>TEXT(Table3[[#This Row],[Order Date]],"mmm")</f>
+        <v>Jun</v>
+      </c>
+      <c r="S79" t="str">
+        <f>TEXT(Table3[[#This Row],[Order Date]],"mmmm")</f>
+        <v>June</v>
+      </c>
+      <c r="T79" t="str">
+        <f>TEXT(Table3[[#This Row],[Order Date]],"ddd")</f>
+        <v>Sun</v>
+      </c>
+      <c r="U79" t="str">
+        <f>TEXT(Table3[[#This Row],[Order Date]],"dddd")</f>
+        <v>Sunday</v>
+      </c>
+    </row>
+    <row r="80" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>43268</v>
       </c>
@@ -7667,18 +11681,70 @@
         <v>0</v>
       </c>
       <c r="F80" s="25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="G80" s="21">
         <v>27</v>
       </c>
-      <c r="K80" s="26"/>
-      <c r="L80" s="26"/>
-      <c r="O80" s="26"/>
-      <c r="P80" s="27"/>
-    </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="H80">
+        <f>YEAR(Table3[[#This Row],[Order Date]])</f>
+        <v>2018</v>
+      </c>
+      <c r="I80">
+        <f>MONTH(Table3[[#This Row],[Order Date]])</f>
+        <v>6</v>
+      </c>
+      <c r="J80">
+        <f>DAY(Table3[[#This Row],[Order Date]])</f>
+        <v>17</v>
+      </c>
+      <c r="K80" s="26">
+        <f>DATE(Table3[[#This Row],[Year]]-1,Table3[[#This Row],[Month]],Table3[[#This Row],[Day]])</f>
+        <v>42903</v>
+      </c>
+      <c r="L80" s="26">
+        <f>DATE(Table3[[#This Row],[Year]],Table3[[#This Row],[Month]],0)</f>
+        <v>43251</v>
+      </c>
+      <c r="M80" s="26">
+        <f>EOMONTH(Table3[[#This Row],[Order Date]],0)</f>
+        <v>43281</v>
+      </c>
+      <c r="N80">
+        <f>WEEKDAY(Table3[[#This Row],[Order Date]],1)</f>
+        <v>1</v>
+      </c>
+      <c r="O80">
+        <f>WEEKNUM(Table3[[#This Row],[Order Date]],1)</f>
+        <v>25</v>
+      </c>
+      <c r="P80" s="26">
+        <f t="shared" ca="1" si="5"/>
+        <v>45524</v>
+      </c>
+      <c r="Q80" s="27">
+        <f t="shared" ca="1" si="6"/>
+        <v>45524.194956250001</v>
+      </c>
+      <c r="R80" t="str">
+        <f>TEXT(Table3[[#This Row],[Order Date]],"mmm")</f>
+        <v>Jun</v>
+      </c>
+      <c r="S80" t="str">
+        <f>TEXT(Table3[[#This Row],[Order Date]],"mmmm")</f>
+        <v>June</v>
+      </c>
+      <c r="T80" t="str">
+        <f>TEXT(Table3[[#This Row],[Order Date]],"ddd")</f>
+        <v>Sun</v>
+      </c>
+      <c r="U80" t="str">
+        <f>TEXT(Table3[[#This Row],[Order Date]],"dddd")</f>
+        <v>Sunday</v>
+      </c>
+    </row>
+    <row r="81" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>43275</v>
       </c>
@@ -7695,18 +11761,70 @@
         <v>910</v>
       </c>
       <c r="F81" s="25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>6370</v>
       </c>
       <c r="G81" s="21">
         <v>13.719999999999999</v>
       </c>
-      <c r="K81" s="26"/>
-      <c r="L81" s="26"/>
-      <c r="O81" s="26"/>
-      <c r="P81" s="27"/>
-    </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="H81">
+        <f>YEAR(Table3[[#This Row],[Order Date]])</f>
+        <v>2018</v>
+      </c>
+      <c r="I81">
+        <f>MONTH(Table3[[#This Row],[Order Date]])</f>
+        <v>6</v>
+      </c>
+      <c r="J81">
+        <f>DAY(Table3[[#This Row],[Order Date]])</f>
+        <v>24</v>
+      </c>
+      <c r="K81" s="26">
+        <f>DATE(Table3[[#This Row],[Year]]-1,Table3[[#This Row],[Month]],Table3[[#This Row],[Day]])</f>
+        <v>42910</v>
+      </c>
+      <c r="L81" s="26">
+        <f>DATE(Table3[[#This Row],[Year]],Table3[[#This Row],[Month]],0)</f>
+        <v>43251</v>
+      </c>
+      <c r="M81" s="26">
+        <f>EOMONTH(Table3[[#This Row],[Order Date]],0)</f>
+        <v>43281</v>
+      </c>
+      <c r="N81">
+        <f>WEEKDAY(Table3[[#This Row],[Order Date]],1)</f>
+        <v>1</v>
+      </c>
+      <c r="O81">
+        <f>WEEKNUM(Table3[[#This Row],[Order Date]],1)</f>
+        <v>26</v>
+      </c>
+      <c r="P81" s="26">
+        <f t="shared" ca="1" si="5"/>
+        <v>45524</v>
+      </c>
+      <c r="Q81" s="27">
+        <f t="shared" ca="1" si="6"/>
+        <v>45524.194956250001</v>
+      </c>
+      <c r="R81" t="str">
+        <f>TEXT(Table3[[#This Row],[Order Date]],"mmm")</f>
+        <v>Jun</v>
+      </c>
+      <c r="S81" t="str">
+        <f>TEXT(Table3[[#This Row],[Order Date]],"mmmm")</f>
+        <v>June</v>
+      </c>
+      <c r="T81" t="str">
+        <f>TEXT(Table3[[#This Row],[Order Date]],"ddd")</f>
+        <v>Sun</v>
+      </c>
+      <c r="U81" t="str">
+        <f>TEXT(Table3[[#This Row],[Order Date]],"dddd")</f>
+        <v>Sunday</v>
+      </c>
+    </row>
+    <row r="82" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>43282</v>
       </c>
@@ -7723,18 +11841,70 @@
         <v>340</v>
       </c>
       <c r="F82" s="25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>3281</v>
       </c>
       <c r="G82" s="21">
         <v>68.582550000000012</v>
       </c>
-      <c r="K82" s="26"/>
-      <c r="L82" s="26"/>
-      <c r="O82" s="26"/>
-      <c r="P82" s="27"/>
-    </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="H82">
+        <f>YEAR(Table3[[#This Row],[Order Date]])</f>
+        <v>2018</v>
+      </c>
+      <c r="I82">
+        <f>MONTH(Table3[[#This Row],[Order Date]])</f>
+        <v>7</v>
+      </c>
+      <c r="J82">
+        <f>DAY(Table3[[#This Row],[Order Date]])</f>
+        <v>1</v>
+      </c>
+      <c r="K82" s="26">
+        <f>DATE(Table3[[#This Row],[Year]]-1,Table3[[#This Row],[Month]],Table3[[#This Row],[Day]])</f>
+        <v>42917</v>
+      </c>
+      <c r="L82" s="26">
+        <f>DATE(Table3[[#This Row],[Year]],Table3[[#This Row],[Month]],0)</f>
+        <v>43281</v>
+      </c>
+      <c r="M82" s="26">
+        <f>EOMONTH(Table3[[#This Row],[Order Date]],0)</f>
+        <v>43312</v>
+      </c>
+      <c r="N82">
+        <f>WEEKDAY(Table3[[#This Row],[Order Date]],1)</f>
+        <v>1</v>
+      </c>
+      <c r="O82">
+        <f>WEEKNUM(Table3[[#This Row],[Order Date]],1)</f>
+        <v>27</v>
+      </c>
+      <c r="P82" s="26">
+        <f t="shared" ca="1" si="5"/>
+        <v>45524</v>
+      </c>
+      <c r="Q82" s="27">
+        <f t="shared" ca="1" si="6"/>
+        <v>45524.194956134263</v>
+      </c>
+      <c r="R82" t="str">
+        <f>TEXT(Table3[[#This Row],[Order Date]],"mmm")</f>
+        <v>Jul</v>
+      </c>
+      <c r="S82" t="str">
+        <f>TEXT(Table3[[#This Row],[Order Date]],"mmmm")</f>
+        <v>July</v>
+      </c>
+      <c r="T82" t="str">
+        <f>TEXT(Table3[[#This Row],[Order Date]],"ddd")</f>
+        <v>Sun</v>
+      </c>
+      <c r="U82" t="str">
+        <f>TEXT(Table3[[#This Row],[Order Date]],"dddd")</f>
+        <v>Sunday</v>
+      </c>
+    </row>
+    <row r="83" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>43289</v>
       </c>
@@ -7751,18 +11921,70 @@
         <v>890</v>
       </c>
       <c r="F83" s="25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>47170</v>
       </c>
       <c r="G83" s="21">
         <v>448.11500000000001</v>
       </c>
-      <c r="K83" s="26"/>
-      <c r="L83" s="26"/>
-      <c r="O83" s="26"/>
-      <c r="P83" s="27"/>
-    </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="H83">
+        <f>YEAR(Table3[[#This Row],[Order Date]])</f>
+        <v>2018</v>
+      </c>
+      <c r="I83">
+        <f>MONTH(Table3[[#This Row],[Order Date]])</f>
+        <v>7</v>
+      </c>
+      <c r="J83">
+        <f>DAY(Table3[[#This Row],[Order Date]])</f>
+        <v>8</v>
+      </c>
+      <c r="K83" s="26">
+        <f>DATE(Table3[[#This Row],[Year]]-1,Table3[[#This Row],[Month]],Table3[[#This Row],[Day]])</f>
+        <v>42924</v>
+      </c>
+      <c r="L83" s="26">
+        <f>DATE(Table3[[#This Row],[Year]],Table3[[#This Row],[Month]],0)</f>
+        <v>43281</v>
+      </c>
+      <c r="M83" s="26">
+        <f>EOMONTH(Table3[[#This Row],[Order Date]],0)</f>
+        <v>43312</v>
+      </c>
+      <c r="N83">
+        <f>WEEKDAY(Table3[[#This Row],[Order Date]],1)</f>
+        <v>1</v>
+      </c>
+      <c r="O83">
+        <f>WEEKNUM(Table3[[#This Row],[Order Date]],1)</f>
+        <v>28</v>
+      </c>
+      <c r="P83" s="26">
+        <f t="shared" ca="1" si="5"/>
+        <v>45524</v>
+      </c>
+      <c r="Q83" s="27">
+        <f t="shared" ca="1" si="6"/>
+        <v>45524.194956134263</v>
+      </c>
+      <c r="R83" t="str">
+        <f>TEXT(Table3[[#This Row],[Order Date]],"mmm")</f>
+        <v>Jul</v>
+      </c>
+      <c r="S83" t="str">
+        <f>TEXT(Table3[[#This Row],[Order Date]],"mmmm")</f>
+        <v>July</v>
+      </c>
+      <c r="T83" t="str">
+        <f>TEXT(Table3[[#This Row],[Order Date]],"ddd")</f>
+        <v>Sun</v>
+      </c>
+      <c r="U83" t="str">
+        <f>TEXT(Table3[[#This Row],[Order Date]],"dddd")</f>
+        <v>Sunday</v>
+      </c>
+    </row>
+    <row r="84" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B84" s="23"/>
       <c r="G84" s="24"/>
     </row>

--- a/excel/excel-training/Level 2/Data Preparation - BEGIN.xlsx
+++ b/excel/excel-training/Level 2/Data Preparation - BEGIN.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sai_akella/Desktop/PSSM/GITHUB/data-science/excel/excel-training/Level 2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D5999D4-7384-E244-8A24-A25BC468C60D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{136D064C-4FEA-B044-B484-C3E568E2BF79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="707" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="707" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TOC" sheetId="22" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1422" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1425" uniqueCount="229">
   <si>
     <t>Date</t>
   </si>
@@ -728,6 +728,15 @@
   </si>
   <si>
     <t>^+; command+;</t>
+  </si>
+  <si>
+    <t>Full Name (&amp;)</t>
+  </si>
+  <si>
+    <t>TEXTJOIN</t>
+  </si>
+  <si>
+    <t>Max % of Total: 24.4%</t>
   </si>
 </sst>
 </file>
@@ -746,7 +755,7 @@
     <numFmt numFmtId="169" formatCode="&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="170" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -858,6 +867,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -954,11 +969,11 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -970,86 +985,12 @@
     <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
     <cellStyle name="Per cent" xfId="5" builtinId="5"/>
   </cellStyles>
-  <dxfs count="31">
+  <dxfs count="33">
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt numFmtId="170" formatCode="0.0%"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="27" formatCode="d/m/yyyy\ h:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="d/m/yyyy"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="19" formatCode="d/m/yyyy"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="d/m/yyyy"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="19" formatCode="d/m/yyyy"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -1193,25 +1134,6 @@
       </font>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="170" formatCode="0.0%"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="170" formatCode="0.0%"/>
     </dxf>
     <dxf>
@@ -1231,7 +1153,30 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="27" formatCode="d/m/yyyy\ h:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="d/m/yyyy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <font>
@@ -1250,6 +1195,50 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="19" formatCode="d/m/yyyy"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="d/m/yyyy"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="19" formatCode="d/m/yyyy"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <fill>
@@ -1319,10 +1308,10 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="TableStyleLight8 2 2" pivot="0" count="4" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="wholeTable" dxfId="30"/>
-      <tableStyleElement type="headerRow" dxfId="29"/>
-      <tableStyleElement type="totalRow" dxfId="28"/>
-      <tableStyleElement type="secondRowStripe" dxfId="27"/>
+      <tableStyleElement type="wholeTable" dxfId="32"/>
+      <tableStyleElement type="headerRow" dxfId="31"/>
+      <tableStyleElement type="totalRow" dxfId="30"/>
+      <tableStyleElement type="secondRowStripe" dxfId="29"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -2439,46 +2428,46 @@
       <calculatedColumnFormula>D4*E4</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="7" xr3:uid="{35C06533-765B-49F8-94C5-2A818018AB28}" name="Shipping Fee"/>
-    <tableColumn id="8" xr3:uid="{D029D88E-18DC-4116-B705-992EEF65D33B}" name="Year" dataDxfId="13">
+    <tableColumn id="8" xr3:uid="{D029D88E-18DC-4116-B705-992EEF65D33B}" name="Year" dataDxfId="28">
       <calculatedColumnFormula>YEAR(Table3[[#This Row],[Order Date]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{A9752B2A-BBCB-4D7F-B94F-A4976427FAB5}" name="Month" dataDxfId="12">
+    <tableColumn id="9" xr3:uid="{A9752B2A-BBCB-4D7F-B94F-A4976427FAB5}" name="Month" dataDxfId="27">
       <calculatedColumnFormula>MONTH(Table3[[#This Row],[Order Date]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{37AE1D0E-52AB-4358-AED4-BEE311EBF505}" name="Day" dataDxfId="11">
+    <tableColumn id="10" xr3:uid="{37AE1D0E-52AB-4358-AED4-BEE311EBF505}" name="Day" dataDxfId="26">
       <calculatedColumnFormula>DAY(Table3[[#This Row],[Order Date]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{EE9ADBB0-837B-4417-8280-628E0E4E09A4}" name="Year +/-" dataDxfId="10">
+    <tableColumn id="14" xr3:uid="{EE9ADBB0-837B-4417-8280-628E0E4E09A4}" name="Year +/-" dataDxfId="25">
       <calculatedColumnFormula>DATE(Table3[[#This Row],[Year]]-1,Table3[[#This Row],[Month]],Table3[[#This Row],[Day]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" xr3:uid="{7B7D1C73-75FD-0841-A0D1-7FD648B89C41}" name="Date Trick" dataDxfId="9">
+    <tableColumn id="17" xr3:uid="{7B7D1C73-75FD-0841-A0D1-7FD648B89C41}" name="Date Trick" dataDxfId="24">
       <calculatedColumnFormula>DATE(Table3[[#This Row],[Year]],Table3[[#This Row],[Month]],0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{8DC2B5DD-B9E5-4096-9EBE-3015CBF003E5}" name="End of Month" dataDxfId="8">
+    <tableColumn id="13" xr3:uid="{8DC2B5DD-B9E5-4096-9EBE-3015CBF003E5}" name="End of Month" dataDxfId="23">
       <calculatedColumnFormula>EOMONTH(Table3[[#This Row],[Order Date]],0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{99F0060E-55C5-4EE7-9EB9-87BCBC596672}" name="Week Day" dataDxfId="7">
+    <tableColumn id="11" xr3:uid="{99F0060E-55C5-4EE7-9EB9-87BCBC596672}" name="Week Day" dataDxfId="22">
       <calculatedColumnFormula>WEEKDAY(Table3[[#This Row],[Order Date]],1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{4F236E20-18A6-4521-A372-07B9EA2D40D1}" name="Week No." dataDxfId="6">
+    <tableColumn id="12" xr3:uid="{4F236E20-18A6-4521-A372-07B9EA2D40D1}" name="Week No." dataDxfId="21">
       <calculatedColumnFormula>WEEKNUM(Table3[[#This Row],[Order Date]],1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{2407263E-AD32-4E86-8573-05C0D4961D09}" name="Today" dataDxfId="5">
+    <tableColumn id="15" xr3:uid="{2407263E-AD32-4E86-8573-05C0D4961D09}" name="Today" dataDxfId="20">
       <calculatedColumnFormula>TODAY()</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{C1D85BB0-7CC7-49B8-A3BB-D4ADDFD2D83E}" name="Now" dataDxfId="4">
+    <tableColumn id="16" xr3:uid="{C1D85BB0-7CC7-49B8-A3BB-D4ADDFD2D83E}" name="Now" dataDxfId="19">
       <calculatedColumnFormula>NOW()</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="21" xr3:uid="{E0708A8B-416B-4107-ABB5-0AEE679D400F}" name="Month Name" dataDxfId="3">
+    <tableColumn id="21" xr3:uid="{E0708A8B-416B-4107-ABB5-0AEE679D400F}" name="Month Name" dataDxfId="18">
       <calculatedColumnFormula>TEXT(Table3[[#This Row],[Order Date]],"mmm")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="22" xr3:uid="{7EE66797-2A78-4418-A8D5-5990621F28D8}" name="Full Month Name" dataDxfId="2">
+    <tableColumn id="22" xr3:uid="{7EE66797-2A78-4418-A8D5-5990621F28D8}" name="Full Month Name" dataDxfId="17">
       <calculatedColumnFormula>TEXT(Table3[[#This Row],[Order Date]],"mmmm")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="23" xr3:uid="{FC1AA081-8D9A-45A5-9C70-0EB70FEE1676}" name="Day Name" dataDxfId="1">
+    <tableColumn id="23" xr3:uid="{FC1AA081-8D9A-45A5-9C70-0EB70FEE1676}" name="Day Name" dataDxfId="16">
       <calculatedColumnFormula>TEXT(Table3[[#This Row],[Order Date]],"ddd")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="24" xr3:uid="{38B5EAB8-B93A-4010-AE1A-7E490E811913}" name="Full Day Name" dataDxfId="0">
+    <tableColumn id="24" xr3:uid="{38B5EAB8-B93A-4010-AE1A-7E490E811913}" name="Full Day Name" dataDxfId="15">
       <calculatedColumnFormula>TEXT(Table3[[#This Row],[Order Date]],"dddd")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2487,16 +2476,22 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{DE795445-586A-42B5-93E6-3B9C7C9C30B0}" name="tblSalesReps" displayName="tblSalesReps" ref="A4:D13" totalsRowCount="1">
-  <autoFilter ref="A4:D12" xr:uid="{E7D6A073-9AA4-4109-B82E-A107B011AF4F}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:D12">
-    <sortCondition descending="1" ref="C4:C12"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{DE795445-586A-42B5-93E6-3B9C7C9C30B0}" name="tblSalesReps" displayName="tblSalesReps" ref="A4:F13" totalsRowCount="1">
+  <autoFilter ref="A4:F12" xr:uid="{E7D6A073-9AA4-4109-B82E-A107B011AF4F}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:F12">
+    <sortCondition descending="1" ref="E4:E12"/>
   </sortState>
-  <tableColumns count="4">
+  <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{BD2E7C19-4CCD-4715-80D2-F3CEBA8B619D}" name="First Name" totalsRowLabel="Total"/>
     <tableColumn id="2" xr3:uid="{E0033434-99A9-4108-BEC3-3CA31150EB59}" name="Last Name"/>
-    <tableColumn id="3" xr3:uid="{C5FB64C1-6B7E-4177-9095-F2A5FD76111F}" name="Sales" totalsRowFunction="sum" dataDxfId="26" totalsRowDxfId="25" dataCellStyle="Currency"/>
-    <tableColumn id="4" xr3:uid="{269F38AE-02D6-429F-9F05-DA267B97CE09}" name="% of Total" totalsRowFunction="sum" dataDxfId="24" totalsRowDxfId="23">
+    <tableColumn id="5" xr3:uid="{4461EFB1-1983-094B-9B26-DF3CFBF971EA}" name="Full Name (&amp;)" dataDxfId="3">
+      <calculatedColumnFormula>tblSalesReps[[#This Row],[First Name]]&amp;" "&amp;tblSalesReps[[#This Row],[Last Name]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="7" xr3:uid="{3BED511C-319F-EC4C-9808-C26F30CA4D05}" name="TEXTJOIN" dataDxfId="2">
+      <calculatedColumnFormula>_xlfn.TEXTJOIN(" ",TRUE,tblSalesReps[[#This Row],[First Name]],tblSalesReps[[#This Row],[Last Name]])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{C5FB64C1-6B7E-4177-9095-F2A5FD76111F}" name="Sales" totalsRowFunction="sum" dataDxfId="14" totalsRowDxfId="1" dataCellStyle="Currency"/>
+    <tableColumn id="4" xr3:uid="{269F38AE-02D6-429F-9F05-DA267B97CE09}" name="% of Total" totalsRowFunction="sum" dataDxfId="13" totalsRowDxfId="0" totalsRowCellStyle="Per cent">
       <calculatedColumnFormula>tblSalesReps[[#This Row],[Sales]]/tblSalesReps[[#Totals],[Sales]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2505,13 +2500,13 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table14" displayName="Table14" ref="E7:I11" headerRowDxfId="22" dataDxfId="21" totalsRowDxfId="20">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table14" displayName="Table14" ref="E7:I11" headerRowDxfId="12" dataDxfId="11" totalsRowDxfId="10">
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Company" totalsRowLabel="Total" dataDxfId="19"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Region" dataDxfId="18"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Product" dataDxfId="17"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Month" dataDxfId="16"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Sales $" totalsRowFunction="sum" dataDxfId="15" totalsRowDxfId="14" dataCellStyle="Comma [0]"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Company" totalsRowLabel="Total" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Region" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Product" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Month" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Sales $" totalsRowFunction="sum" dataDxfId="5" totalsRowDxfId="4" dataCellStyle="Comma [0]"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8 2 2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="1"/>
 </table>
@@ -5497,7 +5492,7 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:U84"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="X13" sqref="X13"/>
     </sheetView>
   </sheetViews>
@@ -5527,7 +5522,7 @@
       <c r="A1" s="17" t="s">
         <v>185</v>
       </c>
-      <c r="P1" s="40" t="s">
+      <c r="P1" s="39" t="s">
         <v>224</v>
       </c>
       <c r="Q1" t="s">
@@ -5669,7 +5664,7 @@
       </c>
       <c r="Q4" s="27">
         <f t="shared" ref="Q4:Q35" ca="1" si="1">NOW()</f>
-        <v>45524.194956134263</v>
+        <v>45524.208247800925</v>
       </c>
       <c r="R4" t="str">
         <f>TEXT(Table3[[#This Row],[Order Date]],"mmm")</f>
@@ -5749,7 +5744,7 @@
       </c>
       <c r="Q5" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45524.194956134263</v>
+        <v>45524.208247800925</v>
       </c>
       <c r="R5" t="str">
         <f>TEXT(Table3[[#This Row],[Order Date]],"mmm")</f>
@@ -5829,7 +5824,7 @@
       </c>
       <c r="Q6" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45524.194956134263</v>
+        <v>45524.208247800925</v>
       </c>
       <c r="R6" t="str">
         <f>TEXT(Table3[[#This Row],[Order Date]],"mmm")</f>
@@ -5906,7 +5901,7 @@
       </c>
       <c r="Q7" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45524.194956134263</v>
+        <v>45524.208247800925</v>
       </c>
       <c r="R7" t="str">
         <f>TEXT(Table3[[#This Row],[Order Date]],"mmm")</f>
@@ -5986,7 +5981,7 @@
       </c>
       <c r="Q8" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45524.194956134263</v>
+        <v>45524.208247800925</v>
       </c>
       <c r="R8" t="str">
         <f>TEXT(Table3[[#This Row],[Order Date]],"mmm")</f>
@@ -6066,7 +6061,7 @@
       </c>
       <c r="Q9" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45524.194956134263</v>
+        <v>45524.208247800925</v>
       </c>
       <c r="R9" t="str">
         <f>TEXT(Table3[[#This Row],[Order Date]],"mmm")</f>
@@ -6146,7 +6141,7 @@
       </c>
       <c r="Q10" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45524.194956134263</v>
+        <v>45524.208247800925</v>
       </c>
       <c r="R10" t="str">
         <f>TEXT(Table3[[#This Row],[Order Date]],"mmm")</f>
@@ -6226,7 +6221,7 @@
       </c>
       <c r="Q11" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45524.194956134263</v>
+        <v>45524.208247800925</v>
       </c>
       <c r="R11" t="str">
         <f>TEXT(Table3[[#This Row],[Order Date]],"mmm")</f>
@@ -6306,7 +6301,7 @@
       </c>
       <c r="Q12" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45524.194956134263</v>
+        <v>45524.208247800925</v>
       </c>
       <c r="R12" t="str">
         <f>TEXT(Table3[[#This Row],[Order Date]],"mmm")</f>
@@ -6386,7 +6381,7 @@
       </c>
       <c r="Q13" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45524.194956134263</v>
+        <v>45524.208247800925</v>
       </c>
       <c r="R13" t="str">
         <f>TEXT(Table3[[#This Row],[Order Date]],"mmm")</f>
@@ -6466,7 +6461,7 @@
       </c>
       <c r="Q14" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45524.194956134263</v>
+        <v>45524.208247800925</v>
       </c>
       <c r="R14" t="str">
         <f>TEXT(Table3[[#This Row],[Order Date]],"mmm")</f>
@@ -6546,7 +6541,7 @@
       </c>
       <c r="Q15" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45524.194956134263</v>
+        <v>45524.208247800925</v>
       </c>
       <c r="R15" t="str">
         <f>TEXT(Table3[[#This Row],[Order Date]],"mmm")</f>
@@ -6626,7 +6621,7 @@
       </c>
       <c r="Q16" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45524.194956134263</v>
+        <v>45524.208247800925</v>
       </c>
       <c r="R16" t="str">
         <f>TEXT(Table3[[#This Row],[Order Date]],"mmm")</f>
@@ -6706,7 +6701,7 @@
       </c>
       <c r="Q17" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45524.194956134263</v>
+        <v>45524.208247800925</v>
       </c>
       <c r="R17" t="str">
         <f>TEXT(Table3[[#This Row],[Order Date]],"mmm")</f>
@@ -6786,7 +6781,7 @@
       </c>
       <c r="Q18" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45524.194956134263</v>
+        <v>45524.208247800925</v>
       </c>
       <c r="R18" t="str">
         <f>TEXT(Table3[[#This Row],[Order Date]],"mmm")</f>
@@ -6866,7 +6861,7 @@
       </c>
       <c r="Q19" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45524.194956134263</v>
+        <v>45524.208247800925</v>
       </c>
       <c r="R19" t="str">
         <f>TEXT(Table3[[#This Row],[Order Date]],"mmm")</f>
@@ -6946,7 +6941,7 @@
       </c>
       <c r="Q20" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45524.194956134263</v>
+        <v>45524.208247800925</v>
       </c>
       <c r="R20" t="str">
         <f>TEXT(Table3[[#This Row],[Order Date]],"mmm")</f>
@@ -7026,7 +7021,7 @@
       </c>
       <c r="Q21" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45524.194956134263</v>
+        <v>45524.208247800925</v>
       </c>
       <c r="R21" t="str">
         <f>TEXT(Table3[[#This Row],[Order Date]],"mmm")</f>
@@ -7106,7 +7101,7 @@
       </c>
       <c r="Q22" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45524.194956134263</v>
+        <v>45524.208247800925</v>
       </c>
       <c r="R22" t="str">
         <f>TEXT(Table3[[#This Row],[Order Date]],"mmm")</f>
@@ -7186,7 +7181,7 @@
       </c>
       <c r="Q23" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45524.194956134263</v>
+        <v>45524.208247800925</v>
       </c>
       <c r="R23" t="str">
         <f>TEXT(Table3[[#This Row],[Order Date]],"mmm")</f>
@@ -7266,7 +7261,7 @@
       </c>
       <c r="Q24" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45524.194956134263</v>
+        <v>45524.208247800925</v>
       </c>
       <c r="R24" t="str">
         <f>TEXT(Table3[[#This Row],[Order Date]],"mmm")</f>
@@ -7343,7 +7338,7 @@
       </c>
       <c r="Q25" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45524.194956134263</v>
+        <v>45524.208247800925</v>
       </c>
       <c r="R25" t="str">
         <f>TEXT(Table3[[#This Row],[Order Date]],"mmm")</f>
@@ -7420,7 +7415,7 @@
       </c>
       <c r="Q26" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45524.194956134263</v>
+        <v>45524.208247800925</v>
       </c>
       <c r="R26" t="str">
         <f>TEXT(Table3[[#This Row],[Order Date]],"mmm")</f>
@@ -7500,7 +7495,7 @@
       </c>
       <c r="Q27" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45524.194956134263</v>
+        <v>45524.208247800925</v>
       </c>
       <c r="R27" t="str">
         <f>TEXT(Table3[[#This Row],[Order Date]],"mmm")</f>
@@ -7580,7 +7575,7 @@
       </c>
       <c r="Q28" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45524.194956134263</v>
+        <v>45524.208247800925</v>
       </c>
       <c r="R28" t="str">
         <f>TEXT(Table3[[#This Row],[Order Date]],"mmm")</f>
@@ -7660,7 +7655,7 @@
       </c>
       <c r="Q29" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45524.194956134263</v>
+        <v>45524.208247800925</v>
       </c>
       <c r="R29" t="str">
         <f>TEXT(Table3[[#This Row],[Order Date]],"mmm")</f>
@@ -7740,7 +7735,7 @@
       </c>
       <c r="Q30" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45524.194956250001</v>
+        <v>45524.208247800925</v>
       </c>
       <c r="R30" t="str">
         <f>TEXT(Table3[[#This Row],[Order Date]],"mmm")</f>
@@ -7820,7 +7815,7 @@
       </c>
       <c r="Q31" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45524.194956134263</v>
+        <v>45524.208247800925</v>
       </c>
       <c r="R31" t="str">
         <f>TEXT(Table3[[#This Row],[Order Date]],"mmm")</f>
@@ -7900,7 +7895,7 @@
       </c>
       <c r="Q32" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45524.194956134263</v>
+        <v>45524.208247800925</v>
       </c>
       <c r="R32" t="str">
         <f>TEXT(Table3[[#This Row],[Order Date]],"mmm")</f>
@@ -7980,7 +7975,7 @@
       </c>
       <c r="Q33" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45524.194956134263</v>
+        <v>45524.208247800925</v>
       </c>
       <c r="R33" t="str">
         <f>TEXT(Table3[[#This Row],[Order Date]],"mmm")</f>
@@ -8060,7 +8055,7 @@
       </c>
       <c r="Q34" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45524.194956134263</v>
+        <v>45524.208247800925</v>
       </c>
       <c r="R34" t="str">
         <f>TEXT(Table3[[#This Row],[Order Date]],"mmm")</f>
@@ -8140,7 +8135,7 @@
       </c>
       <c r="Q35" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>45524.194956134263</v>
+        <v>45524.208247800925</v>
       </c>
       <c r="R35" t="str">
         <f>TEXT(Table3[[#This Row],[Order Date]],"mmm")</f>
@@ -8220,7 +8215,7 @@
       </c>
       <c r="Q36" s="27">
         <f t="shared" ref="Q36:Q67" ca="1" si="4">NOW()</f>
-        <v>45524.194956134263</v>
+        <v>45524.208247800925</v>
       </c>
       <c r="R36" t="str">
         <f>TEXT(Table3[[#This Row],[Order Date]],"mmm")</f>
@@ -8297,7 +8292,7 @@
       </c>
       <c r="Q37" s="27">
         <f t="shared" ca="1" si="4"/>
-        <v>45524.194956134263</v>
+        <v>45524.208247800925</v>
       </c>
       <c r="R37" t="str">
         <f>TEXT(Table3[[#This Row],[Order Date]],"mmm")</f>
@@ -8377,7 +8372,7 @@
       </c>
       <c r="Q38" s="27">
         <f t="shared" ca="1" si="4"/>
-        <v>45524.194956250001</v>
+        <v>45524.208247800925</v>
       </c>
       <c r="R38" t="str">
         <f>TEXT(Table3[[#This Row],[Order Date]],"mmm")</f>
@@ -8457,7 +8452,7 @@
       </c>
       <c r="Q39" s="27">
         <f t="shared" ca="1" si="4"/>
-        <v>45524.194956134263</v>
+        <v>45524.208247800925</v>
       </c>
       <c r="R39" t="str">
         <f>TEXT(Table3[[#This Row],[Order Date]],"mmm")</f>
@@ -8537,7 +8532,7 @@
       </c>
       <c r="Q40" s="27">
         <f t="shared" ca="1" si="4"/>
-        <v>45524.194956250001</v>
+        <v>45524.208247800925</v>
       </c>
       <c r="R40" t="str">
         <f>TEXT(Table3[[#This Row],[Order Date]],"mmm")</f>
@@ -8617,7 +8612,7 @@
       </c>
       <c r="Q41" s="27">
         <f t="shared" ca="1" si="4"/>
-        <v>45524.194956250001</v>
+        <v>45524.208247800925</v>
       </c>
       <c r="R41" t="str">
         <f>TEXT(Table3[[#This Row],[Order Date]],"mmm")</f>
@@ -8697,7 +8692,7 @@
       </c>
       <c r="Q42" s="27">
         <f t="shared" ca="1" si="4"/>
-        <v>45524.194956134263</v>
+        <v>45524.208247800925</v>
       </c>
       <c r="R42" t="str">
         <f>TEXT(Table3[[#This Row],[Order Date]],"mmm")</f>
@@ -8777,7 +8772,7 @@
       </c>
       <c r="Q43" s="27">
         <f t="shared" ca="1" si="4"/>
-        <v>45524.194956134263</v>
+        <v>45524.208247800925</v>
       </c>
       <c r="R43" t="str">
         <f>TEXT(Table3[[#This Row],[Order Date]],"mmm")</f>
@@ -8857,7 +8852,7 @@
       </c>
       <c r="Q44" s="27">
         <f t="shared" ca="1" si="4"/>
-        <v>45524.194956134263</v>
+        <v>45524.208247800925</v>
       </c>
       <c r="R44" t="str">
         <f>TEXT(Table3[[#This Row],[Order Date]],"mmm")</f>
@@ -8937,7 +8932,7 @@
       </c>
       <c r="Q45" s="27">
         <f t="shared" ca="1" si="4"/>
-        <v>45524.194956134263</v>
+        <v>45524.208247800925</v>
       </c>
       <c r="R45" t="str">
         <f>TEXT(Table3[[#This Row],[Order Date]],"mmm")</f>
@@ -9017,7 +9012,7 @@
       </c>
       <c r="Q46" s="27">
         <f t="shared" ca="1" si="4"/>
-        <v>45524.194956250001</v>
+        <v>45524.208247800925</v>
       </c>
       <c r="R46" t="str">
         <f>TEXT(Table3[[#This Row],[Order Date]],"mmm")</f>
@@ -9097,7 +9092,7 @@
       </c>
       <c r="Q47" s="27">
         <f t="shared" ca="1" si="4"/>
-        <v>45524.194956134263</v>
+        <v>45524.208247800925</v>
       </c>
       <c r="R47" t="str">
         <f>TEXT(Table3[[#This Row],[Order Date]],"mmm")</f>
@@ -9177,7 +9172,7 @@
       </c>
       <c r="Q48" s="27">
         <f t="shared" ca="1" si="4"/>
-        <v>45524.194956250001</v>
+        <v>45524.208247800925</v>
       </c>
       <c r="R48" t="str">
         <f>TEXT(Table3[[#This Row],[Order Date]],"mmm")</f>
@@ -9257,7 +9252,7 @@
       </c>
       <c r="Q49" s="27">
         <f t="shared" ca="1" si="4"/>
-        <v>45524.194956250001</v>
+        <v>45524.208247800925</v>
       </c>
       <c r="R49" t="str">
         <f>TEXT(Table3[[#This Row],[Order Date]],"mmm")</f>
@@ -9337,7 +9332,7 @@
       </c>
       <c r="Q50" s="27">
         <f t="shared" ca="1" si="4"/>
-        <v>45524.194956134263</v>
+        <v>45524.208247800925</v>
       </c>
       <c r="R50" t="str">
         <f>TEXT(Table3[[#This Row],[Order Date]],"mmm")</f>
@@ -9414,7 +9409,7 @@
       </c>
       <c r="Q51" s="27">
         <f t="shared" ca="1" si="4"/>
-        <v>45524.194956134263</v>
+        <v>45524.208247800925</v>
       </c>
       <c r="R51" t="str">
         <f>TEXT(Table3[[#This Row],[Order Date]],"mmm")</f>
@@ -9494,7 +9489,7 @@
       </c>
       <c r="Q52" s="27">
         <f t="shared" ca="1" si="4"/>
-        <v>45524.194956134263</v>
+        <v>45524.208247800925</v>
       </c>
       <c r="R52" t="str">
         <f>TEXT(Table3[[#This Row],[Order Date]],"mmm")</f>
@@ -9574,7 +9569,7 @@
       </c>
       <c r="Q53" s="27">
         <f t="shared" ca="1" si="4"/>
-        <v>45524.194956134263</v>
+        <v>45524.208247800925</v>
       </c>
       <c r="R53" t="str">
         <f>TEXT(Table3[[#This Row],[Order Date]],"mmm")</f>
@@ -9654,7 +9649,7 @@
       </c>
       <c r="Q54" s="27">
         <f t="shared" ca="1" si="4"/>
-        <v>45524.194956250001</v>
+        <v>45524.208247800925</v>
       </c>
       <c r="R54" t="str">
         <f>TEXT(Table3[[#This Row],[Order Date]],"mmm")</f>
@@ -9734,7 +9729,7 @@
       </c>
       <c r="Q55" s="27">
         <f t="shared" ca="1" si="4"/>
-        <v>45524.194956134263</v>
+        <v>45524.208247800925</v>
       </c>
       <c r="R55" t="str">
         <f>TEXT(Table3[[#This Row],[Order Date]],"mmm")</f>
@@ -9814,7 +9809,7 @@
       </c>
       <c r="Q56" s="27">
         <f t="shared" ca="1" si="4"/>
-        <v>45524.194956250001</v>
+        <v>45524.208247800925</v>
       </c>
       <c r="R56" t="str">
         <f>TEXT(Table3[[#This Row],[Order Date]],"mmm")</f>
@@ -9894,7 +9889,7 @@
       </c>
       <c r="Q57" s="27">
         <f t="shared" ca="1" si="4"/>
-        <v>45524.194956250001</v>
+        <v>45524.208247800925</v>
       </c>
       <c r="R57" t="str">
         <f>TEXT(Table3[[#This Row],[Order Date]],"mmm")</f>
@@ -9974,7 +9969,7 @@
       </c>
       <c r="Q58" s="27">
         <f t="shared" ca="1" si="4"/>
-        <v>45524.194956134263</v>
+        <v>45524.208247800925</v>
       </c>
       <c r="R58" t="str">
         <f>TEXT(Table3[[#This Row],[Order Date]],"mmm")</f>
@@ -10054,7 +10049,7 @@
       </c>
       <c r="Q59" s="27">
         <f t="shared" ca="1" si="4"/>
-        <v>45524.194956134263</v>
+        <v>45524.208247800925</v>
       </c>
       <c r="R59" t="str">
         <f>TEXT(Table3[[#This Row],[Order Date]],"mmm")</f>
@@ -10134,7 +10129,7 @@
       </c>
       <c r="Q60" s="27">
         <f t="shared" ca="1" si="4"/>
-        <v>45524.194956250001</v>
+        <v>45524.208247800925</v>
       </c>
       <c r="R60" t="str">
         <f>TEXT(Table3[[#This Row],[Order Date]],"mmm")</f>
@@ -10211,7 +10206,7 @@
       </c>
       <c r="Q61" s="27">
         <f t="shared" ca="1" si="4"/>
-        <v>45524.194956134263</v>
+        <v>45524.208247800925</v>
       </c>
       <c r="R61" t="str">
         <f>TEXT(Table3[[#This Row],[Order Date]],"mmm")</f>
@@ -10291,7 +10286,7 @@
       </c>
       <c r="Q62" s="27">
         <f t="shared" ca="1" si="4"/>
-        <v>45524.194956250001</v>
+        <v>45524.208247800925</v>
       </c>
       <c r="R62" t="str">
         <f>TEXT(Table3[[#This Row],[Order Date]],"mmm")</f>
@@ -10371,7 +10366,7 @@
       </c>
       <c r="Q63" s="27">
         <f t="shared" ca="1" si="4"/>
-        <v>45524.194956250001</v>
+        <v>45524.208247800925</v>
       </c>
       <c r="R63" t="str">
         <f>TEXT(Table3[[#This Row],[Order Date]],"mmm")</f>
@@ -10451,7 +10446,7 @@
       </c>
       <c r="Q64" s="27">
         <f t="shared" ca="1" si="4"/>
-        <v>45524.194956250001</v>
+        <v>45524.208247800925</v>
       </c>
       <c r="R64" t="str">
         <f>TEXT(Table3[[#This Row],[Order Date]],"mmm")</f>
@@ -10531,7 +10526,7 @@
       </c>
       <c r="Q65" s="27">
         <f t="shared" ca="1" si="4"/>
-        <v>45524.194956250001</v>
+        <v>45524.208247800925</v>
       </c>
       <c r="R65" t="str">
         <f>TEXT(Table3[[#This Row],[Order Date]],"mmm")</f>
@@ -10611,7 +10606,7 @@
       </c>
       <c r="Q66" s="27">
         <f t="shared" ca="1" si="4"/>
-        <v>45524.194956134263</v>
+        <v>45524.208247800925</v>
       </c>
       <c r="R66" t="str">
         <f>TEXT(Table3[[#This Row],[Order Date]],"mmm")</f>
@@ -10691,7 +10686,7 @@
       </c>
       <c r="Q67" s="27">
         <f t="shared" ca="1" si="4"/>
-        <v>45524.194956134263</v>
+        <v>45524.208247800925</v>
       </c>
       <c r="R67" t="str">
         <f>TEXT(Table3[[#This Row],[Order Date]],"mmm")</f>
@@ -10771,7 +10766,7 @@
       </c>
       <c r="Q68" s="27">
         <f t="shared" ref="Q68:Q83" ca="1" si="6">NOW()</f>
-        <v>45524.194956250001</v>
+        <v>45524.208247800925</v>
       </c>
       <c r="R68" t="str">
         <f>TEXT(Table3[[#This Row],[Order Date]],"mmm")</f>
@@ -10851,7 +10846,7 @@
       </c>
       <c r="Q69" s="27">
         <f t="shared" ca="1" si="6"/>
-        <v>45524.194956134263</v>
+        <v>45524.208247800925</v>
       </c>
       <c r="R69" t="str">
         <f>TEXT(Table3[[#This Row],[Order Date]],"mmm")</f>
@@ -10928,7 +10923,7 @@
       </c>
       <c r="Q70" s="27">
         <f t="shared" ca="1" si="6"/>
-        <v>45524.194956250001</v>
+        <v>45524.208247800925</v>
       </c>
       <c r="R70" t="str">
         <f>TEXT(Table3[[#This Row],[Order Date]],"mmm")</f>
@@ -11008,7 +11003,7 @@
       </c>
       <c r="Q71" s="27">
         <f t="shared" ca="1" si="6"/>
-        <v>45524.194956250001</v>
+        <v>45524.208247800925</v>
       </c>
       <c r="R71" t="str">
         <f>TEXT(Table3[[#This Row],[Order Date]],"mmm")</f>
@@ -11088,7 +11083,7 @@
       </c>
       <c r="Q72" s="27">
         <f t="shared" ca="1" si="6"/>
-        <v>45524.194956250001</v>
+        <v>45524.208247800925</v>
       </c>
       <c r="R72" t="str">
         <f>TEXT(Table3[[#This Row],[Order Date]],"mmm")</f>
@@ -11168,7 +11163,7 @@
       </c>
       <c r="Q73" s="27">
         <f t="shared" ca="1" si="6"/>
-        <v>45524.194956250001</v>
+        <v>45524.208247800925</v>
       </c>
       <c r="R73" t="str">
         <f>TEXT(Table3[[#This Row],[Order Date]],"mmm")</f>
@@ -11248,7 +11243,7 @@
       </c>
       <c r="Q74" s="27">
         <f t="shared" ca="1" si="6"/>
-        <v>45524.194956134263</v>
+        <v>45524.208247800925</v>
       </c>
       <c r="R74" t="str">
         <f>TEXT(Table3[[#This Row],[Order Date]],"mmm")</f>
@@ -11328,7 +11323,7 @@
       </c>
       <c r="Q75" s="27">
         <f t="shared" ca="1" si="6"/>
-        <v>45524.194956134263</v>
+        <v>45524.208247800925</v>
       </c>
       <c r="R75" t="str">
         <f>TEXT(Table3[[#This Row],[Order Date]],"mmm")</f>
@@ -11408,7 +11403,7 @@
       </c>
       <c r="Q76" s="27">
         <f t="shared" ca="1" si="6"/>
-        <v>45524.194956250001</v>
+        <v>45524.208247800925</v>
       </c>
       <c r="R76" t="str">
         <f>TEXT(Table3[[#This Row],[Order Date]],"mmm")</f>
@@ -11488,7 +11483,7 @@
       </c>
       <c r="Q77" s="27">
         <f t="shared" ca="1" si="6"/>
-        <v>45524.194956134263</v>
+        <v>45524.208247800925</v>
       </c>
       <c r="R77" t="str">
         <f>TEXT(Table3[[#This Row],[Order Date]],"mmm")</f>
@@ -11568,7 +11563,7 @@
       </c>
       <c r="Q78" s="27">
         <f t="shared" ca="1" si="6"/>
-        <v>45524.194956250001</v>
+        <v>45524.208247800925</v>
       </c>
       <c r="R78" t="str">
         <f>TEXT(Table3[[#This Row],[Order Date]],"mmm")</f>
@@ -11648,7 +11643,7 @@
       </c>
       <c r="Q79" s="27">
         <f t="shared" ca="1" si="6"/>
-        <v>45524.194956250001</v>
+        <v>45524.208247800925</v>
       </c>
       <c r="R79" t="str">
         <f>TEXT(Table3[[#This Row],[Order Date]],"mmm")</f>
@@ -11725,7 +11720,7 @@
       </c>
       <c r="Q80" s="27">
         <f t="shared" ca="1" si="6"/>
-        <v>45524.194956250001</v>
+        <v>45524.208247800925</v>
       </c>
       <c r="R80" t="str">
         <f>TEXT(Table3[[#This Row],[Order Date]],"mmm")</f>
@@ -11805,7 +11800,7 @@
       </c>
       <c r="Q81" s="27">
         <f t="shared" ca="1" si="6"/>
-        <v>45524.194956250001</v>
+        <v>45524.208247800925</v>
       </c>
       <c r="R81" t="str">
         <f>TEXT(Table3[[#This Row],[Order Date]],"mmm")</f>
@@ -11885,7 +11880,7 @@
       </c>
       <c r="Q82" s="27">
         <f t="shared" ca="1" si="6"/>
-        <v>45524.194956134263</v>
+        <v>45524.208247800925</v>
       </c>
       <c r="R82" t="str">
         <f>TEXT(Table3[[#This Row],[Order Date]],"mmm")</f>
@@ -11965,7 +11960,7 @@
       </c>
       <c r="Q83" s="27">
         <f t="shared" ca="1" si="6"/>
-        <v>45524.194956134263</v>
+        <v>45524.208247800925</v>
       </c>
       <c r="R83" t="str">
         <f>TEXT(Table3[[#This Row],[Order Date]],"mmm")</f>
@@ -12000,25 +11995,39 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EFDC79F-7BC0-4651-B9B1-8D504A49226C}">
   <sheetPr codeName="Sheet9"/>
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="268" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.5" customWidth="1"/>
-    <col min="3" max="3" width="11.83203125" customWidth="1"/>
-    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G2" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G3" t="str">
+        <f>"Max % of Total: "&amp;TEXT(MAX(tblSalesReps[% of Total]),"0.0%")</f>
+        <v>Max % of Total: 35.0%</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>205</v>
       </c>
@@ -12026,146 +12035,217 @@
         <v>206</v>
       </c>
       <c r="C4" t="s">
+        <v>226</v>
+      </c>
+      <c r="D4" t="s">
+        <v>227</v>
+      </c>
+      <c r="E4" t="s">
         <v>207</v>
       </c>
-      <c r="D4" t="s">
+      <c r="F4" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>201</v>
       </c>
       <c r="B5" t="s">
         <v>202</v>
       </c>
-      <c r="C5" s="21">
+      <c r="C5" t="str">
+        <f>tblSalesReps[[#This Row],[First Name]]&amp;" "&amp;tblSalesReps[[#This Row],[Last Name]]</f>
+        <v>Nancy Freehafer</v>
+      </c>
+      <c r="D5" t="str">
+        <f>_xlfn.TEXTJOIN(" ",TRUE,tblSalesReps[[#This Row],[First Name]],tblSalesReps[[#This Row],[Last Name]])</f>
+        <v>Nancy Freehafer</v>
+      </c>
+      <c r="E5" s="21">
         <v>17137.579999999998</v>
       </c>
-      <c r="D5" s="28">
+      <c r="F5" s="28">
         <f>tblSalesReps[[#This Row],[Sales]]/tblSalesReps[[#Totals],[Sales]]</f>
-        <v>0.24397187634886813</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+        <v>0.14253255569763695</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>190</v>
       </c>
       <c r="B6" t="s">
         <v>191</v>
       </c>
-      <c r="C6" s="21">
+      <c r="C6" t="str">
+        <f>tblSalesReps[[#This Row],[First Name]]&amp;" "&amp;tblSalesReps[[#This Row],[Last Name]]</f>
+        <v>Andrew Cencini</v>
+      </c>
+      <c r="D6" t="str">
+        <f>_xlfn.TEXTJOIN(" ",TRUE,tblSalesReps[[#This Row],[First Name]],tblSalesReps[[#This Row],[Last Name]])</f>
+        <v>Andrew Cencini</v>
+      </c>
+      <c r="E6" s="21">
         <v>12368.9</v>
       </c>
-      <c r="D6" s="28">
+      <c r="F6" s="28">
         <f>tblSalesReps[[#This Row],[Sales]]/tblSalesReps[[#Totals],[Sales]]</f>
-        <v>0.1760845896195096</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+        <v>0.10287163812910001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>192</v>
       </c>
       <c r="B7" t="s">
         <v>193</v>
       </c>
-      <c r="C7" s="21">
-        <v>12065.27</v>
-      </c>
-      <c r="D7" s="28">
+      <c r="C7" t="str">
+        <f>tblSalesReps[[#This Row],[First Name]]&amp;" "&amp;tblSalesReps[[#This Row],[Last Name]]</f>
+        <v>Anne Larsen</v>
+      </c>
+      <c r="D7" t="str">
+        <f>_xlfn.TEXTJOIN(" ",TRUE,tblSalesReps[[#This Row],[First Name]],tblSalesReps[[#This Row],[Last Name]])</f>
+        <v>Anne Larsen</v>
+      </c>
+      <c r="E7" s="21">
+        <v>42065.27</v>
+      </c>
+      <c r="F7" s="28">
         <f>tblSalesReps[[#This Row],[Sales]]/tblSalesReps[[#Totals],[Sales]]</f>
-        <v>0.1717620901291611</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+        <v>0.34985513936104962</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>199</v>
       </c>
       <c r="B8" t="s">
         <v>200</v>
       </c>
-      <c r="C8" s="21">
-        <v>10514.5</v>
-      </c>
-      <c r="D8" s="28">
+      <c r="C8" t="str">
+        <f>tblSalesReps[[#This Row],[First Name]]&amp;" "&amp;tblSalesReps[[#This Row],[Last Name]]</f>
+        <v>Michael Neipper</v>
+      </c>
+      <c r="D8" t="str">
+        <f>_xlfn.TEXTJOIN(" ",TRUE,tblSalesReps[[#This Row],[First Name]],tblSalesReps[[#This Row],[Last Name]])</f>
+        <v>Michael Neipper</v>
+      </c>
+      <c r="E8" s="21">
+        <v>30506.67</v>
+      </c>
+      <c r="F8" s="28">
         <f>tblSalesReps[[#This Row],[Sales]]/tblSalesReps[[#Totals],[Sales]]</f>
-        <v>0.14968521190682549</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+        <v>0.25372273336868045</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>195</v>
       </c>
       <c r="B9" t="s">
         <v>196</v>
       </c>
-      <c r="C9" s="21">
+      <c r="C9" t="str">
+        <f>tblSalesReps[[#This Row],[First Name]]&amp;" "&amp;tblSalesReps[[#This Row],[Last Name]]</f>
+        <v>Laura Giussani</v>
+      </c>
+      <c r="D9" t="str">
+        <f>_xlfn.TEXTJOIN(" ",TRUE,tblSalesReps[[#This Row],[First Name]],tblSalesReps[[#This Row],[Last Name]])</f>
+        <v>Laura Giussani</v>
+      </c>
+      <c r="E9" s="21">
         <v>7421.07</v>
       </c>
-      <c r="D9" s="28">
+      <c r="F9" s="28">
         <f>tblSalesReps[[#This Row],[Sales]]/tblSalesReps[[#Totals],[Sales]]</f>
-        <v>0.10564691003142188</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+        <v>6.1720737298443691E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>197</v>
       </c>
       <c r="B10" t="s">
         <v>198</v>
       </c>
-      <c r="C10" s="21">
+      <c r="C10" t="str">
+        <f>tblSalesReps[[#This Row],[First Name]]&amp;" "&amp;tblSalesReps[[#This Row],[Last Name]]</f>
+        <v>Mariya Sergienko</v>
+      </c>
+      <c r="D10" t="str">
+        <f>_xlfn.TEXTJOIN(" ",TRUE,tblSalesReps[[#This Row],[First Name]],tblSalesReps[[#This Row],[Last Name]])</f>
+        <v>Mariya Sergienko</v>
+      </c>
+      <c r="E10" s="21">
         <v>6942.8600000000006</v>
       </c>
-      <c r="D10" s="28">
+      <c r="F10" s="28">
         <f>tblSalesReps[[#This Row],[Sales]]/tblSalesReps[[#Totals],[Sales]]</f>
-        <v>9.8839076545667648E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+        <v>5.7743484182183002E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>203</v>
       </c>
       <c r="B11" t="s">
         <v>204</v>
       </c>
-      <c r="C11" s="21">
+      <c r="C11" t="str">
+        <f>tblSalesReps[[#This Row],[First Name]]&amp;" "&amp;tblSalesReps[[#This Row],[Last Name]]</f>
+        <v>Robert Zare</v>
+      </c>
+      <c r="D11" t="str">
+        <f>_xlfn.TEXTJOIN(" ",TRUE,tblSalesReps[[#This Row],[First Name]],tblSalesReps[[#This Row],[Last Name]])</f>
+        <v>Robert Zare</v>
+      </c>
+      <c r="E11" s="21">
         <v>2814.65</v>
       </c>
-      <c r="D11" s="28">
+      <c r="F11" s="28">
         <f>tblSalesReps[[#This Row],[Sales]]/tblSalesReps[[#Totals],[Sales]]</f>
-        <v>4.0069568851923192E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+        <v>2.3409329549116845E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>116</v>
       </c>
       <c r="B12" t="s">
         <v>194</v>
       </c>
-      <c r="C12" s="21">
+      <c r="C12" t="str">
+        <f>tblSalesReps[[#This Row],[First Name]]&amp;" "&amp;tblSalesReps[[#This Row],[Last Name]]</f>
+        <v>Jan Kotas</v>
+      </c>
+      <c r="D12" t="str">
+        <f>_xlfn.TEXTJOIN(" ",TRUE,tblSalesReps[[#This Row],[First Name]],tblSalesReps[[#This Row],[Last Name]])</f>
+        <v>Jan Kotas</v>
+      </c>
+      <c r="E12" s="21">
         <v>979.25</v>
       </c>
-      <c r="D12" s="28">
+      <c r="F12" s="28">
         <f>tblSalesReps[[#This Row],[Sales]]/tblSalesReps[[#Totals],[Sales]]</f>
-        <v>1.3940676566623126E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+        <v>8.1443824137895204E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>178</v>
       </c>
-      <c r="C13" s="24">
+      <c r="E13" s="24">
         <f>SUBTOTAL(109,tblSalesReps[Sales])</f>
-        <v>70244.079999999987</v>
-      </c>
-      <c r="D13" s="29">
+        <v>120236.24999999999</v>
+      </c>
+      <c r="F13" s="29">
         <f>SUBTOTAL(109,tblSalesReps[% of Total])</f>
         <v>1.0000000000000002</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="15" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
@@ -12202,7 +12282,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G3" s="39" t="s">
+      <c r="G3" s="40" t="s">
         <v>53</v>
       </c>
     </row>
@@ -12221,7 +12301,7 @@
         <v>3</v>
       </c>
       <c r="F4" s="3"/>
-      <c r="G4" s="39"/>
+      <c r="G4" s="40"/>
       <c r="H4" s="3" t="s">
         <v>5</v>
       </c>
